--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -181,33 +181,33 @@
     <t>Dorset Council</t>
   </si>
   <si>
+    <t>Plymouth City Council</t>
+  </si>
+  <si>
+    <t>Perth and Kinross Council</t>
+  </si>
+  <si>
+    <t>Cheshire East Council</t>
+  </si>
+  <si>
     <t>Slough Borough Council</t>
   </si>
   <si>
-    <t>Plymouth City Council</t>
-  </si>
-  <si>
-    <t>Perth and Kinross Council</t>
-  </si>
-  <si>
-    <t>Cheshire East Council</t>
-  </si>
-  <si>
     <t>London Borough of Hounslow</t>
   </si>
   <si>
+    <t>Trafford Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Bristol City Council</t>
   </si>
   <si>
+    <t>Central Bedfordshire Council</t>
+  </si>
+  <si>
     <t>Stirling Council</t>
   </si>
   <si>
-    <t>Trafford Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Central Bedfordshire Council</t>
-  </si>
-  <si>
     <t>Dundee City Council</t>
   </si>
   <si>
@@ -244,6 +244,9 @@
     <t>Blackpool Borough Council</t>
   </si>
   <si>
+    <t>London Borough of Croydon</t>
+  </si>
+  <si>
     <t>Salford City Council</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>Swindon Borough Council</t>
   </si>
   <si>
-    <t>London Borough of Croydon</t>
-  </si>
-  <si>
     <t>Bury Metropolitan Borough Council</t>
   </si>
   <si>
@@ -322,39 +322,39 @@
     <t>Walsall Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Hull City Council</t>
+  </si>
+  <si>
+    <t>Midlothian Council</t>
+  </si>
+  <si>
+    <t>Milton Keynes Council</t>
+  </si>
+  <si>
+    <t>Bath and North East Somerset Council</t>
+  </si>
+  <si>
+    <t>Bournemouth, Christchurch and Poole Council</t>
+  </si>
+  <si>
     <t>Royal Borough of Windsor and Maidenhead</t>
   </si>
   <si>
-    <t>Hull City Council</t>
-  </si>
-  <si>
-    <t>Midlothian Council</t>
-  </si>
-  <si>
-    <t>Milton Keynes Council</t>
-  </si>
-  <si>
-    <t>Bath and North East Somerset Council</t>
-  </si>
-  <si>
-    <t>Bournemouth, Christchurch and Poole Council</t>
-  </si>
-  <si>
     <t>London Borough of Sutton</t>
   </si>
   <si>
     <t>South Tyneside Council</t>
   </si>
   <si>
+    <t>London Borough of Enfield</t>
+  </si>
+  <si>
     <t>Denbighshire County Council</t>
   </si>
   <si>
     <t>Vale of Glamorgan Council</t>
   </si>
   <si>
-    <t>London Borough of Enfield</t>
-  </si>
-  <si>
     <t>South Lanarkshire Council</t>
   </si>
   <si>
@@ -385,15 +385,15 @@
     <t>South Ayrshire Council</t>
   </si>
   <si>
+    <t>Redcar and Cleveland Borough Council</t>
+  </si>
+  <si>
+    <t>The Moray Council</t>
+  </si>
+  <si>
     <t>Southampton City Council</t>
   </si>
   <si>
-    <t>Redcar and Cleveland Borough Council</t>
-  </si>
-  <si>
-    <t>The Moray Council</t>
-  </si>
-  <si>
     <t>Doncaster Metropolitan Borough Council</t>
   </si>
   <si>
@@ -532,18 +532,18 @@
     <t>Conwy County Borough Council</t>
   </si>
   <si>
+    <t>City of York Council</t>
+  </si>
+  <si>
     <t>Thurrock Council</t>
   </si>
   <si>
-    <t>City of York Council</t>
+    <t>London Borough of Waltham Forest</t>
   </si>
   <si>
     <t>City of Wolverhampton Council</t>
   </si>
   <si>
-    <t>London Borough of Waltham Forest</t>
-  </si>
-  <si>
     <t>Tameside Metropolitan Borough Council</t>
   </si>
   <si>
@@ -727,33 +727,33 @@
     <t>DST</t>
   </si>
   <si>
+    <t>PLY</t>
+  </si>
+  <si>
+    <t>PKN</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
     <t>SLG</t>
   </si>
   <si>
-    <t>PLY</t>
-  </si>
-  <si>
-    <t>PKN</t>
-  </si>
-  <si>
-    <t>CHE</t>
-  </si>
-  <si>
     <t>HNS</t>
   </si>
   <si>
+    <t>TRF</t>
+  </si>
+  <si>
     <t>BST</t>
   </si>
   <si>
+    <t>CBF</t>
+  </si>
+  <si>
     <t>STG</t>
   </si>
   <si>
-    <t>TRF</t>
-  </si>
-  <si>
-    <t>CBF</t>
-  </si>
-  <si>
     <t>DND</t>
   </si>
   <si>
@@ -790,6 +790,9 @@
     <t>BPL</t>
   </si>
   <si>
+    <t>CRY</t>
+  </si>
+  <si>
     <t>SLF</t>
   </si>
   <si>
@@ -799,9 +802,6 @@
     <t>SWD</t>
   </si>
   <si>
-    <t>CRY</t>
-  </si>
-  <si>
     <t>BUR</t>
   </si>
   <si>
@@ -868,39 +868,39 @@
     <t>WLL</t>
   </si>
   <si>
+    <t>KHL</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>MIK</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
     <t>WNM</t>
   </si>
   <si>
-    <t>KHL</t>
-  </si>
-  <si>
-    <t>MLN</t>
-  </si>
-  <si>
-    <t>MIK</t>
-  </si>
-  <si>
-    <t>BAS</t>
-  </si>
-  <si>
-    <t>BPC</t>
-  </si>
-  <si>
     <t>STN</t>
   </si>
   <si>
     <t>STY</t>
   </si>
   <si>
+    <t>ENF</t>
+  </si>
+  <si>
     <t>DEN</t>
   </si>
   <si>
     <t>VGL</t>
   </si>
   <si>
-    <t>ENF</t>
-  </si>
-  <si>
     <t>SLK</t>
   </si>
   <si>
@@ -931,15 +931,15 @@
     <t>SAY</t>
   </si>
   <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>MRY</t>
+  </si>
+  <si>
     <t>STH</t>
   </si>
   <si>
-    <t>RCC</t>
-  </si>
-  <si>
-    <t>MRY</t>
-  </si>
-  <si>
     <t>DNC</t>
   </si>
   <si>
@@ -1078,16 +1078,16 @@
     <t>CWY</t>
   </si>
   <si>
+    <t>YOR</t>
+  </si>
+  <si>
     <t>THR</t>
   </si>
   <si>
-    <t>YOR</t>
+    <t>WFT</t>
   </si>
   <si>
     <t>WLV</t>
-  </si>
-  <si>
-    <t>WFT</t>
   </si>
   <si>
     <t>TAM</t>
@@ -3412,13 +3412,13 @@
         <v>237</v>
       </c>
       <c r="E31">
-        <v>0.6190476190476191</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F31">
-        <v>0.9444444444444444</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G31">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H31">
         <v>0.7</v>
@@ -3427,34 +3427,34 @@
         <v>0.8</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K31">
         <v>0.2</v>
       </c>
       <c r="L31">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0.75</v>
       </c>
       <c r="N31">
-        <v>0.6727380952380954</v>
+        <v>0.6698809523809524</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="R31" t="s">
         <v>407</v>
       </c>
       <c r="S31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3462,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -3471,46 +3471,46 @@
         <v>238</v>
       </c>
       <c r="E32">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="F32">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G32">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F32">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G32">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="H32">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I32">
         <v>0.8</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M32">
         <v>0.75</v>
       </c>
       <c r="N32">
-        <v>0.6698809523809524</v>
+        <v>0.6641666666666667</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R32" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S32" t="s">
         <v>413</v>
@@ -3521,7 +3521,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -3530,46 +3530,46 @@
         <v>239</v>
       </c>
       <c r="E33">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F33">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
         <v>0.7142857142857143</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>0.2</v>
-      </c>
-      <c r="L33">
-        <v>0.4</v>
       </c>
       <c r="M33">
         <v>0.75</v>
       </c>
       <c r="N33">
-        <v>0.6641666666666667</v>
+        <v>0.6639285714285714</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S33" t="s">
         <v>413</v>
@@ -3589,49 +3589,49 @@
         <v>240</v>
       </c>
       <c r="E34">
-        <v>0.7619047619047619</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G34">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H34">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L34">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M34">
         <v>0.75</v>
       </c>
       <c r="N34">
-        <v>0.6639285714285714</v>
+        <v>0.6602380952380952</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q34" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="R34" t="s">
         <v>407</v>
       </c>
       <c r="S34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3663,7 +3663,7 @@
         <v>0.4</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K35">
         <v>0.4</v>
@@ -3675,7 +3675,7 @@
         <v>0.25</v>
       </c>
       <c r="N35">
-        <v>0.6615476190476191</v>
+        <v>0.6490476190476191</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -3698,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
@@ -3707,22 +3707,22 @@
         <v>242</v>
       </c>
       <c r="E36">
-        <v>0.7619047619047619</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F36">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G36">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H36">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0.2</v>
@@ -3731,25 +3731,25 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
-        <v>0.6498809523809522</v>
+        <v>0.6430952380952381</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R36" t="s">
         <v>407</v>
       </c>
       <c r="S36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3757,7 +3757,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -3766,46 +3766,46 @@
         <v>243</v>
       </c>
       <c r="E37">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F37">
-        <v>0.6111111111111112</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G37">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H37">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0.75</v>
       </c>
       <c r="N37">
-        <v>0.6470238095238096</v>
+        <v>0.6427380952380951</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S37" t="s">
         <v>413</v>
@@ -3816,7 +3816,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -3825,49 +3825,49 @@
         <v>244</v>
       </c>
       <c r="E38">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F38">
         <v>0.6111111111111112</v>
       </c>
       <c r="G38">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I38">
         <v>0.8</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
         <v>0.2</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M38">
         <v>0.5</v>
       </c>
       <c r="N38">
-        <v>0.6430952380952381</v>
+        <v>0.6409523809523811</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q38" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="R38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3875,7 +3875,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -3884,49 +3884,49 @@
         <v>245</v>
       </c>
       <c r="E39">
-        <v>0.7619047619047619</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F39">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.6409523809523811</v>
+        <v>0.6386904761904763</v>
       </c>
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R39" t="s">
         <v>408</v>
       </c>
       <c r="S39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4642,7 +4642,7 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
@@ -4651,25 +4651,25 @@
         <v>258</v>
       </c>
       <c r="E52">
-        <v>0.2857142857142857</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F52">
-        <v>0.8333333333333334</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G52">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H52">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I52">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L52">
         <v>0.6</v>
@@ -4678,16 +4678,16 @@
         <v>0.75</v>
       </c>
       <c r="N52">
-        <v>0.6060714285714285</v>
+        <v>0.6098809523809524</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q52" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R52" t="s">
         <v>407</v>
@@ -4710,19 +4710,19 @@
         <v>259</v>
       </c>
       <c r="E53">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F53">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G53">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H53">
+        <v>0.7</v>
+      </c>
+      <c r="I53">
         <v>0.8</v>
-      </c>
-      <c r="I53">
-        <v>0.6</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4731,13 +4731,13 @@
         <v>0.2</v>
       </c>
       <c r="L53">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N53">
-        <v>0.6019047619047619</v>
+        <v>0.6060714285714285</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>392</v>
       </c>
       <c r="Q53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="R53" t="s">
         <v>407</v>
@@ -4760,7 +4760,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
         <v>78</v>
@@ -4769,49 +4769,49 @@
         <v>260</v>
       </c>
       <c r="E54">
-        <v>0.6190476190476191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F54">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G54">
         <v>0.8571428571428571</v>
       </c>
       <c r="H54">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0.5997619047619047</v>
+        <v>0.6019047619047619</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
         <v>392</v>
       </c>
       <c r="Q54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R54" t="s">
         <v>407</v>
       </c>
       <c r="S54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4819,7 +4819,7 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
@@ -4828,49 +4828,49 @@
         <v>261</v>
       </c>
       <c r="E55">
-        <v>0.5238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F55">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G55">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0.6</v>
       </c>
       <c r="M55">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0.5948809523809523</v>
+        <v>0.5997619047619047</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R55" t="s">
         <v>407</v>
       </c>
       <c r="S55" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -6185,49 +6185,49 @@
         <v>284</v>
       </c>
       <c r="E78">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F78">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G78">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H78">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I78">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0.5</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M78">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N78">
-        <v>0.5003571428571428</v>
+        <v>0.5001190476190477</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q78" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="R78" t="s">
         <v>407</v>
       </c>
       <c r="S78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6235,7 +6235,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>103</v>
@@ -6244,49 +6244,49 @@
         <v>285</v>
       </c>
       <c r="E79">
-        <v>0.3333333333333333</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F79">
         <v>0.5555555555555556</v>
       </c>
       <c r="G79">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H79">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0.2</v>
+      </c>
+      <c r="M79">
         <v>0.5</v>
       </c>
-      <c r="K79">
-        <v>0.2</v>
-      </c>
-      <c r="L79">
-        <v>0.4</v>
-      </c>
-      <c r="M79">
-        <v>0.25</v>
-      </c>
       <c r="N79">
-        <v>0.5001190476190477</v>
+        <v>0.4983333333333334</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P79" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q79" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R79" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S79" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -6303,7 +6303,7 @@
         <v>286</v>
       </c>
       <c r="E80">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F80">
         <v>0.5555555555555556</v>
@@ -6312,37 +6312,37 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I80">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N80">
-        <v>0.4983333333333334</v>
+        <v>0.4819047619047619</v>
       </c>
       <c r="O80">
         <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q80" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S80" t="s">
         <v>413</v>
@@ -6362,49 +6362,49 @@
         <v>287</v>
       </c>
       <c r="E81">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F81">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G81">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H81">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I81">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0.2</v>
       </c>
       <c r="L81">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M81">
         <v>0.75</v>
       </c>
       <c r="N81">
-        <v>0.4819047619047619</v>
+        <v>0.4817857142857143</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q81" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="R81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S81" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6421,49 +6421,49 @@
         <v>288</v>
       </c>
       <c r="E82">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F82">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G82">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H82">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I82">
         <v>0.8</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0.75</v>
       </c>
       <c r="N82">
-        <v>0.4817857142857143</v>
+        <v>0.4796428571428571</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P82" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q82" t="s">
         <v>400</v>
       </c>
       <c r="R82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6480,19 +6480,19 @@
         <v>289</v>
       </c>
       <c r="E83">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F83">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G83">
         <v>0.5714285714285714</v>
       </c>
       <c r="H83">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I83">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J83">
         <v>0.5</v>
@@ -6501,22 +6501,22 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M83">
         <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4796428571428571</v>
+        <v>0.4789285714285715</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P83" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q83" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R83" t="s">
         <v>407</v>
@@ -6648,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -6657,49 +6657,49 @@
         <v>292</v>
       </c>
       <c r="E86">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F86">
-        <v>0.1666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G86">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H86">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I86">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N86">
-        <v>0.4603571428571429</v>
+        <v>0.4645238095238095</v>
       </c>
       <c r="O86">
         <v>2</v>
       </c>
       <c r="P86" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q86" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S86" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6716,37 +6716,37 @@
         <v>293</v>
       </c>
       <c r="E87">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F87">
-        <v>0.7777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G87">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H87">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I87">
         <v>0.4</v>
       </c>
       <c r="J87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N87">
-        <v>0.4588095238095239</v>
+        <v>0.4603571428571429</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P87" t="s">
         <v>395</v>
@@ -6755,7 +6755,7 @@
         <v>405</v>
       </c>
       <c r="R87" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S87" t="s">
         <v>413</v>
@@ -6766,7 +6766,7 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>112</v>
@@ -6775,49 +6775,49 @@
         <v>294</v>
       </c>
       <c r="E88">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="F88">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G88">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F88">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G88">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="H88">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I88">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N88">
-        <v>0.4561904761904762</v>
+        <v>0.4588095238095239</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P88" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q88" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R88" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S88" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -7424,49 +7424,49 @@
         <v>305</v>
       </c>
       <c r="E99">
-        <v>0.3333333333333333</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F99">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G99">
         <v>0.5714285714285714</v>
       </c>
       <c r="H99">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I99">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J99">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>0.3957142857142858</v>
+        <v>0.3944047619047619</v>
       </c>
       <c r="O99">
         <v>2</v>
       </c>
       <c r="P99" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q99" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R99" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S99" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7474,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
         <v>124</v>
@@ -7483,46 +7483,46 @@
         <v>306</v>
       </c>
       <c r="E100">
-        <v>0.6190476190476191</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F100">
-        <v>0.3888888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G100">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H100">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I100">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J100">
         <v>0.25</v>
       </c>
       <c r="K100">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0.3944047619047619</v>
+        <v>0.3872619047619048</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P100" t="s">
         <v>395</v>
       </c>
       <c r="Q100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R100" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S100" t="s">
         <v>413</v>
@@ -7533,7 +7533,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
         <v>125</v>
@@ -7542,49 +7542,49 @@
         <v>307</v>
       </c>
       <c r="E101">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F101">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G101">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H101">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I101">
         <v>0.4</v>
       </c>
       <c r="J101">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N101">
-        <v>0.3872619047619048</v>
+        <v>0.3807142857142858</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P101" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q101" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R101" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -10345,19 +10345,19 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P148" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q148" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R148" t="s">
         <v>407</v>
       </c>
       <c r="S148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10404,19 +10404,19 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q149" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="R149" t="s">
         <v>407</v>
       </c>
       <c r="S149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10424,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
         <v>174</v>
@@ -10463,13 +10463,13 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P150" t="s">
         <v>392</v>
       </c>
       <c r="Q150" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R150" t="s">
         <v>407</v>
@@ -10483,7 +10483,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
         <v>175</v>
@@ -10522,13 +10522,13 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P151" t="s">
         <v>392</v>
       </c>
       <c r="Q151" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R151" t="s">
         <v>407</v>

--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -283,336 +283,339 @@
     <t>Southend-on-Sea Borough Council</t>
   </si>
   <si>
+    <t>London Borough of Bromley</t>
+  </si>
+  <si>
+    <t>Royal Borough of Kingston upon Thames</t>
+  </si>
+  <si>
+    <t>Cheshire West and Chester Council</t>
+  </si>
+  <si>
+    <t>Wirral Borough Council</t>
+  </si>
+  <si>
+    <t>North Lanarkshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Redbridge</t>
+  </si>
+  <si>
+    <t>Shropshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Merton</t>
+  </si>
+  <si>
+    <t>Wigan Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Birmingham City Council</t>
+  </si>
+  <si>
+    <t>Rotherham Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Newham</t>
+  </si>
+  <si>
+    <t>Walsall Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Hull City Council</t>
+  </si>
+  <si>
+    <t>Midlothian Council</t>
+  </si>
+  <si>
+    <t>Milton Keynes Council</t>
+  </si>
+  <si>
+    <t>Bath and North East Somerset Council</t>
+  </si>
+  <si>
+    <t>Bournemouth, Christchurch and Poole Council</t>
+  </si>
+  <si>
+    <t>Royal Borough of Windsor and Maidenhead</t>
+  </si>
+  <si>
+    <t>London Borough of Sutton</t>
+  </si>
+  <si>
+    <t>South Tyneside Council</t>
+  </si>
+  <si>
+    <t>London Borough of Enfield</t>
+  </si>
+  <si>
+    <t>Denbighshire County Council</t>
+  </si>
+  <si>
+    <t>Vale of Glamorgan Council</t>
+  </si>
+  <si>
+    <t>Bolton Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>South Lanarkshire Council</t>
+  </si>
+  <si>
+    <t>Barnsley Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>North Northamptonshire Council</t>
+  </si>
+  <si>
+    <t>West Lothian Council</t>
+  </si>
+  <si>
+    <t>London Borough of Hillingdon</t>
+  </si>
+  <si>
+    <t>Stockton-on-Tees Borough Council</t>
+  </si>
+  <si>
+    <t>Rhondda Cynon Taf County Borough Council</t>
+  </si>
+  <si>
+    <t>Torbay Council</t>
+  </si>
+  <si>
+    <t>Monmouthshire County Council</t>
+  </si>
+  <si>
+    <t>Blackburn with Darwen Borough Council</t>
+  </si>
+  <si>
+    <t>South Ayrshire Council</t>
+  </si>
+  <si>
+    <t>Redcar and Cleveland Borough Council</t>
+  </si>
+  <si>
+    <t>The Moray Council</t>
+  </si>
+  <si>
+    <t>Southampton City Council</t>
+  </si>
+  <si>
+    <t>Doncaster Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Pembrokeshire County Council</t>
+  </si>
+  <si>
+    <t>Portsmouth City Council</t>
+  </si>
+  <si>
+    <t>North Ayrshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Lambeth</t>
+  </si>
+  <si>
+    <t>Argyll and Bute Council</t>
+  </si>
+  <si>
+    <t>Buckinghamshire Council</t>
+  </si>
+  <si>
+    <t>Aberdeen City Council</t>
+  </si>
+  <si>
+    <t>City of London Corporation</t>
+  </si>
+  <si>
+    <t>East Ayrshire Council</t>
+  </si>
+  <si>
+    <t>Oldham Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Ceredigion County Council</t>
+  </si>
+  <si>
+    <t>North Somerset  Council</t>
+  </si>
+  <si>
+    <t>London Borough of Barking and Dagenham</t>
+  </si>
+  <si>
+    <t>West Northamptonshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Tower Hamlets</t>
+  </si>
+  <si>
+    <t>Sefton Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Stockport Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Neath Port Talbot County Borough Council</t>
+  </si>
+  <si>
+    <t>Peterborough City Council</t>
+  </si>
+  <si>
+    <t>Carmarthenshire County Council</t>
+  </si>
+  <si>
+    <t>Caerphilly County Borough Council</t>
+  </si>
+  <si>
+    <t>Warrington Borough Council</t>
+  </si>
+  <si>
+    <t>Calderdale Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Middlesbrough Borough Council</t>
+  </si>
+  <si>
+    <t>Knowsley Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Liverpool City Council</t>
+  </si>
+  <si>
+    <t>City of Bradford Metropolitan District Council</t>
+  </si>
+  <si>
+    <t>Bracknell Forest Council</t>
+  </si>
+  <si>
+    <t>Wrexham County Borough Council</t>
+  </si>
+  <si>
+    <t>Dumfries and Galloway Council</t>
+  </si>
+  <si>
+    <t>Inverclyde Council</t>
+  </si>
+  <si>
+    <t>Luton Borough Council</t>
+  </si>
+  <si>
+    <t>Comhairle nan Eilean Siar</t>
+  </si>
+  <si>
+    <t>City and County of Swansea Council</t>
+  </si>
+  <si>
+    <t>Blaenau Gwent County Borough Council</t>
+  </si>
+  <si>
+    <t>Gateshead Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>North Lincolnshire Council</t>
+  </si>
+  <si>
+    <t>Falkirk Council</t>
+  </si>
+  <si>
+    <t>Newport City Council</t>
+  </si>
+  <si>
+    <t>Rochdale Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Orkney Islands Council</t>
+  </si>
+  <si>
+    <t>Merthyr Tydfil County Borough Council</t>
+  </si>
+  <si>
+    <t>Conwy County Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Waltham Forest</t>
+  </si>
+  <si>
+    <t>Torfaen County Borough Council</t>
+  </si>
+  <si>
+    <t>City of Wolverhampton Council</t>
+  </si>
+  <si>
+    <t>City of York Council</t>
+  </si>
+  <si>
+    <t>Tameside Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>Thurrock Council</t>
+  </si>
+  <si>
+    <t>Stoke-on-Trent City Council</t>
+  </si>
+  <si>
+    <t>Derby City Council</t>
+  </si>
+  <si>
+    <t>Dudley Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>East Renfrewshire Council</t>
+  </si>
+  <si>
+    <t>East Riding of Yorkshire Council</t>
+  </si>
+  <si>
+    <t>Flintshire County Council</t>
+  </si>
+  <si>
+    <t>Gwynedd Council</t>
+  </si>
+  <si>
+    <t>Halton Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Havering</t>
+  </si>
+  <si>
+    <t>Bridgend County Borough Council</t>
+  </si>
+  <si>
+    <t>Isle of Anglesey County Council</t>
+  </si>
+  <si>
+    <t>Angus Council</t>
+  </si>
+  <si>
+    <t>London Borough of Bexley</t>
+  </si>
+  <si>
+    <t>London Borough of Barnet</t>
+  </si>
+  <si>
+    <t>Coventry City Council</t>
+  </si>
+  <si>
+    <t>Clackmannanshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Hackney</t>
+  </si>
+  <si>
+    <t>The Highland Council</t>
+  </si>
+  <si>
+    <t>Hartlepool Borough Council</t>
+  </si>
+  <si>
     <t>North Tyneside Council</t>
   </si>
   <si>
-    <t>London Borough of Bromley</t>
-  </si>
-  <si>
-    <t>Royal Borough of Kingston upon Thames</t>
-  </si>
-  <si>
-    <t>Cheshire West and Chester Council</t>
-  </si>
-  <si>
-    <t>Wirral Borough Council</t>
-  </si>
-  <si>
-    <t>North Lanarkshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Redbridge</t>
-  </si>
-  <si>
-    <t>Shropshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Merton</t>
-  </si>
-  <si>
-    <t>Wigan Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Birmingham City Council</t>
-  </si>
-  <si>
-    <t>Rotherham Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Newham</t>
-  </si>
-  <si>
-    <t>Walsall Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Hull City Council</t>
-  </si>
-  <si>
-    <t>Midlothian Council</t>
-  </si>
-  <si>
-    <t>Milton Keynes Council</t>
-  </si>
-  <si>
-    <t>Bath and North East Somerset Council</t>
-  </si>
-  <si>
-    <t>Bournemouth, Christchurch and Poole Council</t>
-  </si>
-  <si>
-    <t>Royal Borough of Windsor and Maidenhead</t>
-  </si>
-  <si>
-    <t>London Borough of Sutton</t>
-  </si>
-  <si>
-    <t>South Tyneside Council</t>
-  </si>
-  <si>
-    <t>London Borough of Enfield</t>
-  </si>
-  <si>
-    <t>Denbighshire County Council</t>
-  </si>
-  <si>
-    <t>Vale of Glamorgan Council</t>
-  </si>
-  <si>
-    <t>South Lanarkshire Council</t>
-  </si>
-  <si>
-    <t>Barnsley Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>North Northamptonshire Council</t>
-  </si>
-  <si>
-    <t>West Lothian Council</t>
-  </si>
-  <si>
-    <t>London Borough of Hillingdon</t>
-  </si>
-  <si>
-    <t>Stockton-on-Tees Borough Council</t>
-  </si>
-  <si>
-    <t>Torbay Council</t>
-  </si>
-  <si>
-    <t>Monmouthshire County Council</t>
-  </si>
-  <si>
-    <t>Blackburn with Darwen Borough Council</t>
-  </si>
-  <si>
-    <t>South Ayrshire Council</t>
-  </si>
-  <si>
-    <t>Redcar and Cleveland Borough Council</t>
-  </si>
-  <si>
-    <t>The Moray Council</t>
-  </si>
-  <si>
-    <t>Southampton City Council</t>
-  </si>
-  <si>
-    <t>Doncaster Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Pembrokeshire County Council</t>
-  </si>
-  <si>
-    <t>Portsmouth City Council</t>
-  </si>
-  <si>
-    <t>North Ayrshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Lambeth</t>
-  </si>
-  <si>
-    <t>Argyll and Bute Council</t>
-  </si>
-  <si>
-    <t>Buckinghamshire Council</t>
-  </si>
-  <si>
-    <t>Aberdeen City Council</t>
-  </si>
-  <si>
-    <t>City of London Corporation</t>
-  </si>
-  <si>
-    <t>East Ayrshire Council</t>
-  </si>
-  <si>
-    <t>Oldham Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Ceredigion County Council</t>
-  </si>
-  <si>
-    <t>North Somerset  Council</t>
-  </si>
-  <si>
-    <t>London Borough of Barking and Dagenham</t>
-  </si>
-  <si>
-    <t>West Northamptonshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Tower Hamlets</t>
-  </si>
-  <si>
-    <t>Sefton Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Stockport Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Neath Port Talbot County Borough Council</t>
-  </si>
-  <si>
-    <t>Peterborough City Council</t>
-  </si>
-  <si>
-    <t>Carmarthenshire County Council</t>
-  </si>
-  <si>
-    <t>Caerphilly County Borough Council</t>
-  </si>
-  <si>
-    <t>Warrington Borough Council</t>
-  </si>
-  <si>
-    <t>Calderdale Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Middlesbrough Borough Council</t>
-  </si>
-  <si>
-    <t>Knowsley Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Liverpool City Council</t>
-  </si>
-  <si>
-    <t>City of Bradford Metropolitan District Council</t>
-  </si>
-  <si>
-    <t>City of Wolverhampton Council</t>
-  </si>
-  <si>
-    <t>Bracknell Forest Council</t>
-  </si>
-  <si>
-    <t>Wrexham County Borough Council</t>
-  </si>
-  <si>
-    <t>Dumfries and Galloway Council</t>
-  </si>
-  <si>
-    <t>Inverclyde Council</t>
-  </si>
-  <si>
-    <t>Luton Borough Council</t>
-  </si>
-  <si>
-    <t>Comhairle nan Eilean Siar</t>
-  </si>
-  <si>
-    <t>City and County of Swansea Council</t>
-  </si>
-  <si>
-    <t>Blaenau Gwent County Borough Council</t>
-  </si>
-  <si>
-    <t>Gateshead Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>North Lincolnshire Council</t>
-  </si>
-  <si>
-    <t>Falkirk Council</t>
-  </si>
-  <si>
-    <t>Newport City Council</t>
-  </si>
-  <si>
-    <t>Rochdale Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Orkney Islands Council</t>
-  </si>
-  <si>
-    <t>Merthyr Tydfil County Borough Council</t>
-  </si>
-  <si>
-    <t>Conwy County Borough Council</t>
-  </si>
-  <si>
-    <t>Thurrock Council</t>
-  </si>
-  <si>
-    <t>Torfaen County Borough Council</t>
-  </si>
-  <si>
-    <t>Tameside Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Waltham Forest</t>
-  </si>
-  <si>
-    <t>City of York Council</t>
-  </si>
-  <si>
-    <t>Stoke-on-Trent City Council</t>
-  </si>
-  <si>
-    <t>East Riding of Yorkshire Council</t>
-  </si>
-  <si>
-    <t>Derby City Council</t>
-  </si>
-  <si>
-    <t>Dudley Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>East Renfrewshire Council</t>
-  </si>
-  <si>
-    <t>Coventry City Council</t>
-  </si>
-  <si>
-    <t>Flintshire County Council</t>
-  </si>
-  <si>
-    <t>Gwynedd Council</t>
-  </si>
-  <si>
-    <t>Clackmannanshire Council</t>
-  </si>
-  <si>
-    <t>Bridgend County Borough Council</t>
-  </si>
-  <si>
-    <t>Isle of Anglesey County Council</t>
-  </si>
-  <si>
-    <t>Angus Council</t>
-  </si>
-  <si>
-    <t>London Borough of Bexley</t>
-  </si>
-  <si>
-    <t>London Borough of Barnet</t>
-  </si>
-  <si>
-    <t>Bolton Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Halton Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Havering</t>
-  </si>
-  <si>
-    <t>London Borough of Hackney</t>
-  </si>
-  <si>
     <t>Powys County Council</t>
   </si>
   <si>
-    <t>Rhondda Cynon Taf County Borough Council</t>
-  </si>
-  <si>
     <t>Renfrewshire Council</t>
   </si>
   <si>
-    <t>The Highland Council</t>
-  </si>
-  <si>
     <t>Rutland County Council</t>
   </si>
   <si>
@@ -622,21 +625,18 @@
     <t>St Helens Council</t>
   </si>
   <si>
+    <t>Council of the Isles of Scilly</t>
+  </si>
+  <si>
+    <t>Kirklees Council</t>
+  </si>
+  <si>
+    <t>Aberdeenshire Council</t>
+  </si>
+  <si>
     <t>North East Lincolnshire Council</t>
   </si>
   <si>
-    <t>Hartlepool Borough Council</t>
-  </si>
-  <si>
-    <t>Council of the Isles of Scilly</t>
-  </si>
-  <si>
-    <t>Kirklees Council</t>
-  </si>
-  <si>
-    <t>Aberdeenshire Council</t>
-  </si>
-  <si>
     <t>Shetland Islands Council</t>
   </si>
   <si>
@@ -829,336 +829,339 @@
     <t>SOS</t>
   </si>
   <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>KTT</t>
+  </si>
+  <si>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>WRL</t>
+  </si>
+  <si>
+    <t>NLK</t>
+  </si>
+  <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>WGN</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>NWM</t>
+  </si>
+  <si>
+    <t>WLL</t>
+  </si>
+  <si>
+    <t>KHL</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>MIK</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>WNM</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>STY</t>
+  </si>
+  <si>
+    <t>ENF</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>VGL</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>SLK</t>
+  </si>
+  <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>NNT</t>
+  </si>
+  <si>
+    <t>WLN</t>
+  </si>
+  <si>
+    <t>HIL</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>RCT</t>
+  </si>
+  <si>
+    <t>TOB</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>SAY</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>MRY</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>NAY</t>
+  </si>
+  <si>
+    <t>LBH</t>
+  </si>
+  <si>
+    <t>AGB</t>
+  </si>
+  <si>
+    <t>BUC</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>EAY</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>NSM</t>
+  </si>
+  <si>
+    <t>BDG</t>
+  </si>
+  <si>
+    <t>WNT</t>
+  </si>
+  <si>
+    <t>TWH</t>
+  </si>
+  <si>
+    <t>SFT</t>
+  </si>
+  <si>
+    <t>SKP</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>CAY</t>
+  </si>
+  <si>
+    <t>WRT</t>
+  </si>
+  <si>
+    <t>CLD</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>KWL</t>
+  </si>
+  <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>BRD</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>WRX</t>
+  </si>
+  <si>
+    <t>DGY</t>
+  </si>
+  <si>
+    <t>IVC</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>ELS</t>
+  </si>
+  <si>
+    <t>SWA</t>
+  </si>
+  <si>
+    <t>BGW</t>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>NLN</t>
+  </si>
+  <si>
+    <t>FAL</t>
+  </si>
+  <si>
+    <t>NWP</t>
+  </si>
+  <si>
+    <t>RCH</t>
+  </si>
+  <si>
+    <t>ORK</t>
+  </si>
+  <si>
+    <t>MTY</t>
+  </si>
+  <si>
+    <t>CWY</t>
+  </si>
+  <si>
+    <t>WFT</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>WLV</t>
+  </si>
+  <si>
+    <t>YOR</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>DUD</t>
+  </si>
+  <si>
+    <t>ERW</t>
+  </si>
+  <si>
+    <t>ERY</t>
+  </si>
+  <si>
+    <t>FLN</t>
+  </si>
+  <si>
+    <t>GWN</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>AGY</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>BEX</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
+    <t>COV</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>HCK</t>
+  </si>
+  <si>
+    <t>HLD</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
     <t>NTY</t>
   </si>
   <si>
-    <t>BRY</t>
-  </si>
-  <si>
-    <t>KTT</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>WRL</t>
-  </si>
-  <si>
-    <t>NLK</t>
-  </si>
-  <si>
-    <t>RDB</t>
-  </si>
-  <si>
-    <t>SHR</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>WGN</t>
-  </si>
-  <si>
-    <t>BIR</t>
-  </si>
-  <si>
-    <t>ROT</t>
-  </si>
-  <si>
-    <t>NWM</t>
-  </si>
-  <si>
-    <t>WLL</t>
-  </si>
-  <si>
-    <t>KHL</t>
-  </si>
-  <si>
-    <t>MLN</t>
-  </si>
-  <si>
-    <t>MIK</t>
-  </si>
-  <si>
-    <t>BAS</t>
-  </si>
-  <si>
-    <t>BPC</t>
-  </si>
-  <si>
-    <t>WNM</t>
-  </si>
-  <si>
-    <t>STN</t>
-  </si>
-  <si>
-    <t>STY</t>
-  </si>
-  <si>
-    <t>ENF</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>VGL</t>
-  </si>
-  <si>
-    <t>SLK</t>
-  </si>
-  <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>NNT</t>
-  </si>
-  <si>
-    <t>WLN</t>
-  </si>
-  <si>
-    <t>HIL</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>TOB</t>
-  </si>
-  <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>BBD</t>
-  </si>
-  <si>
-    <t>SAY</t>
-  </si>
-  <si>
-    <t>RCC</t>
-  </si>
-  <si>
-    <t>MRY</t>
-  </si>
-  <si>
-    <t>STH</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>PEM</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>NAY</t>
-  </si>
-  <si>
-    <t>LBH</t>
-  </si>
-  <si>
-    <t>AGB</t>
-  </si>
-  <si>
-    <t>BUC</t>
-  </si>
-  <si>
-    <t>ABE</t>
-  </si>
-  <si>
-    <t>LND</t>
-  </si>
-  <si>
-    <t>EAY</t>
-  </si>
-  <si>
-    <t>OLD</t>
-  </si>
-  <si>
-    <t>CGN</t>
-  </si>
-  <si>
-    <t>NSM</t>
-  </si>
-  <si>
-    <t>BDG</t>
-  </si>
-  <si>
-    <t>WNT</t>
-  </si>
-  <si>
-    <t>TWH</t>
-  </si>
-  <si>
-    <t>SFT</t>
-  </si>
-  <si>
-    <t>SKP</t>
-  </si>
-  <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>PTE</t>
-  </si>
-  <si>
-    <t>CMN</t>
-  </si>
-  <si>
-    <t>CAY</t>
-  </si>
-  <si>
-    <t>WRT</t>
-  </si>
-  <si>
-    <t>CLD</t>
-  </si>
-  <si>
-    <t>MDB</t>
-  </si>
-  <si>
-    <t>KWL</t>
-  </si>
-  <si>
-    <t>LIV</t>
-  </si>
-  <si>
-    <t>BRD</t>
-  </si>
-  <si>
-    <t>WLV</t>
-  </si>
-  <si>
-    <t>BRC</t>
-  </si>
-  <si>
-    <t>WRX</t>
-  </si>
-  <si>
-    <t>DGY</t>
-  </si>
-  <si>
-    <t>IVC</t>
-  </si>
-  <si>
-    <t>LUT</t>
-  </si>
-  <si>
-    <t>ELS</t>
-  </si>
-  <si>
-    <t>SWA</t>
-  </si>
-  <si>
-    <t>BGW</t>
-  </si>
-  <si>
-    <t>GAT</t>
-  </si>
-  <si>
-    <t>NLN</t>
-  </si>
-  <si>
-    <t>FAL</t>
-  </si>
-  <si>
-    <t>NWP</t>
-  </si>
-  <si>
-    <t>RCH</t>
-  </si>
-  <si>
-    <t>ORK</t>
-  </si>
-  <si>
-    <t>MTY</t>
-  </si>
-  <si>
-    <t>CWY</t>
-  </si>
-  <si>
-    <t>THR</t>
-  </si>
-  <si>
-    <t>TOF</t>
-  </si>
-  <si>
-    <t>TAM</t>
-  </si>
-  <si>
-    <t>WFT</t>
-  </si>
-  <si>
-    <t>YOR</t>
-  </si>
-  <si>
-    <t>STE</t>
-  </si>
-  <si>
-    <t>ERY</t>
-  </si>
-  <si>
-    <t>DER</t>
-  </si>
-  <si>
-    <t>DUD</t>
-  </si>
-  <si>
-    <t>ERW</t>
-  </si>
-  <si>
-    <t>COV</t>
-  </si>
-  <si>
-    <t>FLN</t>
-  </si>
-  <si>
-    <t>GWN</t>
-  </si>
-  <si>
-    <t>CLK</t>
-  </si>
-  <si>
-    <t>BGE</t>
-  </si>
-  <si>
-    <t>AGY</t>
-  </si>
-  <si>
-    <t>ANS</t>
-  </si>
-  <si>
-    <t>BEX</t>
-  </si>
-  <si>
-    <t>BNE</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>HAV</t>
-  </si>
-  <si>
-    <t>HCK</t>
-  </si>
-  <si>
     <t>POW</t>
   </si>
   <si>
-    <t>RCT</t>
-  </si>
-  <si>
     <t>RFW</t>
   </si>
   <si>
-    <t>HLD</t>
-  </si>
-  <si>
     <t>RUT</t>
   </si>
   <si>
@@ -1168,19 +1171,16 @@
     <t>SHN</t>
   </si>
   <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
     <t>NEL</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>IOS</t>
-  </si>
-  <si>
-    <t>KIR</t>
-  </si>
-  <si>
-    <t>ABD</t>
   </si>
   <si>
     <t>ZET</t>
@@ -5409,7 +5409,7 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>89</v>
@@ -5418,49 +5418,49 @@
         <v>271</v>
       </c>
       <c r="E65">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F65">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G65">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H65">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I65">
         <v>0.8</v>
       </c>
       <c r="J65">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L65">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M65">
         <v>0.75</v>
       </c>
       <c r="N65">
-        <v>0.5525</v>
+        <v>0.5504761904761906</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q65" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R65" t="s">
         <v>407</v>
       </c>
       <c r="S65" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5477,40 +5477,40 @@
         <v>272</v>
       </c>
       <c r="E66">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F66">
-        <v>0.3888888888888889</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G66">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H66">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I66">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J66">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K66">
         <v>0.2</v>
       </c>
       <c r="L66">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M66">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N66">
-        <v>0.5504761904761906</v>
+        <v>0.5409523809523811</v>
       </c>
       <c r="O66">
         <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q66" t="s">
         <v>401</v>
@@ -5519,7 +5519,7 @@
         <v>407</v>
       </c>
       <c r="S66" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5527,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>91</v>
@@ -5536,49 +5536,49 @@
         <v>273</v>
       </c>
       <c r="E67">
-        <v>0.3333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F67">
-        <v>0.9444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G67">
         <v>0.4285714285714285</v>
       </c>
       <c r="H67">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J67">
         <v>0.5</v>
       </c>
       <c r="K67">
+        <v>0.4</v>
+      </c>
+      <c r="L67">
         <v>0.2</v>
       </c>
-      <c r="L67">
-        <v>0.4</v>
-      </c>
       <c r="M67">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N67">
-        <v>0.5409523809523811</v>
+        <v>0.5386904761904762</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q67" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5586,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
@@ -5595,16 +5595,16 @@
         <v>274</v>
       </c>
       <c r="E68">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F68">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G68">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H68">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I68">
         <v>0.6</v>
@@ -5613,19 +5613,19 @@
         <v>0.5</v>
       </c>
       <c r="K68">
+        <v>0.2</v>
+      </c>
+      <c r="L68">
         <v>0.4</v>
       </c>
-      <c r="L68">
-        <v>0.2</v>
-      </c>
       <c r="M68">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N68">
-        <v>0.5386904761904762</v>
+        <v>0.5384523809523809</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
         <v>392</v>
@@ -5634,7 +5634,7 @@
         <v>396</v>
       </c>
       <c r="R68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S68" t="s">
         <v>413</v>
@@ -5645,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -5654,34 +5654,34 @@
         <v>275</v>
       </c>
       <c r="E69">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F69">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G69">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H69">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I69">
         <v>0.6</v>
       </c>
       <c r="J69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K69">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L69">
         <v>0.4</v>
       </c>
       <c r="M69">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N69">
-        <v>0.5384523809523809</v>
+        <v>0.5342857142857143</v>
       </c>
       <c r="O69">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>392</v>
       </c>
       <c r="Q69" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R69" t="s">
         <v>407</v>
@@ -5704,7 +5704,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>94</v>
@@ -5713,49 +5713,49 @@
         <v>276</v>
       </c>
       <c r="E70">
-        <v>0.6666666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F70">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G70">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H70">
+        <v>0.6</v>
+      </c>
+      <c r="I70">
         <v>0.4</v>
       </c>
-      <c r="I70">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0.2</v>
+      </c>
+      <c r="L70">
         <v>0.6</v>
-      </c>
-      <c r="J70">
-        <v>0.25</v>
-      </c>
-      <c r="K70">
-        <v>0.6</v>
-      </c>
-      <c r="L70">
-        <v>0.4</v>
       </c>
       <c r="M70">
         <v>0.75</v>
       </c>
       <c r="N70">
-        <v>0.5342857142857143</v>
+        <v>0.5332142857142858</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P70" t="s">
         <v>392</v>
       </c>
       <c r="Q70" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R70" t="s">
         <v>407</v>
       </c>
       <c r="S70" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5763,7 +5763,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>95</v>
@@ -5772,34 +5772,34 @@
         <v>277</v>
       </c>
       <c r="E71">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F71">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G71">
         <v>0.7142857142857143</v>
       </c>
       <c r="H71">
+        <v>0.7</v>
+      </c>
+      <c r="I71">
         <v>0.6</v>
       </c>
-      <c r="I71">
-        <v>0.4</v>
-      </c>
       <c r="J71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K71">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
       <c r="M71">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>0.5332142857142858</v>
+        <v>0.5303571428571427</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -5808,13 +5808,13 @@
         <v>392</v>
       </c>
       <c r="Q71" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R71" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5822,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
@@ -5831,49 +5831,49 @@
         <v>278</v>
       </c>
       <c r="E72">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G72">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H72">
         <v>0.7</v>
       </c>
       <c r="I72">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J72">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N72">
-        <v>0.5303571428571427</v>
+        <v>0.5294047619047619</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q72" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R72" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5881,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
         <v>97</v>
@@ -5890,43 +5890,43 @@
         <v>279</v>
       </c>
       <c r="E73">
-        <v>0.6666666666666666</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F73">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G73">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H73">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I73">
         <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L73">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M73">
         <v>0.5</v>
       </c>
       <c r="N73">
-        <v>0.5294047619047619</v>
+        <v>0.5288095238095238</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q73" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R73" t="s">
         <v>407</v>
@@ -5949,25 +5949,25 @@
         <v>280</v>
       </c>
       <c r="E74">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F74">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G74">
         <v>0.5714285714285714</v>
       </c>
       <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="I74">
         <v>0.6</v>
       </c>
-      <c r="I74">
-        <v>0.8</v>
-      </c>
       <c r="J74">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L74">
         <v>0.4</v>
@@ -5976,16 +5976,16 @@
         <v>0.5</v>
       </c>
       <c r="N74">
-        <v>0.5288095238095238</v>
+        <v>0.5251190476190477</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R74" t="s">
         <v>407</v>
@@ -6008,43 +6008,43 @@
         <v>281</v>
       </c>
       <c r="E75">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F75">
-        <v>0.5555555555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G75">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H75">
+        <v>0.6</v>
+      </c>
+      <c r="I75">
+        <v>0.4</v>
+      </c>
+      <c r="J75">
         <v>0.5</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>0.6</v>
       </c>
-      <c r="J75">
-        <v>0.75</v>
-      </c>
-      <c r="K75">
-        <v>0.4</v>
-      </c>
       <c r="L75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N75">
-        <v>0.5251190476190477</v>
+        <v>0.5201190476190476</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q75" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R75" t="s">
         <v>407</v>
@@ -6058,7 +6058,7 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>100</v>
@@ -6067,43 +6067,43 @@
         <v>282</v>
       </c>
       <c r="E76">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F76">
         <v>0.3888888888888889</v>
       </c>
       <c r="G76">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H76">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I76">
         <v>0.4</v>
       </c>
       <c r="J76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K76">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M76">
         <v>0.25</v>
       </c>
       <c r="N76">
-        <v>0.5201190476190476</v>
+        <v>0.5054761904761905</v>
       </c>
       <c r="O76">
         <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R76" t="s">
         <v>407</v>
@@ -6117,7 +6117,7 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
         <v>101</v>
@@ -6126,49 +6126,49 @@
         <v>283</v>
       </c>
       <c r="E77">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F77">
-        <v>0.3888888888888889</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G77">
         <v>0.7142857142857143</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
         <v>0.4</v>
       </c>
       <c r="J77">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K77">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L77">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M77">
         <v>0.25</v>
       </c>
       <c r="N77">
-        <v>0.5054761904761905</v>
+        <v>0.5044047619047619</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q77" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R77" t="s">
         <v>407</v>
       </c>
       <c r="S77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6176,7 +6176,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>102</v>
@@ -6185,19 +6185,19 @@
         <v>284</v>
       </c>
       <c r="E78">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F78">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G78">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H78">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I78">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0.5</v>
@@ -6206,13 +6206,13 @@
         <v>0.2</v>
       </c>
       <c r="L78">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M78">
         <v>0.25</v>
       </c>
       <c r="N78">
-        <v>0.5044047619047619</v>
+        <v>0.5001190476190477</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6221,13 +6221,13 @@
         <v>391</v>
       </c>
       <c r="Q78" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R78" t="s">
         <v>407</v>
       </c>
       <c r="S78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6235,7 +6235,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
         <v>103</v>
@@ -6244,49 +6244,49 @@
         <v>285</v>
       </c>
       <c r="E79">
-        <v>0.3333333333333333</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F79">
         <v>0.5555555555555556</v>
       </c>
       <c r="G79">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H79">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0.2</v>
+      </c>
+      <c r="M79">
         <v>0.5</v>
       </c>
-      <c r="K79">
-        <v>0.2</v>
-      </c>
-      <c r="L79">
-        <v>0.4</v>
-      </c>
-      <c r="M79">
-        <v>0.25</v>
-      </c>
       <c r="N79">
-        <v>0.5001190476190477</v>
+        <v>0.4983333333333334</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P79" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q79" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R79" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S79" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -6303,7 +6303,7 @@
         <v>286</v>
       </c>
       <c r="E80">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F80">
         <v>0.5555555555555556</v>
@@ -6312,37 +6312,37 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I80">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N80">
-        <v>0.4983333333333334</v>
+        <v>0.4819047619047619</v>
       </c>
       <c r="O80">
         <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q80" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S80" t="s">
         <v>413</v>
@@ -6362,49 +6362,49 @@
         <v>287</v>
       </c>
       <c r="E81">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F81">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G81">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H81">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I81">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0.2</v>
       </c>
       <c r="L81">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M81">
         <v>0.75</v>
       </c>
       <c r="N81">
-        <v>0.4819047619047619</v>
+        <v>0.4817857142857143</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P81" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q81" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="R81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S81" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6421,49 +6421,49 @@
         <v>288</v>
       </c>
       <c r="E82">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F82">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G82">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H82">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I82">
         <v>0.8</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0.75</v>
       </c>
       <c r="N82">
-        <v>0.4817857142857143</v>
+        <v>0.4796428571428571</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q82" t="s">
         <v>400</v>
       </c>
       <c r="R82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6480,19 +6480,19 @@
         <v>289</v>
       </c>
       <c r="E83">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F83">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G83">
         <v>0.5714285714285714</v>
       </c>
       <c r="H83">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I83">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J83">
         <v>0.5</v>
@@ -6501,22 +6501,22 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M83">
         <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4796428571428571</v>
+        <v>0.4789285714285715</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q83" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R83" t="s">
         <v>407</v>
@@ -6530,7 +6530,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>108</v>
@@ -6539,22 +6539,22 @@
         <v>290</v>
       </c>
       <c r="E84">
-        <v>0.5714285714285714</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F84">
-        <v>0.3333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G84">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H84">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I84">
         <v>0.4</v>
       </c>
       <c r="J84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>0.75</v>
       </c>
       <c r="N84">
-        <v>0.4789285714285715</v>
+        <v>0.4736904761904762</v>
       </c>
       <c r="O84">
         <v>5</v>
@@ -6575,13 +6575,13 @@
         <v>393</v>
       </c>
       <c r="Q84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R84" t="s">
         <v>407</v>
       </c>
       <c r="S84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6589,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -6598,49 +6598,49 @@
         <v>291</v>
       </c>
       <c r="E85">
-        <v>0.2380952380952381</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F85">
-        <v>0.7222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G85">
         <v>0.7142857142857143</v>
       </c>
       <c r="H85">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I85">
         <v>0.4</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M85">
         <v>0.75</v>
       </c>
       <c r="N85">
-        <v>0.4736904761904762</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P85" t="s">
         <v>393</v>
       </c>
       <c r="Q85" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R85" t="s">
         <v>407</v>
       </c>
       <c r="S85" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6648,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -6657,19 +6657,19 @@
         <v>292</v>
       </c>
       <c r="E86">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F86">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G86">
         <v>0.7142857142857143</v>
       </c>
       <c r="H86">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I86">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J86">
         <v>0.25</v>
@@ -6678,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N86">
-        <v>0.4714285714285714</v>
+        <v>0.4620238095238095</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q86" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R86" t="s">
         <v>407</v>
@@ -6707,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -6716,49 +6716,49 @@
         <v>293</v>
       </c>
       <c r="E87">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F87">
-        <v>0.4444444444444444</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G87">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H87">
         <v>0.7</v>
       </c>
       <c r="I87">
+        <v>0.4</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
         <v>0.6</v>
       </c>
-      <c r="J87">
-        <v>0.25</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
       <c r="M87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N87">
-        <v>0.4620238095238095</v>
+        <v>0.4603571428571429</v>
       </c>
       <c r="O87">
         <v>2</v>
       </c>
       <c r="P87" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q87" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R87" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S87" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6775,37 +6775,37 @@
         <v>294</v>
       </c>
       <c r="E88">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F88">
-        <v>0.1666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G88">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H88">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I88">
         <v>0.4</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N88">
-        <v>0.4603571428571429</v>
+        <v>0.4588095238095239</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P88" t="s">
         <v>395</v>
@@ -6814,7 +6814,7 @@
         <v>405</v>
       </c>
       <c r="R88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S88" t="s">
         <v>413</v>
@@ -6825,7 +6825,7 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
         <v>113</v>
@@ -6834,46 +6834,46 @@
         <v>295</v>
       </c>
       <c r="E89">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F89">
-        <v>0.7777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G89">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H89">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I89">
         <v>0.4</v>
       </c>
       <c r="J89">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L89">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M89">
         <v>0.5</v>
       </c>
       <c r="N89">
-        <v>0.4588095238095239</v>
+        <v>0.4482142857142857</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q89" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S89" t="s">
         <v>413</v>
@@ -7238,7 +7238,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
         <v>120</v>
@@ -7250,19 +7250,19 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F96">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G96">
         <v>0.5714285714285714</v>
       </c>
       <c r="H96">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I96">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J96">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -7274,22 +7274,22 @@
         <v>0.75</v>
       </c>
       <c r="N96">
-        <v>0.4177380952380952</v>
+        <v>0.4185714285714285</v>
       </c>
       <c r="O96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q96" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="R96" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S96" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7297,7 +7297,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
         <v>121</v>
@@ -7306,22 +7306,22 @@
         <v>303</v>
       </c>
       <c r="E97">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F97">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G97">
         <v>0.5714285714285714</v>
       </c>
       <c r="H97">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I97">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7330,25 +7330,25 @@
         <v>0.4</v>
       </c>
       <c r="M97">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N97">
-        <v>0.4158333333333333</v>
+        <v>0.4177380952380952</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P97" t="s">
         <v>395</v>
       </c>
       <c r="Q97" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R97" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -7356,7 +7356,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
         <v>122</v>
@@ -7365,49 +7365,49 @@
         <v>304</v>
       </c>
       <c r="E98">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F98">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G98">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H98">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I98">
         <v>0.6</v>
       </c>
       <c r="J98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M98">
         <v>0.5</v>
       </c>
       <c r="N98">
-        <v>0.4155952380952381</v>
+        <v>0.4158333333333333</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P98" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q98" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R98" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S98" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7415,7 +7415,7 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
         <v>123</v>
@@ -7424,19 +7424,19 @@
         <v>305</v>
       </c>
       <c r="E99">
-        <v>0.4761904761904762</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F99">
         <v>0.4444444444444444</v>
       </c>
       <c r="G99">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H99">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I99">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J99">
         <v>0.75</v>
@@ -7445,28 +7445,28 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N99">
-        <v>0.4141666666666666</v>
+        <v>0.4155952380952381</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q99" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7474,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
         <v>124</v>
@@ -7483,43 +7483,43 @@
         <v>306</v>
       </c>
       <c r="E100">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F100">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G100">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H100">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I100">
+        <v>0.2</v>
+      </c>
+      <c r="J100">
+        <v>0.75</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
         <v>0.6</v>
       </c>
-      <c r="J100">
-        <v>0.25</v>
-      </c>
-      <c r="K100">
-        <v>0.2</v>
-      </c>
-      <c r="L100">
-        <v>0.2</v>
-      </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0.3944047619047619</v>
+        <v>0.4141666666666666</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P100" t="s">
         <v>395</v>
       </c>
       <c r="Q100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R100" t="s">
         <v>408</v>
@@ -7533,7 +7533,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>125</v>
@@ -7542,46 +7542,46 @@
         <v>307</v>
       </c>
       <c r="E101">
-        <v>0.4285714285714285</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F101">
-        <v>0.2222222222222222</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G101">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H101">
+        <v>0.3</v>
+      </c>
+      <c r="I101">
         <v>0.6</v>
-      </c>
-      <c r="I101">
-        <v>0.4</v>
       </c>
       <c r="J101">
         <v>0.25</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L101">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0.3872619047619048</v>
+        <v>0.3944047619047619</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P101" t="s">
         <v>395</v>
       </c>
       <c r="Q101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R101" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S101" t="s">
         <v>413</v>
@@ -7592,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
         <v>126</v>
@@ -7601,49 +7601,49 @@
         <v>308</v>
       </c>
       <c r="E102">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F102">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G102">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H102">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I102">
         <v>0.4</v>
       </c>
       <c r="J102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>0.3807142857142858</v>
+        <v>0.3872619047619048</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P102" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q102" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R102" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S102" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7651,7 +7651,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>127</v>
@@ -7663,46 +7663,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F103">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G103">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H103">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J103">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K103">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N103">
-        <v>0.3761904761904762</v>
+        <v>0.3807142857142858</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q103" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R103" t="s">
         <v>407</v>
       </c>
       <c r="S103" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7710,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
@@ -7719,49 +7719,49 @@
         <v>310</v>
       </c>
       <c r="E104">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F104">
-        <v>0.8333333333333334</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I104">
         <v>0.2</v>
       </c>
       <c r="J104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L104">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M104">
         <v>0.75</v>
       </c>
       <c r="N104">
-        <v>0.3714285714285714</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R104" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S104" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7769,7 +7769,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C105" t="s">
         <v>129</v>
@@ -7778,46 +7778,46 @@
         <v>311</v>
       </c>
       <c r="E105">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F105">
-        <v>0.2777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G105">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I105">
+        <v>0.2</v>
+      </c>
+      <c r="J105">
+        <v>0.25</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>0.6</v>
       </c>
-      <c r="J105">
-        <v>0.5</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0.2</v>
-      </c>
       <c r="M105">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N105">
-        <v>0.3691666666666667</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="O105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P105" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q105" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R105" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S105" t="s">
         <v>413</v>
@@ -7828,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
         <v>130</v>
@@ -7840,43 +7840,43 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F106">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G106">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
         <v>0.6</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M106">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N106">
-        <v>0.3685714285714285</v>
+        <v>0.3691666666666667</v>
       </c>
       <c r="O106">
         <v>2</v>
       </c>
       <c r="P106" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q106" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S106" t="s">
         <v>413</v>
@@ -7887,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
         <v>131</v>
@@ -7896,49 +7896,49 @@
         <v>313</v>
       </c>
       <c r="E107">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F107">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F107">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="G107">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I107">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0.6</v>
+      </c>
+      <c r="M107">
         <v>0.5</v>
       </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0.75</v>
-      </c>
       <c r="N107">
-        <v>0.3632142857142857</v>
+        <v>0.3685714285714285</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P107" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q107" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S107" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7946,7 +7946,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
         <v>132</v>
@@ -7955,49 +7955,49 @@
         <v>314</v>
       </c>
       <c r="E108">
-        <v>0.5238095238095238</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F108">
-        <v>0.4444444444444444</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G108">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H108">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I108">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J108">
         <v>0.5</v>
       </c>
       <c r="K108">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N108">
-        <v>0.3605952380952381</v>
+        <v>0.3632142857142857</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P108" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q108" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R108" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S108" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8005,7 +8005,7 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
         <v>133</v>
@@ -8014,49 +8014,49 @@
         <v>315</v>
       </c>
       <c r="E109">
-        <v>0.2380952380952381</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F109">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G109">
         <v>0.2857142857142857</v>
       </c>
       <c r="H109">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I109">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0.2</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
         <v>0.25</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0.5</v>
-      </c>
       <c r="N109">
-        <v>0.3577380952380952</v>
+        <v>0.3605952380952381</v>
       </c>
       <c r="O109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P109" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q109" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R109" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S109" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -8064,7 +8064,7 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>134</v>
@@ -8073,49 +8073,49 @@
         <v>316</v>
       </c>
       <c r="E110">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F110">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="G110">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H110">
+        <v>0.6</v>
+      </c>
+      <c r="I110">
+        <v>0.6</v>
+      </c>
+      <c r="J110">
+        <v>0.25</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
         <v>0.5</v>
       </c>
-      <c r="G110">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H110">
-        <v>0.4</v>
-      </c>
-      <c r="I110">
-        <v>0.4</v>
-      </c>
-      <c r="J110">
-        <v>0.5</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0.2</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
       <c r="N110">
-        <v>0.3557142857142858</v>
+        <v>0.3577380952380952</v>
       </c>
       <c r="O110">
         <v>5</v>
       </c>
       <c r="P110" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q110" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R110" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8123,7 +8123,7 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
         <v>135</v>
@@ -8132,49 +8132,49 @@
         <v>317</v>
       </c>
       <c r="E111">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F111">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G111">
         <v>0.4285714285714285</v>
       </c>
       <c r="H111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I111">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J111">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M111">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>0.3541666666666667</v>
+        <v>0.3557142857142858</v>
       </c>
       <c r="O111">
         <v>5</v>
       </c>
       <c r="P111" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q111" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R111" t="s">
         <v>407</v>
       </c>
       <c r="S111" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -8182,7 +8182,7 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
         <v>136</v>
@@ -8191,49 +8191,49 @@
         <v>318</v>
       </c>
       <c r="E112">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F112">
-        <v>0.2777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G112">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H112">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I112">
         <v>0.8</v>
       </c>
       <c r="J112">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M112">
         <v>0.5</v>
       </c>
       <c r="N112">
-        <v>0.3441666666666667</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P112" t="s">
         <v>395</v>
       </c>
       <c r="Q112" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S112" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8241,7 +8241,7 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>137</v>
@@ -8250,49 +8250,49 @@
         <v>319</v>
       </c>
       <c r="E113">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="F113">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G113">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F113">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G113">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H113">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I113">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J113">
+        <v>0.25</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0.6</v>
+      </c>
+      <c r="M113">
         <v>0.5</v>
       </c>
-      <c r="K113">
-        <v>0.2</v>
-      </c>
-      <c r="L113">
-        <v>0.8</v>
-      </c>
-      <c r="M113">
-        <v>0.25</v>
-      </c>
       <c r="N113">
-        <v>0.343452380952381</v>
+        <v>0.3441666666666667</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P113" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q113" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R113" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S113" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8300,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
         <v>138</v>
@@ -8309,49 +8309,49 @@
         <v>320</v>
       </c>
       <c r="E114">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F114">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G114">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114">
+        <v>0.7</v>
+      </c>
+      <c r="I114">
         <v>0.2</v>
       </c>
-      <c r="I114">
-        <v>0.4</v>
-      </c>
       <c r="J114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L114">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M114">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N114">
-        <v>0.3397619047619048</v>
+        <v>0.343452380952381</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q114" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S114" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -8359,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
         <v>139</v>
@@ -8368,46 +8368,46 @@
         <v>321</v>
       </c>
       <c r="E115">
-        <v>0.3809523809523809</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F115">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G115">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
         <v>0.4</v>
       </c>
-      <c r="I115">
-        <v>0.8</v>
-      </c>
       <c r="J115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M115">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N115">
-        <v>0.3385714285714286</v>
+        <v>0.3397619047619048</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P115" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q115" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="R115" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S115" t="s">
         <v>413</v>
@@ -8418,7 +8418,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>140</v>
@@ -8427,49 +8427,49 @@
         <v>322</v>
       </c>
       <c r="E116">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F116">
         <v>0.3333333333333333</v>
       </c>
       <c r="G116">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H116">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J116">
+        <v>0.25</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0.2</v>
+      </c>
+      <c r="M116">
         <v>0.75</v>
       </c>
-      <c r="K116">
-        <v>0.4</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>0.5</v>
-      </c>
       <c r="N116">
-        <v>0.3375</v>
+        <v>0.3385714285714286</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P116" t="s">
         <v>391</v>
       </c>
       <c r="Q116" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R116" t="s">
         <v>407</v>
       </c>
       <c r="S116" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8477,7 +8477,7 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
         <v>141</v>
@@ -8486,49 +8486,49 @@
         <v>323</v>
       </c>
       <c r="E117">
-        <v>0.1428571428571428</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F117">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G117">
         <v>0.4285714285714285</v>
       </c>
       <c r="H117">
+        <v>0.3</v>
+      </c>
+      <c r="I117">
         <v>0.4</v>
       </c>
-      <c r="I117">
-        <v>0.6</v>
-      </c>
       <c r="J117">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K117">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M117">
         <v>0.5</v>
       </c>
       <c r="N117">
-        <v>0.3365476190476191</v>
+        <v>0.3375</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q117" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R117" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8536,7 +8536,7 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
         <v>142</v>
@@ -8545,7 +8545,7 @@
         <v>324</v>
       </c>
       <c r="E118">
-        <v>0.5238095238095238</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F118">
         <v>0.2222222222222222</v>
@@ -8554,40 +8554,40 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I118">
+        <v>0.6</v>
+      </c>
+      <c r="J118">
+        <v>0.25</v>
+      </c>
+      <c r="K118">
+        <v>0.2</v>
+      </c>
+      <c r="L118">
         <v>0.4</v>
       </c>
-      <c r="J118">
-        <v>0.75</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
       <c r="M118">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N118">
-        <v>0.3361904761904762</v>
+        <v>0.3365476190476191</v>
       </c>
       <c r="O118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P118" t="s">
         <v>392</v>
       </c>
       <c r="Q118" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="R118" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S118" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8595,7 +8595,7 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
         <v>143</v>
@@ -8604,7 +8604,7 @@
         <v>325</v>
       </c>
       <c r="E119">
-        <v>0.2857142857142857</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F119">
         <v>0.2222222222222222</v>
@@ -8613,34 +8613,34 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H119">
+        <v>0.3</v>
+      </c>
+      <c r="I119">
         <v>0.4</v>
-      </c>
-      <c r="I119">
-        <v>0.2</v>
       </c>
       <c r="J119">
         <v>0.75</v>
       </c>
       <c r="K119">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L119">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N119">
-        <v>0.3304761904761905</v>
+        <v>0.3361904761904762</v>
       </c>
       <c r="O119">
         <v>2</v>
       </c>
       <c r="P119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q119" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R119" t="s">
         <v>407</v>
@@ -8663,25 +8663,25 @@
         <v>326</v>
       </c>
       <c r="E120">
-        <v>0.3809523809523809</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F120">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G120">
         <v>0.4285714285714285</v>
       </c>
       <c r="H120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J120">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L120">
         <v>0.4</v>
@@ -8690,13 +8690,13 @@
         <v>0.25</v>
       </c>
       <c r="N120">
-        <v>0.3214285714285715</v>
+        <v>0.3304761904761905</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q120" t="s">
         <v>396</v>
@@ -8705,7 +8705,7 @@
         <v>407</v>
       </c>
       <c r="S120" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8713,7 +8713,7 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
         <v>145</v>
@@ -8722,13 +8722,13 @@
         <v>327</v>
       </c>
       <c r="E121">
-        <v>0.1904761904761905</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F121">
         <v>0.3333333333333333</v>
       </c>
       <c r="G121">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H121">
         <v>0.3</v>
@@ -8743,28 +8743,28 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M121">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N121">
-        <v>0.3207142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="O121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q121" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S121" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8772,7 +8772,7 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
         <v>146</v>
@@ -8781,16 +8781,16 @@
         <v>328</v>
       </c>
       <c r="E122">
-        <v>0.6190476190476191</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G122">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H122">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I122">
         <v>0.4</v>
@@ -8802,28 +8802,28 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N122">
-        <v>0.3182142857142857</v>
+        <v>0.3207142857142857</v>
       </c>
       <c r="O122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P122" t="s">
         <v>393</v>
       </c>
       <c r="Q122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R122" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S122" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8831,7 +8831,7 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
         <v>147</v>
@@ -8840,16 +8840,16 @@
         <v>329</v>
       </c>
       <c r="E123">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F123">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I123">
         <v>0.4</v>
@@ -8861,25 +8861,25 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123">
-        <v>0.3127380952380952</v>
+        <v>0.3182142857142857</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P123" t="s">
         <v>393</v>
       </c>
       <c r="Q123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S123" t="s">
         <v>413</v>
@@ -8899,13 +8899,13 @@
         <v>330</v>
       </c>
       <c r="E124">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F124">
-        <v>0.3888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G124">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H124">
         <v>0.3</v>
@@ -8914,7 +8914,7 @@
         <v>0.4</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -8923,13 +8923,13 @@
         <v>0.2</v>
       </c>
       <c r="M124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>0.3079761904761905</v>
+        <v>0.3127380952380952</v>
       </c>
       <c r="O124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P124" t="s">
         <v>393</v>
@@ -8941,7 +8941,7 @@
         <v>408</v>
       </c>
       <c r="S124" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8949,7 +8949,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
         <v>149</v>
@@ -8961,43 +8961,43 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F125">
-        <v>0.1666666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G125">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I125">
         <v>0.4</v>
       </c>
       <c r="J125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M125">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N125">
-        <v>0.3032142857142858</v>
+        <v>0.3079761904761905</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P125" t="s">
         <v>393</v>
       </c>
       <c r="Q125" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S125" t="s">
         <v>411</v>
@@ -9008,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
         <v>150</v>
@@ -9017,16 +9017,16 @@
         <v>332</v>
       </c>
       <c r="E126">
-        <v>0.09523809523809523</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F126">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G126">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H126">
         <v>0.5</v>
-      </c>
-      <c r="G126">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H126">
-        <v>0.4</v>
       </c>
       <c r="I126">
         <v>0.4</v>
@@ -9038,22 +9038,22 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M126">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N126">
-        <v>0.2985714285714286</v>
+        <v>0.3032142857142858</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P126" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q126" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R126" t="s">
         <v>407</v>
@@ -9067,7 +9067,7 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C127" t="s">
         <v>151</v>
@@ -9076,22 +9076,22 @@
         <v>333</v>
       </c>
       <c r="E127">
-        <v>0.2857142857142857</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F127">
-        <v>0.2222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G127">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I127">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -9100,25 +9100,25 @@
         <v>0.2</v>
       </c>
       <c r="M127">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N127">
-        <v>0.2451190476190476</v>
+        <v>0.2985714285714286</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q127" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="R127" t="s">
         <v>407</v>
       </c>
       <c r="S127" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9126,7 +9126,7 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s">
         <v>152</v>
@@ -9135,22 +9135,22 @@
         <v>334</v>
       </c>
       <c r="E128">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G128">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H128">
+        <v>0.3</v>
+      </c>
+      <c r="I128">
         <v>0.2</v>
       </c>
-      <c r="I128">
-        <v>0.4</v>
-      </c>
       <c r="J128">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -9159,25 +9159,25 @@
         <v>0.2</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N128">
-        <v>0.24</v>
+        <v>0.2451190476190476</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q128" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="R128" t="s">
         <v>407</v>
       </c>
       <c r="S128" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -9194,13 +9194,13 @@
         <v>335</v>
       </c>
       <c r="E129">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F129">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H129">
         <v>0.2</v>
@@ -9209,7 +9209,7 @@
         <v>0.4</v>
       </c>
       <c r="J129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -9218,16 +9218,16 @@
         <v>0.2</v>
       </c>
       <c r="M129">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>0.2394047619047619</v>
+        <v>0.24</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q129" t="s">
         <v>396</v>
@@ -9253,34 +9253,34 @@
         <v>336</v>
       </c>
       <c r="E130">
-        <v>0.09523809523809523</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F130">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G130">
         <v>0.1428571428571428</v>
       </c>
       <c r="H130">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I130">
         <v>0.4</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M130">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N130">
-        <v>0.2298809523809524</v>
+        <v>0.2394047619047619</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -9289,7 +9289,7 @@
         <v>390</v>
       </c>
       <c r="Q130" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R130" t="s">
         <v>407</v>
@@ -9312,43 +9312,43 @@
         <v>337</v>
       </c>
       <c r="E131">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F131">
-        <v>0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G131">
         <v>0.1428571428571428</v>
       </c>
       <c r="H131">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I131">
+        <v>0.4</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
         <v>0.6</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
       <c r="M131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N131">
-        <v>0.2266666666666667</v>
+        <v>0.2298809523809524</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q131" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R131" t="s">
         <v>407</v>
@@ -10306,7 +10306,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148" t="s">
         <v>172</v>
@@ -10348,16 +10348,16 @@
         <v>3</v>
       </c>
       <c r="P148" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q148" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="R148" t="s">
         <v>407</v>
       </c>
       <c r="S148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10469,7 +10469,7 @@
         <v>391</v>
       </c>
       <c r="Q150" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R150" t="s">
         <v>407</v>
@@ -10483,7 +10483,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
         <v>175</v>
@@ -10522,19 +10522,19 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P151" t="s">
         <v>391</v>
       </c>
       <c r="Q151" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R151" t="s">
         <v>407</v>
       </c>
       <c r="S151" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10542,7 +10542,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
         <v>176</v>
@@ -10581,19 +10581,19 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P152" t="s">
         <v>391</v>
       </c>
       <c r="Q152" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R152" t="s">
         <v>407</v>
       </c>
       <c r="S152" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10640,19 +10640,19 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P153" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q153" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="R153" t="s">
         <v>407</v>
       </c>
       <c r="S153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10699,19 +10699,19 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q154" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="R154" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S154" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -10896,7 +10896,7 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
         <v>182</v>
@@ -10935,19 +10935,19 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P158" t="s">
         <v>392</v>
       </c>
       <c r="Q158" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -11073,7 +11073,7 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
         <v>185</v>
@@ -11112,19 +11112,19 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P161" t="s">
         <v>395</v>
       </c>
       <c r="Q161" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R161" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S161" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11132,7 +11132,7 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
         <v>186</v>
@@ -11171,16 +11171,16 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P162" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q162" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R162" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S162" t="s">
         <v>413</v>
@@ -11233,13 +11233,13 @@
         <v>3</v>
       </c>
       <c r="P163" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q163" t="s">
         <v>405</v>
       </c>
       <c r="R163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S163" t="s">
         <v>413</v>
@@ -11250,7 +11250,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
         <v>188</v>
@@ -11289,16 +11289,16 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P164" t="s">
         <v>395</v>
       </c>
       <c r="Q164" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R164" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S164" t="s">
         <v>413</v>
@@ -11309,7 +11309,7 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
         <v>189</v>
@@ -11351,16 +11351,16 @@
         <v>4</v>
       </c>
       <c r="P165" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q165" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R165" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S165" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -11407,10 +11407,10 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P166" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q166" t="s">
         <v>401</v>
@@ -11427,7 +11427,7 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C167" t="s">
         <v>191</v>
@@ -11466,19 +11466,19 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P167" t="s">
         <v>392</v>
       </c>
       <c r="Q167" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R167" t="s">
         <v>407</v>
       </c>
       <c r="S167" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -11486,7 +11486,7 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
         <v>192</v>
@@ -11525,13 +11525,13 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P168" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q168" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R168" t="s">
         <v>407</v>
@@ -11545,7 +11545,7 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
         <v>193</v>
@@ -11584,16 +11584,16 @@
         <v>0</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P169" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q169" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R169" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S169" t="s">
         <v>413</v>
@@ -11663,7 +11663,7 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
         <v>195</v>
@@ -11705,10 +11705,10 @@
         <v>4</v>
       </c>
       <c r="P171" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q171" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R171" t="s">
         <v>410</v>
@@ -11722,7 +11722,7 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
@@ -11764,16 +11764,16 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q172" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="R172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S172" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -11781,7 +11781,7 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
@@ -11826,13 +11826,13 @@
         <v>393</v>
       </c>
       <c r="Q173" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R173" t="s">
         <v>407</v>
       </c>
       <c r="S173" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -11840,7 +11840,7 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
         <v>198</v>
@@ -11882,10 +11882,10 @@
         <v>4</v>
       </c>
       <c r="P174" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q174" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R174" t="s">
         <v>410</v>
@@ -11899,7 +11899,7 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
         <v>199</v>
@@ -11938,19 +11938,19 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P175" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q175" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="R175" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S175" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -11958,7 +11958,7 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s">
         <v>200</v>
@@ -11997,19 +11997,19 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P176" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q176" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R176" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12056,19 +12056,19 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P177" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q177" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="R177" t="s">
         <v>407</v>
       </c>
       <c r="S177" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12076,7 +12076,7 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
         <v>202</v>
@@ -12121,13 +12121,13 @@
         <v>393</v>
       </c>
       <c r="Q178" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R178" t="s">
         <v>407</v>
       </c>
       <c r="S178" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12174,19 +12174,19 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P179" t="s">
         <v>395</v>
       </c>
       <c r="Q179" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R179" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S179" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12194,7 +12194,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C180" t="s">
         <v>204</v>
@@ -12233,19 +12233,19 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P180" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q180" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R180" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S180" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12253,7 +12253,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s">
         <v>205</v>
@@ -12292,16 +12292,16 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q181" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R181" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S181" t="s">
         <v>413</v>
@@ -12312,7 +12312,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
@@ -12351,19 +12351,19 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q182" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R182" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S182" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:19">

--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -154,12 +154,12 @@
     <t>Leicester City Council</t>
   </si>
   <si>
+    <t>Medway Council</t>
+  </si>
+  <si>
     <t>Leeds City Council</t>
   </si>
   <si>
-    <t>Medway Council</t>
-  </si>
-  <si>
     <t>Fife Council</t>
   </si>
   <si>
@@ -181,108 +181,108 @@
     <t>Plymouth City Council</t>
   </si>
   <si>
+    <t>Cheshire East Council</t>
+  </si>
+  <si>
     <t>Perth and Kinross Council</t>
   </si>
   <si>
-    <t>Cheshire East Council</t>
-  </si>
-  <si>
     <t>Slough Borough Council</t>
   </si>
   <si>
     <t>London Borough of Hounslow</t>
   </si>
   <si>
+    <t>Royal Borough of Greenwich</t>
+  </si>
+  <si>
     <t>Trafford Metropolitan Borough Council</t>
   </si>
   <si>
     <t>Bristol City Council</t>
   </si>
   <si>
+    <t>Stirling Council</t>
+  </si>
+  <si>
     <t>Central Bedfordshire Council</t>
   </si>
   <si>
-    <t>Stirling Council</t>
-  </si>
-  <si>
     <t>Dundee City Council</t>
   </si>
   <si>
     <t>Brighton and Hove City Council</t>
   </si>
   <si>
-    <t>Royal Borough of Greenwich</t>
+    <t>Royal Borough of Kensington and Chelsea</t>
+  </si>
+  <si>
+    <t>London Borough of Harrow</t>
+  </si>
+  <si>
+    <t>London Borough of Islington</t>
+  </si>
+  <si>
+    <t>Sandwell Metropolitan Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Camden</t>
+  </si>
+  <si>
+    <t>Blackpool Borough Council</t>
   </si>
   <si>
     <t>Darlington Borough Council</t>
   </si>
   <si>
-    <t>Sandwell Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Camden</t>
-  </si>
-  <si>
-    <t>London Borough of Islington</t>
-  </si>
-  <si>
-    <t>London Borough of Harrow</t>
-  </si>
-  <si>
-    <t>Royal Borough of Kensington and Chelsea</t>
-  </si>
-  <si>
     <t>West Berkshire Council</t>
   </si>
   <si>
-    <t>Blackpool Borough Council</t>
-  </si>
-  <si>
     <t>London Borough of Croydon</t>
   </si>
   <si>
     <t>Salford City Council</t>
   </si>
   <si>
+    <t>Bury Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Sunderland City Council</t>
   </si>
   <si>
     <t>Swindon Borough Council</t>
   </si>
   <si>
+    <t>Scottish Borders Council</t>
+  </si>
+  <si>
     <t>London Borough of Wandsworth</t>
   </si>
   <si>
-    <t>Bury Metropolitan Borough Council</t>
-  </si>
-  <si>
     <t>Wakefield Metropolitan District Council</t>
   </si>
   <si>
     <t>Herefordshire Council</t>
   </si>
   <si>
-    <t>Scottish Borders Council</t>
-  </si>
-  <si>
     <t>Durham County Council</t>
   </si>
   <si>
     <t>Bedford Borough Council</t>
   </si>
   <si>
+    <t>East Dunbartonshire Council</t>
+  </si>
+  <si>
     <t>City of Westminster</t>
   </si>
   <si>
-    <t>East Dunbartonshire Council</t>
+    <t>Southend-on-Sea Borough Council</t>
   </si>
   <si>
     <t>West Dunbartonshire Council</t>
   </si>
   <si>
-    <t>Southend-on-Sea Borough Council</t>
-  </si>
-  <si>
     <t>London Borough of Bromley</t>
   </si>
   <si>
@@ -292,55 +292,58 @@
     <t>Cheshire West and Chester Council</t>
   </si>
   <si>
+    <t>Birmingham City Council</t>
+  </si>
+  <si>
     <t>Wirral Borough Council</t>
   </si>
   <si>
+    <t>London Borough of Redbridge</t>
+  </si>
+  <si>
+    <t>Shropshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Merton</t>
+  </si>
+  <si>
     <t>North Lanarkshire Council</t>
   </si>
   <si>
-    <t>London Borough of Redbridge</t>
-  </si>
-  <si>
-    <t>Shropshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Merton</t>
-  </si>
-  <si>
     <t>Wigan Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Birmingham City Council</t>
+    <t>London Borough of Newham</t>
   </si>
   <si>
     <t>Rotherham Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>London Borough of Newham</t>
-  </si>
-  <si>
     <t>Walsall Metropolitan Borough Council</t>
   </si>
   <si>
     <t>Hull City Council</t>
   </si>
   <si>
+    <t>Bath and North East Somerset Council</t>
+  </si>
+  <si>
     <t>Midlothian Council</t>
   </si>
   <si>
     <t>Milton Keynes Council</t>
   </si>
   <si>
-    <t>Bath and North East Somerset Council</t>
+    <t>London Borough of Sutton</t>
+  </si>
+  <si>
+    <t>Royal Borough of Windsor and Maidenhead</t>
   </si>
   <si>
     <t>Bournemouth, Christchurch and Poole Council</t>
   </si>
   <si>
-    <t>Royal Borough of Windsor and Maidenhead</t>
-  </si>
-  <si>
-    <t>London Borough of Sutton</t>
+    <t>Denbighshire County Council</t>
   </si>
   <si>
     <t>South Tyneside Council</t>
@@ -349,9 +352,6 @@
     <t>London Borough of Enfield</t>
   </si>
   <si>
-    <t>Denbighshire County Council</t>
-  </si>
-  <si>
     <t>Vale of Glamorgan Council</t>
   </si>
   <si>
@@ -361,58 +361,67 @@
     <t>South Lanarkshire Council</t>
   </si>
   <si>
+    <t>West Lothian Council</t>
+  </si>
+  <si>
     <t>Barnsley Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Stockton-on-Tees Borough Council</t>
+  </si>
+  <si>
+    <t>Rhondda Cynon Taf County Borough Council</t>
+  </si>
+  <si>
     <t>North Northamptonshire Council</t>
   </si>
   <si>
-    <t>West Lothian Council</t>
+    <t>Monmouthshire County Council</t>
   </si>
   <si>
     <t>London Borough of Hillingdon</t>
   </si>
   <si>
-    <t>Stockton-on-Tees Borough Council</t>
-  </si>
-  <si>
-    <t>Rhondda Cynon Taf County Borough Council</t>
+    <t>South Ayrshire Council</t>
+  </si>
+  <si>
+    <t>Blackburn with Darwen Borough Council</t>
   </si>
   <si>
     <t>Torbay Council</t>
   </si>
   <si>
-    <t>Monmouthshire County Council</t>
-  </si>
-  <si>
-    <t>Blackburn with Darwen Borough Council</t>
-  </si>
-  <si>
-    <t>South Ayrshire Council</t>
-  </si>
-  <si>
     <t>Redcar and Cleveland Borough Council</t>
   </si>
   <si>
+    <t>Southampton City Council</t>
+  </si>
+  <si>
     <t>The Moray Council</t>
   </si>
   <si>
-    <t>Southampton City Council</t>
+    <t>Portsmouth City Council</t>
+  </si>
+  <si>
+    <t>North Ayrshire Council</t>
+  </si>
+  <si>
+    <t>London Borough of Lambeth</t>
   </si>
   <si>
     <t>Doncaster Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Aberdeen City Council</t>
+  </si>
+  <si>
     <t>Pembrokeshire County Council</t>
   </si>
   <si>
-    <t>Portsmouth City Council</t>
-  </si>
-  <si>
-    <t>North Ayrshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Lambeth</t>
+    <t>City of London Corporation</t>
+  </si>
+  <si>
+    <t>East Ayrshire Council</t>
   </si>
   <si>
     <t>Argyll and Bute Council</t>
@@ -421,54 +430,45 @@
     <t>Buckinghamshire Council</t>
   </si>
   <si>
-    <t>Aberdeen City Council</t>
-  </si>
-  <si>
-    <t>City of London Corporation</t>
-  </si>
-  <si>
-    <t>East Ayrshire Council</t>
+    <t>West Northamptonshire Council</t>
+  </si>
+  <si>
+    <t>Ceredigion County Council</t>
+  </si>
+  <si>
+    <t>London Borough of Barking and Dagenham</t>
+  </si>
+  <si>
+    <t>London Borough of Tower Hamlets</t>
   </si>
   <si>
     <t>Oldham Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Ceredigion County Council</t>
-  </si>
-  <si>
     <t>North Somerset  Council</t>
   </si>
   <si>
-    <t>London Borough of Barking and Dagenham</t>
-  </si>
-  <si>
-    <t>West Northamptonshire Council</t>
-  </si>
-  <si>
-    <t>London Borough of Tower Hamlets</t>
+    <t>Neath Port Talbot County Borough Council</t>
   </si>
   <si>
     <t>Sefton Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>Carmarthenshire County Council</t>
+  </si>
+  <si>
+    <t>Caerphilly County Borough Council</t>
+  </si>
+  <si>
+    <t>Warrington Borough Council</t>
+  </si>
+  <si>
+    <t>Peterborough City Council</t>
+  </si>
+  <si>
     <t>Stockport Metropolitan Borough Council</t>
   </si>
   <si>
-    <t>Neath Port Talbot County Borough Council</t>
-  </si>
-  <si>
-    <t>Peterborough City Council</t>
-  </si>
-  <si>
-    <t>Carmarthenshire County Council</t>
-  </si>
-  <si>
-    <t>Caerphilly County Borough Council</t>
-  </si>
-  <si>
-    <t>Warrington Borough Council</t>
-  </si>
-  <si>
     <t>Calderdale Metropolitan Borough Council</t>
   </si>
   <si>
@@ -478,30 +478,30 @@
     <t>Knowsley Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>City of Bradford Metropolitan District Council</t>
+  </si>
+  <si>
     <t>Liverpool City Council</t>
   </si>
   <si>
-    <t>City of Bradford Metropolitan District Council</t>
+    <t>Wrexham County Borough Council</t>
   </si>
   <si>
     <t>Bracknell Forest Council</t>
   </si>
   <si>
-    <t>Wrexham County Borough Council</t>
+    <t>Inverclyde Council</t>
   </si>
   <si>
     <t>Dumfries and Galloway Council</t>
   </si>
   <si>
-    <t>Inverclyde Council</t>
+    <t>Comhairle nan Eilean Siar</t>
   </si>
   <si>
     <t>Luton Borough Council</t>
   </si>
   <si>
-    <t>Comhairle nan Eilean Siar</t>
-  </si>
-  <si>
     <t>City and County of Swansea Council</t>
   </si>
   <si>
@@ -532,24 +532,24 @@
     <t>Conwy County Borough Council</t>
   </si>
   <si>
+    <t>City of Wolverhampton Council</t>
+  </si>
+  <si>
+    <t>Torfaen County Borough Council</t>
+  </si>
+  <si>
+    <t>Thurrock Council</t>
+  </si>
+  <si>
+    <t>City of York Council</t>
+  </si>
+  <si>
+    <t>Tameside Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>London Borough of Waltham Forest</t>
   </si>
   <si>
-    <t>Torfaen County Borough Council</t>
-  </si>
-  <si>
-    <t>City of Wolverhampton Council</t>
-  </si>
-  <si>
-    <t>City of York Council</t>
-  </si>
-  <si>
-    <t>Tameside Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>Thurrock Council</t>
-  </si>
-  <si>
     <t>Stoke-on-Trent City Council</t>
   </si>
   <si>
@@ -700,12 +700,12 @@
     <t>LCE</t>
   </si>
   <si>
+    <t>MDW</t>
+  </si>
+  <si>
     <t>LDS</t>
   </si>
   <si>
-    <t>MDW</t>
-  </si>
-  <si>
     <t>FIF</t>
   </si>
   <si>
@@ -727,108 +727,108 @@
     <t>PLY</t>
   </si>
   <si>
+    <t>CHE</t>
+  </si>
+  <si>
     <t>PKN</t>
   </si>
   <si>
-    <t>CHE</t>
-  </si>
-  <si>
     <t>SLG</t>
   </si>
   <si>
     <t>HNS</t>
   </si>
   <si>
+    <t>GRE</t>
+  </si>
+  <si>
     <t>TRF</t>
   </si>
   <si>
     <t>BST</t>
   </si>
   <si>
+    <t>STG</t>
+  </si>
+  <si>
     <t>CBF</t>
   </si>
   <si>
-    <t>STG</t>
-  </si>
-  <si>
     <t>DND</t>
   </si>
   <si>
     <t>BNH</t>
   </si>
   <si>
-    <t>GRE</t>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>HRW</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>BPL</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>CMD</t>
-  </si>
-  <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>HRW</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
     <t>WBK</t>
   </si>
   <si>
-    <t>BPL</t>
-  </si>
-  <si>
     <t>CRY</t>
   </si>
   <si>
     <t>SLF</t>
   </si>
   <si>
+    <t>BUR</t>
+  </si>
+  <si>
     <t>SND</t>
   </si>
   <si>
     <t>SWD</t>
   </si>
   <si>
+    <t>SCB</t>
+  </si>
+  <si>
     <t>WND</t>
   </si>
   <si>
-    <t>BUR</t>
-  </si>
-  <si>
     <t>WKF</t>
   </si>
   <si>
     <t>HEF</t>
   </si>
   <si>
-    <t>SCB</t>
-  </si>
-  <si>
     <t>DUR</t>
   </si>
   <si>
     <t>BDF</t>
   </si>
   <si>
+    <t>EDU</t>
+  </si>
+  <si>
     <t>WSM</t>
   </si>
   <si>
-    <t>EDU</t>
+    <t>SOS</t>
   </si>
   <si>
     <t>WDU</t>
   </si>
   <si>
-    <t>SOS</t>
-  </si>
-  <si>
     <t>BRY</t>
   </si>
   <si>
@@ -838,55 +838,58 @@
     <t>CHW</t>
   </si>
   <si>
+    <t>BIR</t>
+  </si>
+  <si>
     <t>WRL</t>
   </si>
   <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
     <t>NLK</t>
   </si>
   <si>
-    <t>RDB</t>
-  </si>
-  <si>
-    <t>SHR</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
     <t>WGN</t>
   </si>
   <si>
-    <t>BIR</t>
+    <t>NWM</t>
   </si>
   <si>
     <t>ROT</t>
   </si>
   <si>
-    <t>NWM</t>
-  </si>
-  <si>
     <t>WLL</t>
   </si>
   <si>
     <t>KHL</t>
   </si>
   <si>
+    <t>BAS</t>
+  </si>
+  <si>
     <t>MLN</t>
   </si>
   <si>
     <t>MIK</t>
   </si>
   <si>
-    <t>BAS</t>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>WNM</t>
   </si>
   <si>
     <t>BPC</t>
   </si>
   <si>
-    <t>WNM</t>
-  </si>
-  <si>
-    <t>STN</t>
+    <t>DEN</t>
   </si>
   <si>
     <t>STY</t>
@@ -895,9 +898,6 @@
     <t>ENF</t>
   </si>
   <si>
-    <t>DEN</t>
-  </si>
-  <si>
     <t>VGL</t>
   </si>
   <si>
@@ -907,58 +907,67 @@
     <t>SLK</t>
   </si>
   <si>
+    <t>WLN</t>
+  </si>
+  <si>
     <t>BNS</t>
   </si>
   <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>RCT</t>
+  </si>
+  <si>
     <t>NNT</t>
   </si>
   <si>
-    <t>WLN</t>
+    <t>MON</t>
   </si>
   <si>
     <t>HIL</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>RCT</t>
+    <t>SAY</t>
+  </si>
+  <si>
+    <t>BBD</t>
   </si>
   <si>
     <t>TOB</t>
   </si>
   <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>BBD</t>
-  </si>
-  <si>
-    <t>SAY</t>
-  </si>
-  <si>
     <t>RCC</t>
   </si>
   <si>
+    <t>STH</t>
+  </si>
+  <si>
     <t>MRY</t>
   </si>
   <si>
-    <t>STH</t>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>NAY</t>
+  </si>
+  <si>
+    <t>LBH</t>
   </si>
   <si>
     <t>DNC</t>
   </si>
   <si>
+    <t>ABE</t>
+  </si>
+  <si>
     <t>PEM</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>NAY</t>
-  </si>
-  <si>
-    <t>LBH</t>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>EAY</t>
   </si>
   <si>
     <t>AGB</t>
@@ -967,54 +976,45 @@
     <t>BUC</t>
   </si>
   <si>
-    <t>ABE</t>
-  </si>
-  <si>
-    <t>LND</t>
-  </si>
-  <si>
-    <t>EAY</t>
+    <t>WNT</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>BDG</t>
+  </si>
+  <si>
+    <t>TWH</t>
   </si>
   <si>
     <t>OLD</t>
   </si>
   <si>
-    <t>CGN</t>
-  </si>
-  <si>
     <t>NSM</t>
   </si>
   <si>
-    <t>BDG</t>
-  </si>
-  <si>
-    <t>WNT</t>
-  </si>
-  <si>
-    <t>TWH</t>
+    <t>NTL</t>
   </si>
   <si>
     <t>SFT</t>
   </si>
   <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>CAY</t>
+  </si>
+  <si>
+    <t>WRT</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
     <t>SKP</t>
   </si>
   <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>PTE</t>
-  </si>
-  <si>
-    <t>CMN</t>
-  </si>
-  <si>
-    <t>CAY</t>
-  </si>
-  <si>
-    <t>WRT</t>
-  </si>
-  <si>
     <t>CLD</t>
   </si>
   <si>
@@ -1024,30 +1024,30 @@
     <t>KWL</t>
   </si>
   <si>
+    <t>BRD</t>
+  </si>
+  <si>
     <t>LIV</t>
   </si>
   <si>
-    <t>BRD</t>
+    <t>WRX</t>
   </si>
   <si>
     <t>BRC</t>
   </si>
   <si>
-    <t>WRX</t>
+    <t>IVC</t>
   </si>
   <si>
     <t>DGY</t>
   </si>
   <si>
-    <t>IVC</t>
+    <t>ELS</t>
   </si>
   <si>
     <t>LUT</t>
   </si>
   <si>
-    <t>ELS</t>
-  </si>
-  <si>
     <t>SWA</t>
   </si>
   <si>
@@ -1078,22 +1078,22 @@
     <t>CWY</t>
   </si>
   <si>
+    <t>WLV</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>YOR</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
     <t>WFT</t>
-  </si>
-  <si>
-    <t>TOF</t>
-  </si>
-  <si>
-    <t>WLV</t>
-  </si>
-  <si>
-    <t>YOR</t>
-  </si>
-  <si>
-    <t>TAM</t>
-  </si>
-  <si>
-    <t>THR</t>
   </si>
   <si>
     <t>STE</t>
@@ -1710,7 +1710,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I2">
         <v>0.6</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.8742857142857144</v>
+        <v>0.870952380952381</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0.8</v>
@@ -1787,7 +1787,7 @@
         <v>0.75</v>
       </c>
       <c r="N3">
-        <v>0.8317857142857144</v>
+        <v>0.8467857142857143</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4">
         <v>0.8</v>
@@ -1846,7 +1846,7 @@
         <v>0.75</v>
       </c>
       <c r="N4">
-        <v>0.8261904761904763</v>
+        <v>0.8211904761904761</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -1887,7 +1887,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H5">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I5">
         <v>0.8</v>
@@ -1905,7 +1905,7 @@
         <v>0.75</v>
       </c>
       <c r="N5">
-        <v>0.8186904761904764</v>
+        <v>0.8170238095238097</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0.75</v>
       </c>
       <c r="N7">
-        <v>0.8060714285714285</v>
+        <v>0.8027380952380953</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -2064,7 +2064,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>0.75</v>
       </c>
       <c r="N8">
-        <v>0.8003571428571429</v>
+        <v>0.7986904761904762</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I9">
         <v>0.8</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0.7954761904761906</v>
+        <v>0.7938095238095239</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -2182,7 +2182,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H10">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0.75</v>
       </c>
       <c r="N10">
-        <v>0.7916666666666666</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.7884523809523809</v>
+        <v>0.7834523809523809</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I13">
         <v>0.6</v>
@@ -2377,7 +2377,7 @@
         <v>0.75</v>
       </c>
       <c r="N13">
-        <v>0.776309523809524</v>
+        <v>0.7729761904761906</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -2418,7 +2418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I14">
         <v>0.8</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.7745238095238096</v>
+        <v>0.7711904761904764</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2477,7 +2477,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>0.75</v>
       </c>
       <c r="N15">
-        <v>0.7710714285714285</v>
+        <v>0.7644047619047619</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I16">
         <v>0.6</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0.7545238095238096</v>
+        <v>0.7511904761904763</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I17">
         <v>0.8</v>
@@ -2613,7 +2613,7 @@
         <v>0.75</v>
       </c>
       <c r="N17">
-        <v>0.7465476190476191</v>
+        <v>0.7432142857142859</v>
       </c>
       <c r="O17">
         <v>4</v>
@@ -2654,7 +2654,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H18">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I18">
         <v>0.4</v>
@@ -2672,7 +2672,7 @@
         <v>0.75</v>
       </c>
       <c r="N18">
-        <v>0.7377380952380953</v>
+        <v>0.7327380952380954</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -2772,7 +2772,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H20">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I20">
         <v>0.8</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0.7233333333333334</v>
+        <v>0.7216666666666667</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -2884,46 +2884,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F22">
-        <v>0.6111111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G22">
         <v>0.7142857142857143</v>
       </c>
       <c r="H22">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
-        <v>0.7113095238095238</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R22" t="s">
         <v>407</v>
       </c>
       <c r="S22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
@@ -2943,46 +2943,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F23">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G23">
         <v>0.7142857142857143</v>
       </c>
       <c r="H23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I23">
         <v>0.8</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N23">
-        <v>0.7104761904761905</v>
+        <v>0.7063095238095239</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q23" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="R23" t="s">
         <v>407</v>
       </c>
       <c r="S23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -3008,7 +3008,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H24">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I24">
         <v>0.8</v>
@@ -3026,7 +3026,7 @@
         <v>0.25</v>
       </c>
       <c r="N24">
-        <v>0.7053571428571429</v>
+        <v>0.7003571428571428</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I25">
         <v>0.4</v>
@@ -3085,7 +3085,7 @@
         <v>0.75</v>
       </c>
       <c r="N25">
-        <v>0.7007142857142857</v>
+        <v>0.6973809523809523</v>
       </c>
       <c r="O25">
         <v>5</v>
@@ -3126,7 +3126,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H26">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I26">
         <v>0.6</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>0.696904761904762</v>
+        <v>0.6952380952380954</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H27">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>0.75</v>
       </c>
       <c r="N27">
-        <v>0.6948809523809524</v>
+        <v>0.6898809523809525</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3244,7 +3244,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I28">
         <v>0.6</v>
@@ -3262,7 +3262,7 @@
         <v>0.75</v>
       </c>
       <c r="N28">
-        <v>0.6909523809523809</v>
+        <v>0.6876190476190475</v>
       </c>
       <c r="O28">
         <v>3</v>
@@ -3303,7 +3303,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H29">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I29">
         <v>0.2</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.6826190476190477</v>
+        <v>0.680952380952381</v>
       </c>
       <c r="O29">
         <v>5</v>
@@ -3362,7 +3362,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I30">
         <v>0.8</v>
@@ -3380,7 +3380,7 @@
         <v>0.75</v>
       </c>
       <c r="N30">
-        <v>0.6698809523809524</v>
+        <v>0.6648809523809524</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -3403,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -3412,46 +3412,46 @@
         <v>237</v>
       </c>
       <c r="E31">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F31">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
         <v>0.7142857142857143</v>
       </c>
       <c r="H31">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>0.2</v>
-      </c>
-      <c r="L31">
-        <v>0.4</v>
       </c>
       <c r="M31">
         <v>0.75</v>
       </c>
       <c r="N31">
-        <v>0.6641666666666667</v>
+        <v>0.6622619047619047</v>
       </c>
       <c r="O31">
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S31" t="s">
         <v>413</v>
@@ -3462,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -3471,46 +3471,46 @@
         <v>238</v>
       </c>
       <c r="E32">
-        <v>0.7619047619047619</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G32">
         <v>0.7142857142857143</v>
       </c>
       <c r="H32">
-        <v>0.9</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L32">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M32">
         <v>0.75</v>
       </c>
       <c r="N32">
-        <v>0.6639285714285714</v>
+        <v>0.6608333333333335</v>
       </c>
       <c r="O32">
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q32" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R32" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S32" t="s">
         <v>413</v>
@@ -3539,7 +3539,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H33">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I33">
         <v>0.8</v>
@@ -3557,7 +3557,7 @@
         <v>0.75</v>
       </c>
       <c r="N33">
-        <v>0.6602380952380952</v>
+        <v>0.6552380952380951</v>
       </c>
       <c r="O33">
         <v>3</v>
@@ -3598,7 +3598,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I34">
         <v>0.4</v>
@@ -3616,7 +3616,7 @@
         <v>0.25</v>
       </c>
       <c r="N34">
-        <v>0.6490476190476191</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="O34">
         <v>3</v>
@@ -3639,7 +3639,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>59</v>
@@ -3648,43 +3648,43 @@
         <v>241</v>
       </c>
       <c r="E35">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F35">
         <v>0.6111111111111112</v>
       </c>
       <c r="G35">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H35">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I35">
         <v>0.8</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K35">
         <v>0.2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M35">
         <v>0.5</v>
       </c>
       <c r="N35">
-        <v>0.6430952380952381</v>
+        <v>0.6389285714285714</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q35" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R35" t="s">
         <v>407</v>
@@ -3698,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
@@ -3707,22 +3707,22 @@
         <v>242</v>
       </c>
       <c r="E36">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F36">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G36">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H36">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0.2</v>
@@ -3731,25 +3731,25 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
-        <v>0.6427380952380951</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R36" t="s">
         <v>407</v>
       </c>
       <c r="S36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3766,49 +3766,49 @@
         <v>243</v>
       </c>
       <c r="E37">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F37">
-        <v>0.6111111111111112</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0.2</v>
       </c>
       <c r="L37">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N37">
-        <v>0.6409523809523811</v>
+        <v>0.6360714285714286</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q37" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="R37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S37" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3834,7 +3834,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3852,7 +3852,7 @@
         <v>0.75</v>
       </c>
       <c r="N38">
-        <v>0.6386904761904763</v>
+        <v>0.6353571428571428</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3875,7 +3875,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -3884,49 +3884,49 @@
         <v>245</v>
       </c>
       <c r="E39">
-        <v>0.5238095238095238</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F39">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G39">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I39">
         <v>0.8</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K39">
+        <v>0.2</v>
+      </c>
+      <c r="L39">
         <v>0.6</v>
       </c>
-      <c r="L39">
-        <v>0.4</v>
-      </c>
       <c r="M39">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N39">
-        <v>0.6384523809523809</v>
+        <v>0.6326190476190475</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q39" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -3943,43 +3943,43 @@
         <v>246</v>
       </c>
       <c r="E40">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F40">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G40">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H40">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I40">
         <v>0.8</v>
       </c>
       <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0.6</v>
+      </c>
+      <c r="L40">
+        <v>0.4</v>
+      </c>
+      <c r="M40">
         <v>0.75</v>
       </c>
-      <c r="K40">
-        <v>0.4</v>
-      </c>
-      <c r="L40">
-        <v>0.6</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
       <c r="N40">
-        <v>0.631547619047619</v>
+        <v>0.6317857142857143</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R40" t="s">
         <v>407</v>
@@ -3993,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -4002,16 +4002,16 @@
         <v>247</v>
       </c>
       <c r="E41">
-        <v>0.7619047619047619</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F41">
-        <v>0.6111111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G41">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I41">
         <v>0.8</v>
@@ -4020,31 +4020,31 @@
         <v>0.75</v>
       </c>
       <c r="K41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.6305952380952381</v>
+        <v>0.6282142857142858</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P41" t="s">
         <v>392</v>
       </c>
       <c r="Q41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R41" t="s">
         <v>407</v>
       </c>
       <c r="S41" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4052,7 +4052,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -4061,49 +4061,49 @@
         <v>248</v>
       </c>
       <c r="E42">
-        <v>0.7619047619047619</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F42">
-        <v>0.6111111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G42">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H42">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I42">
         <v>0.6</v>
       </c>
-      <c r="I42">
-        <v>0.4</v>
-      </c>
       <c r="J42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L42">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M42">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N42">
-        <v>0.6195238095238096</v>
+        <v>0.6214285714285716</v>
       </c>
       <c r="O42">
         <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q42" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R42" t="s">
         <v>407</v>
       </c>
       <c r="S42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4111,7 +4111,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -4120,43 +4120,43 @@
         <v>249</v>
       </c>
       <c r="E43">
-        <v>0.7619047619047619</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F43">
         <v>0.7222222222222222</v>
       </c>
       <c r="G43">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43">
-        <v>0.7</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
         <v>0.4</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M43">
         <v>0.75</v>
       </c>
       <c r="N43">
-        <v>0.6194047619047619</v>
+        <v>0.6208333333333335</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q43" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R43" t="s">
         <v>407</v>
@@ -4179,37 +4179,37 @@
         <v>250</v>
       </c>
       <c r="E44">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F44">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G44">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H44">
-        <v>0.7</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I44">
         <v>0.8</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K44">
         <v>0.2</v>
       </c>
       <c r="L44">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N44">
-        <v>0.6185714285714287</v>
+        <v>0.6167857142857143</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
         <v>391</v>
@@ -4229,7 +4229,7 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -4238,43 +4238,43 @@
         <v>251</v>
       </c>
       <c r="E45">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F45">
-        <v>0.4444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G45">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0.75</v>
       </c>
       <c r="N45">
-        <v>0.618452380952381</v>
+        <v>0.6144047619047619</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q45" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R45" t="s">
         <v>407</v>
@@ -4297,37 +4297,37 @@
         <v>252</v>
       </c>
       <c r="E46">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F46">
-        <v>0.7222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G46">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H46">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I46">
         <v>0.8</v>
       </c>
       <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.2</v>
+      </c>
+      <c r="L46">
+        <v>0.6</v>
+      </c>
+      <c r="M46">
         <v>0.5</v>
       </c>
-      <c r="K46">
-        <v>0.4</v>
-      </c>
-      <c r="L46">
-        <v>0.8</v>
-      </c>
-      <c r="M46">
-        <v>0.75</v>
-      </c>
       <c r="N46">
-        <v>0.6158333333333333</v>
+        <v>0.6135714285714285</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P46" t="s">
         <v>391</v>
@@ -4347,7 +4347,7 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
@@ -4356,49 +4356,49 @@
         <v>253</v>
       </c>
       <c r="E47">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F47">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G47">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H47">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0.6</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
         <v>0.8</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N47">
-        <v>0.6147619047619047</v>
+        <v>0.6129761904761905</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R47" t="s">
         <v>407</v>
       </c>
       <c r="S47" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4415,49 +4415,49 @@
         <v>254</v>
       </c>
       <c r="E48">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F48">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G48">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J48">
         <v>0.75</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L48">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M48">
         <v>0.75</v>
       </c>
       <c r="N48">
-        <v>0.6135714285714285</v>
+        <v>0.6128571428571429</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S48" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4474,25 +4474,25 @@
         <v>255</v>
       </c>
       <c r="E49">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F49">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G49">
         <v>0.5714285714285714</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I49">
         <v>0.6</v>
       </c>
       <c r="J49">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0.8</v>
@@ -4501,22 +4501,22 @@
         <v>0.75</v>
       </c>
       <c r="N49">
-        <v>0.6129761904761905</v>
+        <v>0.6102380952380951</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q49" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="R49" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4542,7 +4542,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I50">
         <v>0.6</v>
@@ -4560,7 +4560,7 @@
         <v>0.75</v>
       </c>
       <c r="N50">
-        <v>0.6098809523809524</v>
+        <v>0.6032142857142856</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -4601,7 +4601,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H51">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I51">
         <v>0.8</v>
@@ -4619,7 +4619,7 @@
         <v>0.75</v>
       </c>
       <c r="N51">
-        <v>0.6060714285714285</v>
+        <v>0.6010714285714286</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4651,16 +4651,16 @@
         <v>258</v>
       </c>
       <c r="E52">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F52">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I52">
         <v>0.6</v>
@@ -4669,25 +4669,25 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L52">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N52">
-        <v>0.6019047619047619</v>
+        <v>0.5992857142857143</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q52" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="R52" t="s">
         <v>407</v>
@@ -4701,7 +4701,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -4710,49 +4710,49 @@
         <v>259</v>
       </c>
       <c r="E53">
-        <v>0.6190476190476191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F53">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G53">
         <v>0.8571428571428571</v>
       </c>
       <c r="H53">
-        <v>0.9</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L53">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0.5997619047619047</v>
+        <v>0.5985714285714286</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P53" t="s">
         <v>391</v>
       </c>
       <c r="Q53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R53" t="s">
         <v>407</v>
       </c>
       <c r="S53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4760,7 +4760,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>78</v>
@@ -4769,43 +4769,43 @@
         <v>260</v>
       </c>
       <c r="E54">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F54">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G54">
         <v>0.8571428571428571</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I54">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M54">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>0.5941666666666666</v>
+        <v>0.598095238095238</v>
       </c>
       <c r="O54">
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R54" t="s">
         <v>407</v>
@@ -4819,7 +4819,7 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
@@ -4831,19 +4831,19 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G55">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H55">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I55">
         <v>0.6</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K55">
         <v>0.4</v>
@@ -4852,25 +4852,25 @@
         <v>0.6</v>
       </c>
       <c r="M55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N55">
-        <v>0.5892857142857143</v>
+        <v>0.5921428571428572</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q55" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R55" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S55" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4878,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
@@ -4887,49 +4887,49 @@
         <v>262</v>
       </c>
       <c r="E56">
-        <v>0.7142857142857143</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F56">
-        <v>0.3888888888888889</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H56">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I56">
         <v>0.4</v>
       </c>
       <c r="J56">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0.8</v>
+      </c>
+      <c r="M56">
         <v>0.75</v>
       </c>
-      <c r="K56">
-        <v>0.2</v>
-      </c>
-      <c r="L56">
-        <v>0.2</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
       <c r="N56">
-        <v>0.5879761904761905</v>
+        <v>0.5908333333333334</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P56" t="s">
         <v>392</v>
       </c>
       <c r="Q56" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4937,7 +4937,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
@@ -4946,49 +4946,49 @@
         <v>263</v>
       </c>
       <c r="E57">
-        <v>0.4761904761904762</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F57">
-        <v>0.6111111111111112</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G57">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L57">
         <v>0.2</v>
       </c>
       <c r="M57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>0.5841666666666666</v>
+        <v>0.5829761904761905</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q57" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4996,7 +4996,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
         <v>82</v>
@@ -5008,40 +5008,40 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F58">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G58">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M58">
         <v>0.75</v>
       </c>
       <c r="N58">
-        <v>0.5838095238095239</v>
+        <v>0.5824999999999999</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R58" t="s">
         <v>410</v>
@@ -5073,7 +5073,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I59">
         <v>0.8</v>
@@ -5091,7 +5091,7 @@
         <v>0.25</v>
       </c>
       <c r="N59">
-        <v>0.5836904761904762</v>
+        <v>0.5753571428571428</v>
       </c>
       <c r="O59">
         <v>2</v>
@@ -5132,7 +5132,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H60">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I60">
         <v>0.4</v>
@@ -5150,7 +5150,7 @@
         <v>0.5</v>
       </c>
       <c r="N60">
-        <v>0.5764285714285714</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="O60">
         <v>4</v>
@@ -5173,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>85</v>
@@ -5182,49 +5182,49 @@
         <v>267</v>
       </c>
       <c r="E61">
-        <v>0.5238095238095238</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F61">
         <v>0.5555555555555556</v>
       </c>
       <c r="G61">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I61">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J61">
         <v>0.75</v>
       </c>
       <c r="K61">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L61">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M61">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N61">
-        <v>0.5686904761904762</v>
+        <v>0.5707142857142857</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q61" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R61" t="s">
         <v>407</v>
       </c>
       <c r="S61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5232,7 +5232,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
@@ -5241,49 +5241,49 @@
         <v>268</v>
       </c>
       <c r="E62">
-        <v>0.3809523809523809</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F62">
         <v>0.5555555555555556</v>
       </c>
       <c r="G62">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H62">
-        <v>0.4</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I62">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J62">
         <v>0.75</v>
       </c>
       <c r="K62">
+        <v>0.4</v>
+      </c>
+      <c r="L62">
         <v>0.6</v>
       </c>
-      <c r="L62">
-        <v>0.8</v>
-      </c>
       <c r="M62">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N62">
-        <v>0.564047619047619</v>
+        <v>0.565357142857143</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q62" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R62" t="s">
         <v>407</v>
       </c>
       <c r="S62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5291,7 +5291,7 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
@@ -5300,25 +5300,25 @@
         <v>269</v>
       </c>
       <c r="E63">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F63">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.8</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L63">
         <v>0.6</v>
@@ -5327,16 +5327,16 @@
         <v>0.5</v>
       </c>
       <c r="N63">
-        <v>0.5569047619047619</v>
+        <v>0.5607142857142857</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q63" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R63" t="s">
         <v>407</v>
@@ -5350,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -5359,25 +5359,25 @@
         <v>270</v>
       </c>
       <c r="E64">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F64">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0.3</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0.6</v>
@@ -5386,16 +5386,16 @@
         <v>0.5</v>
       </c>
       <c r="N64">
-        <v>0.5557142857142857</v>
+        <v>0.5535714285714287</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q64" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R64" t="s">
         <v>407</v>
@@ -5427,7 +5427,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I65">
         <v>0.8</v>
@@ -5445,7 +5445,7 @@
         <v>0.75</v>
       </c>
       <c r="N65">
-        <v>0.5504761904761906</v>
+        <v>0.5438095238095239</v>
       </c>
       <c r="O65">
         <v>5</v>
@@ -5486,7 +5486,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H66">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I66">
         <v>0.4</v>
@@ -5504,7 +5504,7 @@
         <v>0.5</v>
       </c>
       <c r="N66">
-        <v>0.5409523809523811</v>
+        <v>0.5392857142857144</v>
       </c>
       <c r="O66">
         <v>5</v>
@@ -5545,7 +5545,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H67">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I67">
         <v>0.6</v>
@@ -5563,7 +5563,7 @@
         <v>0.75</v>
       </c>
       <c r="N67">
-        <v>0.5386904761904762</v>
+        <v>0.5336904761904762</v>
       </c>
       <c r="O67">
         <v>4</v>
@@ -5595,49 +5595,49 @@
         <v>274</v>
       </c>
       <c r="E68">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="F68">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G68">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F68">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="G68">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="H68">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I68">
         <v>0.6</v>
       </c>
       <c r="J68">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L68">
         <v>0.4</v>
       </c>
       <c r="M68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N68">
-        <v>0.5384523809523809</v>
+        <v>0.533452380952381</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q68" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R68" t="s">
         <v>407</v>
       </c>
       <c r="S68" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5645,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
         <v>93</v>
@@ -5654,34 +5654,34 @@
         <v>275</v>
       </c>
       <c r="E69">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F69">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G69">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H69">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I69">
         <v>0.6</v>
       </c>
       <c r="J69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K69">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L69">
         <v>0.4</v>
       </c>
       <c r="M69">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N69">
-        <v>0.5342857142857143</v>
+        <v>0.5301190476190476</v>
       </c>
       <c r="O69">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>392</v>
       </c>
       <c r="Q69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R69" t="s">
         <v>407</v>
@@ -5722,7 +5722,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I70">
         <v>0.4</v>
@@ -5740,7 +5740,7 @@
         <v>0.75</v>
       </c>
       <c r="N70">
-        <v>0.5332142857142858</v>
+        <v>0.526547619047619</v>
       </c>
       <c r="O70">
         <v>4</v>
@@ -5781,7 +5781,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I71">
         <v>0.6</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0.5303571428571427</v>
+        <v>0.5253571428571429</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -5840,7 +5840,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H72">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I72">
         <v>0.8</v>
@@ -5858,7 +5858,7 @@
         <v>0.5</v>
       </c>
       <c r="N72">
-        <v>0.5294047619047619</v>
+        <v>0.5244047619047619</v>
       </c>
       <c r="O72">
         <v>5</v>
@@ -5881,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
         <v>97</v>
@@ -5890,34 +5890,34 @@
         <v>279</v>
       </c>
       <c r="E73">
-        <v>0.4761904761904762</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F73">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G73">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H73">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I73">
         <v>0.6</v>
       </c>
-      <c r="I73">
-        <v>0.8</v>
-      </c>
       <c r="J73">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K73">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L73">
         <v>0.4</v>
       </c>
       <c r="M73">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N73">
-        <v>0.5288095238095238</v>
+        <v>0.5242857142857142</v>
       </c>
       <c r="O73">
         <v>2</v>
@@ -5926,13 +5926,13 @@
         <v>392</v>
       </c>
       <c r="Q73" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R73" t="s">
         <v>407</v>
       </c>
       <c r="S73" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5949,25 +5949,25 @@
         <v>280</v>
       </c>
       <c r="E74">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F74">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G74">
         <v>0.5714285714285714</v>
       </c>
       <c r="H74">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I74">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L74">
         <v>0.4</v>
@@ -5976,16 +5976,16 @@
         <v>0.5</v>
       </c>
       <c r="N74">
-        <v>0.5251190476190477</v>
+        <v>0.5221428571428571</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R74" t="s">
         <v>407</v>
@@ -5999,7 +5999,7 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>99</v>
@@ -6008,43 +6008,43 @@
         <v>281</v>
       </c>
       <c r="E75">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F75">
         <v>0.3888888888888889</v>
       </c>
       <c r="G75">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H75">
-        <v>0.6</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I75">
         <v>0.4</v>
       </c>
       <c r="J75">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K75">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L75">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M75">
         <v>0.25</v>
       </c>
       <c r="N75">
-        <v>0.5201190476190476</v>
+        <v>0.5188095238095238</v>
       </c>
       <c r="O75">
         <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R75" t="s">
         <v>407</v>
@@ -6058,7 +6058,7 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
         <v>100</v>
@@ -6067,43 +6067,43 @@
         <v>282</v>
       </c>
       <c r="E76">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F76">
         <v>0.3888888888888889</v>
       </c>
       <c r="G76">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I76">
         <v>0.4</v>
       </c>
       <c r="J76">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K76">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M76">
         <v>0.25</v>
       </c>
       <c r="N76">
-        <v>0.5054761904761905</v>
+        <v>0.5134523809523809</v>
       </c>
       <c r="O76">
         <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q76" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="R76" t="s">
         <v>407</v>
@@ -6135,7 +6135,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I77">
         <v>0.4</v>
@@ -6153,7 +6153,7 @@
         <v>0.25</v>
       </c>
       <c r="N77">
-        <v>0.5044047619047619</v>
+        <v>0.5110714285714286</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -6194,7 +6194,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H78">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6212,7 +6212,7 @@
         <v>0.25</v>
       </c>
       <c r="N78">
-        <v>0.5001190476190477</v>
+        <v>0.4951190476190477</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>103</v>
@@ -6244,16 +6244,16 @@
         <v>285</v>
       </c>
       <c r="E79">
-        <v>0.6190476190476191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F79">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G79">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H79">
-        <v>0.6</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I79">
         <v>0.8</v>
@@ -6262,31 +6262,31 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L79">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M79">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N79">
-        <v>0.4983333333333334</v>
+        <v>0.4951190476190476</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q79" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R79" t="s">
         <v>408</v>
       </c>
       <c r="S79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -6303,7 +6303,7 @@
         <v>286</v>
       </c>
       <c r="E80">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F80">
         <v>0.5555555555555556</v>
@@ -6312,37 +6312,37 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I80">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J80">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
         <v>0.2</v>
       </c>
-      <c r="L80">
-        <v>0.4</v>
-      </c>
       <c r="M80">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N80">
-        <v>0.4819047619047619</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="O80">
         <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R80" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S80" t="s">
         <v>413</v>
@@ -6362,49 +6362,49 @@
         <v>287</v>
       </c>
       <c r="E81">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="F81">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G81">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H81">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F81">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G81">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H81">
-        <v>0.8</v>
-      </c>
       <c r="I81">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K81">
         <v>0.2</v>
       </c>
       <c r="L81">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M81">
         <v>0.75</v>
       </c>
       <c r="N81">
-        <v>0.4817857142857143</v>
+        <v>0.486904761904762</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q81" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R81" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6412,7 +6412,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
@@ -6421,49 +6421,49 @@
         <v>288</v>
       </c>
       <c r="E82">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F82">
-        <v>0.5</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G82">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H82">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I82">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M82">
         <v>0.75</v>
       </c>
       <c r="N82">
-        <v>0.4796428571428571</v>
+        <v>0.4820238095238095</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R82" t="s">
         <v>407</v>
       </c>
       <c r="S82" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6489,7 +6489,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H83">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I83">
         <v>0.4</v>
@@ -6507,7 +6507,7 @@
         <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4789285714285715</v>
+        <v>0.4772619047619048</v>
       </c>
       <c r="O83">
         <v>5</v>
@@ -6530,7 +6530,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>108</v>
@@ -6539,49 +6539,49 @@
         <v>290</v>
       </c>
       <c r="E84">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F84">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G84">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H84">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I84">
+        <v>0.8</v>
+      </c>
+      <c r="J84">
         <v>0.5</v>
       </c>
-      <c r="I84">
-        <v>0.4</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>0.75</v>
       </c>
       <c r="N84">
-        <v>0.4736904761904762</v>
+        <v>0.4746428571428571</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R84" t="s">
         <v>407</v>
       </c>
       <c r="S84" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6589,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -6601,46 +6601,46 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F85">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G85">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H85">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I85">
         <v>0.4</v>
       </c>
       <c r="J85">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M85">
         <v>0.75</v>
       </c>
       <c r="N85">
-        <v>0.4714285714285714</v>
+        <v>0.4720238095238095</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q85" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R85" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S85" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6648,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -6657,19 +6657,19 @@
         <v>292</v>
       </c>
       <c r="E86">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F86">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G86">
         <v>0.7142857142857143</v>
       </c>
       <c r="H86">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I86">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J86">
         <v>0.25</v>
@@ -6678,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M86">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N86">
-        <v>0.4620238095238095</v>
+        <v>0.4680952380952381</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q86" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R86" t="s">
         <v>407</v>
@@ -6707,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -6716,49 +6716,49 @@
         <v>293</v>
       </c>
       <c r="E87">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F87">
-        <v>0.1666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G87">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H87">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I87">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N87">
-        <v>0.4603571428571429</v>
+        <v>0.4570238095238095</v>
       </c>
       <c r="O87">
         <v>2</v>
       </c>
       <c r="P87" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q87" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6784,7 +6784,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I88">
         <v>0.4</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="N88">
-        <v>0.4588095238095239</v>
+        <v>0.4504761904761905</v>
       </c>
       <c r="O88">
         <v>4</v>
@@ -6843,7 +6843,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I89">
         <v>0.4</v>
@@ -6861,7 +6861,7 @@
         <v>0.5</v>
       </c>
       <c r="N89">
-        <v>0.4482142857142857</v>
+        <v>0.4432142857142857</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H90">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I90">
         <v>0.4</v>
@@ -6920,7 +6920,7 @@
         <v>0.75</v>
       </c>
       <c r="N90">
-        <v>0.4415476190476191</v>
+        <v>0.4365476190476191</v>
       </c>
       <c r="O90">
         <v>3</v>
@@ -6943,7 +6943,7 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
         <v>115</v>
@@ -6952,49 +6952,49 @@
         <v>297</v>
       </c>
       <c r="E91">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F91">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G91">
         <v>0.5714285714285714</v>
       </c>
       <c r="H91">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I91">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J91">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K91">
         <v>0.2</v>
       </c>
       <c r="L91">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M91">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N91">
-        <v>0.4403571428571429</v>
+        <v>0.4339285714285714</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P91" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q91" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R91" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S91" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -7002,7 +7002,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
         <v>116</v>
@@ -7011,49 +7011,49 @@
         <v>298</v>
       </c>
       <c r="E92">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="F92">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F92">
-        <v>0.05555555555555555</v>
-      </c>
       <c r="G92">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H92">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I92">
+        <v>0.8</v>
+      </c>
+      <c r="J92">
         <v>0.5</v>
       </c>
-      <c r="I92">
-        <v>0.6</v>
-      </c>
-      <c r="J92">
-        <v>0.75</v>
-      </c>
       <c r="K92">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L92">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M92">
         <v>0.25</v>
       </c>
       <c r="N92">
-        <v>0.4319047619047619</v>
+        <v>0.4336904761904762</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7061,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>117</v>
@@ -7070,46 +7070,46 @@
         <v>299</v>
       </c>
       <c r="E93">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F93">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G93">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H93">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G93">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H93">
-        <v>0.4</v>
-      </c>
       <c r="I93">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J93">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
         <v>0.2</v>
       </c>
-      <c r="L93">
-        <v>0.4</v>
-      </c>
       <c r="M93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>0.4272619047619048</v>
+        <v>0.4276190476190476</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P93" t="s">
         <v>393</v>
       </c>
       <c r="Q93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S93" t="s">
         <v>413</v>
@@ -7120,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
         <v>118</v>
@@ -7129,19 +7129,19 @@
         <v>300</v>
       </c>
       <c r="E94">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F94">
-        <v>0.2777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G94">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H94">
-        <v>0.9</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I94">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J94">
         <v>0.25</v>
@@ -7156,22 +7156,22 @@
         <v>0.75</v>
       </c>
       <c r="N94">
-        <v>0.4195238095238095</v>
+        <v>0.4252380952380952</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q94" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R94" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7191,46 +7191,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F95">
-        <v>0.8333333333333334</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G95">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H95">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I95">
         <v>0.6</v>
       </c>
       <c r="J95">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N95">
-        <v>0.4192857142857143</v>
+        <v>0.4235714285714286</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q95" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="R95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7247,19 +7247,19 @@
         <v>302</v>
       </c>
       <c r="E96">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F96">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G96">
         <v>0.5714285714285714</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I96">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J96">
         <v>0.25</v>
@@ -7271,16 +7271,16 @@
         <v>0.4</v>
       </c>
       <c r="M96">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N96">
-        <v>0.4185714285714285</v>
+        <v>0.4208333333333333</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P96" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q96" t="s">
         <v>405</v>
@@ -7289,7 +7289,7 @@
         <v>408</v>
       </c>
       <c r="S96" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7297,7 +7297,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>121</v>
@@ -7306,22 +7306,22 @@
         <v>303</v>
       </c>
       <c r="E97">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F97">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G97">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F97">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="G97">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="H97">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I97">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J97">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7333,22 +7333,22 @@
         <v>0.75</v>
       </c>
       <c r="N97">
-        <v>0.4177380952380952</v>
+        <v>0.4178571428571428</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P97" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R97" t="s">
         <v>407</v>
       </c>
       <c r="S97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -7356,7 +7356,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
         <v>122</v>
@@ -7365,34 +7365,34 @@
         <v>304</v>
       </c>
       <c r="E98">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F98">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G98">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H98">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I98">
+        <v>0.2</v>
+      </c>
+      <c r="J98">
+        <v>0.75</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
         <v>0.6</v>
       </c>
-      <c r="J98">
-        <v>0.25</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0.4</v>
-      </c>
       <c r="M98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>0.4158333333333333</v>
+        <v>0.4175</v>
       </c>
       <c r="O98">
         <v>4</v>
@@ -7401,13 +7401,13 @@
         <v>395</v>
       </c>
       <c r="Q98" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R98" t="s">
         <v>408</v>
       </c>
       <c r="S98" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7433,7 +7433,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H99">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I99">
         <v>0.6</v>
@@ -7451,7 +7451,7 @@
         <v>0.5</v>
       </c>
       <c r="N99">
-        <v>0.4155952380952381</v>
+        <v>0.4105952380952381</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
         <v>124</v>
@@ -7483,46 +7483,46 @@
         <v>306</v>
       </c>
       <c r="E100">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F100">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="G100">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H100">
         <v>0.4444444444444444</v>
-      </c>
-      <c r="G100">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H100">
-        <v>0.2</v>
       </c>
       <c r="I100">
         <v>0.2</v>
       </c>
       <c r="J100">
+        <v>0.5</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0.4</v>
+      </c>
+      <c r="M100">
         <v>0.75</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0.6</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
       <c r="N100">
-        <v>0.4141666666666666</v>
+        <v>0.4094047619047619</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P100" t="s">
         <v>395</v>
       </c>
       <c r="Q100" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S100" t="s">
         <v>413</v>
@@ -7551,7 +7551,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H101">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I101">
         <v>0.6</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0.3944047619047619</v>
+        <v>0.3994047619047619</v>
       </c>
       <c r="O101">
         <v>2</v>
@@ -7592,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>126</v>
@@ -7601,49 +7601,49 @@
         <v>308</v>
       </c>
       <c r="E102">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F102">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G102">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H102">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I102">
         <v>0.4</v>
       </c>
       <c r="J102">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N102">
-        <v>0.3872619047619048</v>
+        <v>0.3923809523809524</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P102" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q102" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7651,7 +7651,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
         <v>127</v>
@@ -7660,49 +7660,49 @@
         <v>309</v>
       </c>
       <c r="E103">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F103">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G103">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H103">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I103">
         <v>0.4</v>
       </c>
       <c r="J103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M103">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>0.3807142857142858</v>
+        <v>0.3805952380952381</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P103" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q103" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R103" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S103" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7710,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
@@ -7719,49 +7719,49 @@
         <v>310</v>
       </c>
       <c r="E104">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F104">
-        <v>0.3888888888888889</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G104">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H104">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I104">
         <v>0.6</v>
       </c>
-      <c r="I104">
-        <v>0.2</v>
-      </c>
       <c r="J104">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K104">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>0.2</v>
       </c>
       <c r="M104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N104">
-        <v>0.3761904761904762</v>
+        <v>0.3758333333333334</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R104" t="s">
         <v>407</v>
       </c>
       <c r="S104" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7769,7 +7769,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
         <v>129</v>
@@ -7778,22 +7778,22 @@
         <v>311</v>
       </c>
       <c r="E105">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F105">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H105">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I105">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7802,22 +7802,22 @@
         <v>0.6</v>
       </c>
       <c r="M105">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N105">
-        <v>0.3714285714285714</v>
+        <v>0.3735714285714286</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P105" t="s">
         <v>395</v>
       </c>
       <c r="Q105" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S105" t="s">
         <v>413</v>
@@ -7828,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>130</v>
@@ -7837,19 +7837,19 @@
         <v>312</v>
       </c>
       <c r="E106">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F106">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G106">
         <v>0.5714285714285714</v>
       </c>
       <c r="H106">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I106">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J106">
         <v>0.5</v>
@@ -7858,28 +7858,28 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N106">
-        <v>0.3691666666666667</v>
+        <v>0.3698809523809524</v>
       </c>
       <c r="O106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R106" t="s">
         <v>407</v>
       </c>
       <c r="S106" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7887,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
         <v>131</v>
@@ -7896,49 +7896,49 @@
         <v>313</v>
       </c>
       <c r="E107">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F107">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G107">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I107">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L107">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M107">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N107">
-        <v>0.3685714285714285</v>
+        <v>0.3695238095238096</v>
       </c>
       <c r="O107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q107" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S107" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7946,7 +7946,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
         <v>132</v>
@@ -7955,19 +7955,19 @@
         <v>314</v>
       </c>
       <c r="E108">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F108">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G108">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H108">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I108">
         <v>0.4</v>
-      </c>
-      <c r="I108">
-        <v>0.8</v>
       </c>
       <c r="J108">
         <v>0.5</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>0.3632142857142857</v>
+        <v>0.3623809523809524</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q108" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R108" t="s">
         <v>407</v>
       </c>
       <c r="S108" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8005,7 +8005,7 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
         <v>133</v>
@@ -8014,46 +8014,46 @@
         <v>315</v>
       </c>
       <c r="E109">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F109">
-        <v>0.4444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G109">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I109">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J109">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K109">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M109">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N109">
-        <v>0.3605952380952381</v>
+        <v>0.3597619047619047</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P109" t="s">
         <v>395</v>
       </c>
       <c r="Q109" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R109" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S109" t="s">
         <v>413</v>
@@ -8064,7 +8064,7 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
         <v>134</v>
@@ -8076,19 +8076,19 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F110">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G110">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H110">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I110">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J110">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -8100,22 +8100,22 @@
         <v>0.5</v>
       </c>
       <c r="N110">
-        <v>0.3577380952380952</v>
+        <v>0.3591666666666666</v>
       </c>
       <c r="O110">
         <v>5</v>
       </c>
       <c r="P110" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R110" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S110" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8132,46 +8132,46 @@
         <v>317</v>
       </c>
       <c r="E111">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F111">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G111">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H111">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I111">
+        <v>0.8</v>
+      </c>
+      <c r="J111">
+        <v>0.25</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0.6</v>
+      </c>
+      <c r="M111">
         <v>0.5</v>
       </c>
-      <c r="G111">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H111">
-        <v>0.4</v>
-      </c>
-      <c r="I111">
-        <v>0.4</v>
-      </c>
-      <c r="J111">
-        <v>0.5</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0.2</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
       <c r="N111">
-        <v>0.3557142857142858</v>
+        <v>0.3525</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P111" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q111" t="s">
         <v>398</v>
       </c>
       <c r="R111" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S111" t="s">
         <v>413</v>
@@ -8182,7 +8182,7 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
         <v>136</v>
@@ -8191,49 +8191,49 @@
         <v>318</v>
       </c>
       <c r="E112">
-        <v>0.2380952380952381</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F112">
         <v>0.4444444444444444</v>
       </c>
       <c r="G112">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112">
-        <v>0.3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I112">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N112">
-        <v>0.3541666666666667</v>
+        <v>0.3522619047619048</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P112" t="s">
         <v>395</v>
       </c>
       <c r="Q112" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R112" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S112" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8241,7 +8241,7 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>137</v>
@@ -8250,19 +8250,19 @@
         <v>319</v>
       </c>
       <c r="E113">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F113">
-        <v>0.2777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G113">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I113">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J113">
         <v>0.25</v>
@@ -8271,28 +8271,28 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0.5</v>
       </c>
       <c r="N113">
-        <v>0.3441666666666667</v>
+        <v>0.3510714285714286</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P113" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q113" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8300,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
         <v>138</v>
@@ -8312,46 +8312,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="F114">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G114">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H114">
-        <v>0.7</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I114">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J114">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K114">
         <v>0.2</v>
       </c>
       <c r="L114">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M114">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N114">
-        <v>0.343452380952381</v>
+        <v>0.3432142857142858</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q114" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="R114" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S114" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -8377,7 +8377,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H115">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I115">
         <v>0.4</v>
@@ -8395,7 +8395,7 @@
         <v>0.5</v>
       </c>
       <c r="N115">
-        <v>0.3397619047619048</v>
+        <v>0.3430952380952381</v>
       </c>
       <c r="O115">
         <v>4</v>
@@ -8418,7 +8418,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
         <v>140</v>
@@ -8427,49 +8427,49 @@
         <v>322</v>
       </c>
       <c r="E116">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F116">
         <v>0.3333333333333333</v>
       </c>
       <c r="G116">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H116">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I116">
         <v>0.4</v>
       </c>
-      <c r="I116">
-        <v>0.8</v>
-      </c>
       <c r="J116">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L116">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N116">
-        <v>0.3385714285714286</v>
+        <v>0.3425</v>
       </c>
       <c r="O116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P116" t="s">
         <v>391</v>
       </c>
       <c r="Q116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R116" t="s">
         <v>407</v>
       </c>
       <c r="S116" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8486,16 +8486,16 @@
         <v>323</v>
       </c>
       <c r="E117">
-        <v>0.2380952380952381</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F117">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G117">
         <v>0.4285714285714285</v>
       </c>
       <c r="H117">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I117">
         <v>0.4</v>
@@ -8504,22 +8504,22 @@
         <v>0.75</v>
       </c>
       <c r="K117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N117">
-        <v>0.3375</v>
+        <v>0.3411904761904762</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q117" t="s">
         <v>401</v>
@@ -8536,7 +8536,7 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
         <v>142</v>
@@ -8548,46 +8548,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="F118">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G118">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I118">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K118">
         <v>0.2</v>
       </c>
       <c r="L118">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M118">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N118">
-        <v>0.3365476190476191</v>
+        <v>0.3384523809523809</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q118" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="R118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S118" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8595,7 +8595,7 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>143</v>
@@ -8604,49 +8604,49 @@
         <v>325</v>
       </c>
       <c r="E119">
-        <v>0.5238095238095238</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F119">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G119">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H119">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I119">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J119">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M119">
         <v>0.75</v>
       </c>
       <c r="N119">
-        <v>0.3361904761904762</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R119" t="s">
         <v>407</v>
       </c>
       <c r="S119" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8654,7 +8654,7 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
         <v>144</v>
@@ -8663,46 +8663,46 @@
         <v>326</v>
       </c>
       <c r="E120">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F120">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G120">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H120">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I120">
         <v>0.4</v>
       </c>
-      <c r="I120">
-        <v>0.2</v>
-      </c>
       <c r="J120">
+        <v>0.25</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>0.75</v>
       </c>
-      <c r="K120">
-        <v>0.2</v>
-      </c>
-      <c r="L120">
-        <v>0.4</v>
-      </c>
-      <c r="M120">
-        <v>0.25</v>
-      </c>
       <c r="N120">
-        <v>0.3304761904761905</v>
+        <v>0.3257142857142857</v>
       </c>
       <c r="O120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q120" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R120" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S120" t="s">
         <v>411</v>
@@ -8722,25 +8722,25 @@
         <v>327</v>
       </c>
       <c r="E121">
-        <v>0.3809523809523809</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F121">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G121">
         <v>0.4285714285714285</v>
       </c>
       <c r="H121">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J121">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L121">
         <v>0.4</v>
@@ -8749,13 +8749,13 @@
         <v>0.25</v>
       </c>
       <c r="N121">
-        <v>0.3214285714285715</v>
+        <v>0.3204761904761905</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P121" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q121" t="s">
         <v>396</v>
@@ -8764,7 +8764,7 @@
         <v>407</v>
       </c>
       <c r="S121" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8781,16 +8781,16 @@
         <v>328</v>
       </c>
       <c r="E122">
-        <v>0.1904761904761905</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F122">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G122">
         <v>0.7142857142857143</v>
       </c>
       <c r="H122">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I122">
         <v>0.4</v>
@@ -8802,16 +8802,16 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>0.3207142857142857</v>
+        <v>0.3177380952380952</v>
       </c>
       <c r="O122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P122" t="s">
         <v>393</v>
@@ -8823,7 +8823,7 @@
         <v>408</v>
       </c>
       <c r="S122" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8831,7 +8831,7 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
         <v>147</v>
@@ -8840,34 +8840,34 @@
         <v>329</v>
       </c>
       <c r="E123">
-        <v>0.6190476190476191</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G123">
         <v>0.2857142857142857</v>
       </c>
       <c r="H123">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I123">
         <v>0.4</v>
       </c>
       <c r="J123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N123">
-        <v>0.3182142857142857</v>
+        <v>0.3129761904761905</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -8876,13 +8876,13 @@
         <v>393</v>
       </c>
       <c r="Q123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S123" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8890,7 +8890,7 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C124" t="s">
         <v>148</v>
@@ -8899,16 +8899,16 @@
         <v>330</v>
       </c>
       <c r="E124">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F124">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G124">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H124">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I124">
         <v>0.4</v>
@@ -8920,28 +8920,28 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N124">
-        <v>0.3127380952380952</v>
+        <v>0.3115476190476191</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P124" t="s">
         <v>393</v>
       </c>
       <c r="Q124" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S124" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8949,7 +8949,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C125" t="s">
         <v>149</v>
@@ -8958,34 +8958,34 @@
         <v>331</v>
       </c>
       <c r="E125">
-        <v>0.4285714285714285</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F125">
-        <v>0.3888888888888889</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0.2857142857142857</v>
       </c>
       <c r="H125">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I125">
         <v>0.4</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M125">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>0.3079761904761905</v>
+        <v>0.3115476190476191</v>
       </c>
       <c r="O125">
         <v>2</v>
@@ -8994,13 +8994,13 @@
         <v>393</v>
       </c>
       <c r="Q125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -9008,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
         <v>150</v>
@@ -9017,16 +9017,16 @@
         <v>332</v>
       </c>
       <c r="E126">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="F126">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G126">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F126">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="G126">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H126">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I126">
         <v>0.4</v>
@@ -9041,16 +9041,16 @@
         <v>0.4</v>
       </c>
       <c r="M126">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N126">
-        <v>0.3032142857142858</v>
+        <v>0.3097619047619047</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q126" t="s">
         <v>396</v>
@@ -9059,7 +9059,7 @@
         <v>407</v>
       </c>
       <c r="S126" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -9085,7 +9085,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H127">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I127">
         <v>0.4</v>
@@ -9103,7 +9103,7 @@
         <v>0.25</v>
       </c>
       <c r="N127">
-        <v>0.2985714285714286</v>
+        <v>0.3052380952380953</v>
       </c>
       <c r="O127">
         <v>2</v>
@@ -9144,7 +9144,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H128">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I128">
         <v>0.2</v>
@@ -9162,7 +9162,7 @@
         <v>0.5</v>
       </c>
       <c r="N128">
-        <v>0.2451190476190476</v>
+        <v>0.2501190476190476</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H129">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I129">
         <v>0.4</v>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>0.24</v>
+        <v>0.2433333333333333</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -9253,34 +9253,34 @@
         <v>336</v>
       </c>
       <c r="E130">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F130">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G130">
         <v>0.1428571428571428</v>
       </c>
       <c r="H130">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I130">
         <v>0.4</v>
       </c>
       <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0.6</v>
+      </c>
+      <c r="M130">
         <v>0.25</v>
       </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0.2</v>
-      </c>
-      <c r="M130">
-        <v>0.5</v>
-      </c>
       <c r="N130">
-        <v>0.2394047619047619</v>
+        <v>0.2315476190476191</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -9289,7 +9289,7 @@
         <v>390</v>
       </c>
       <c r="Q130" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="R130" t="s">
         <v>407</v>
@@ -9312,34 +9312,34 @@
         <v>337</v>
       </c>
       <c r="E131">
-        <v>0.09523809523809523</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F131">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G131">
         <v>0.1428571428571428</v>
       </c>
       <c r="H131">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I131">
         <v>0.4</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M131">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N131">
-        <v>0.2298809523809524</v>
+        <v>0.2260714285714286</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -9348,7 +9348,7 @@
         <v>390</v>
       </c>
       <c r="Q131" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R131" t="s">
         <v>407</v>
@@ -9362,7 +9362,7 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
         <v>156</v>
@@ -9371,19 +9371,19 @@
         <v>338</v>
       </c>
       <c r="E132">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F132">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G132">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H132">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -9395,25 +9395,25 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N132">
-        <v>0.2245238095238095</v>
+        <v>0.2203571428571428</v>
       </c>
       <c r="O132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P132" t="s">
         <v>395</v>
       </c>
       <c r="Q132" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="R132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S132" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9421,7 +9421,7 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
         <v>157</v>
@@ -9430,19 +9430,19 @@
         <v>339</v>
       </c>
       <c r="E133">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F133">
-        <v>0.1666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G133">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I133">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>0.2203571428571428</v>
+        <v>0.2111904761904762</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P133" t="s">
         <v>395</v>
       </c>
       <c r="Q133" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R133" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -9489,16 +9489,16 @@
         <v>340</v>
       </c>
       <c r="E134">
-        <v>0.6666666666666666</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G134">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I134">
         <v>0.4</v>
@@ -9510,25 +9510,25 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N134">
-        <v>0.2114285714285714</v>
+        <v>0.2044047619047619</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P134" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q134" t="s">
         <v>398</v>
       </c>
       <c r="R134" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S134" t="s">
         <v>413</v>
@@ -9548,16 +9548,16 @@
         <v>341</v>
       </c>
       <c r="E135">
-        <v>0.2380952380952381</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H135">
         <v>0.1111111111111111</v>
-      </c>
-      <c r="G135">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H135">
-        <v>0.1</v>
       </c>
       <c r="I135">
         <v>0.4</v>
@@ -9569,25 +9569,25 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M135">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>0.2027380952380952</v>
+        <v>0.1980952380952381</v>
       </c>
       <c r="O135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P135" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q135" t="s">
         <v>398</v>
       </c>
       <c r="R135" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S135" t="s">
         <v>413</v>
@@ -9598,7 +9598,7 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
         <v>160</v>
@@ -9607,20 +9607,20 @@
         <v>342</v>
       </c>
       <c r="E136">
-        <v>0.09523809523809523</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="I136">
         <v>0.4</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136">
         <v>0</v>
       </c>
@@ -9628,28 +9628,28 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N136">
-        <v>0.2</v>
+        <v>0.1929761904761905</v>
       </c>
       <c r="O136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P136" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q136" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R136" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S136" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9657,7 +9657,7 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C137" t="s">
         <v>161</v>
@@ -9666,49 +9666,49 @@
         <v>343</v>
       </c>
       <c r="E137">
-        <v>0.4285714285714285</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H137">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
         <v>0.4</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
       <c r="M137">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>0.1896428571428571</v>
+        <v>0.19</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P137" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q137" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R137" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S137" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9734,7 +9734,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H138">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0.75</v>
       </c>
       <c r="N138">
-        <v>0.186547619047619</v>
+        <v>0.1898809523809524</v>
       </c>
       <c r="O138">
         <v>3</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I139">
         <v>0.8</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>0.1701190476190476</v>
+        <v>0.173452380952381</v>
       </c>
       <c r="O139">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I140">
         <v>0.2</v>
@@ -9870,7 +9870,7 @@
         <v>0.25</v>
       </c>
       <c r="N140">
-        <v>0.1689285714285714</v>
+        <v>0.1622619047619048</v>
       </c>
       <c r="O140">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H141">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I141">
         <v>0.2</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0.1447619047619048</v>
+        <v>0.1497619047619048</v>
       </c>
       <c r="O141">
         <v>3</v>
@@ -9970,7 +9970,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H142">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I142">
         <v>0.4</v>
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0.1342857142857143</v>
+        <v>0.1376190476190476</v>
       </c>
       <c r="O142">
         <v>4</v>
@@ -10029,7 +10029,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H143">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>0.1286904761904762</v>
+        <v>0.1303571428571428</v>
       </c>
       <c r="O143">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I144">
         <v>0.2</v>
@@ -10106,7 +10106,7 @@
         <v>0.25</v>
       </c>
       <c r="N144">
-        <v>0.1101190476190476</v>
+        <v>0.113452380952381</v>
       </c>
       <c r="O144">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I145">
         <v>0.2</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0.1083333333333333</v>
+        <v>0.1116666666666667</v>
       </c>
       <c r="O145">
         <v>5</v>
@@ -10206,7 +10206,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H146">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I146">
         <v>0.2</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>0.08571428571428572</v>
+        <v>0.08904761904761906</v>
       </c>
       <c r="O146">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I147">
         <v>0.2</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>0.05714285714285715</v>
+        <v>0.06047619047619048</v>
       </c>
       <c r="O147">
         <v>3</v>
@@ -10306,7 +10306,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
         <v>172</v>
@@ -10345,13 +10345,13 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P148" t="s">
         <v>391</v>
       </c>
       <c r="Q148" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R148" t="s">
         <v>407</v>
@@ -10424,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>174</v>
@@ -10463,19 +10463,19 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P150" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q150" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="R150" t="s">
         <v>407</v>
       </c>
       <c r="S150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -10601,7 +10601,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
         <v>177</v>
@@ -10643,16 +10643,16 @@
         <v>3</v>
       </c>
       <c r="P153" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q153" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="R153" t="s">
         <v>407</v>
       </c>
       <c r="S153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:19">

--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -283,6 +283,9 @@
     <t>West Dunbartonshire Council</t>
   </si>
   <si>
+    <t>North Tyneside Council</t>
+  </si>
+  <si>
     <t>London Borough of Bromley</t>
   </si>
   <si>
@@ -478,6 +481,9 @@
     <t>Knowsley Metropolitan Borough Council</t>
   </si>
   <si>
+    <t>City of Wolverhampton Council</t>
+  </si>
+  <si>
     <t>City of Bradford Metropolitan District Council</t>
   </si>
   <si>
@@ -532,18 +538,15 @@
     <t>Conwy County Borough Council</t>
   </si>
   <si>
-    <t>City of Wolverhampton Council</t>
-  </si>
-  <si>
     <t>Torfaen County Borough Council</t>
   </si>
   <si>
+    <t>City of York Council</t>
+  </si>
+  <si>
     <t>Thurrock Council</t>
   </si>
   <si>
-    <t>City of York Council</t>
-  </si>
-  <si>
     <t>Tameside Metropolitan Borough Council</t>
   </si>
   <si>
@@ -571,60 +574,60 @@
     <t>Gwynedd Council</t>
   </si>
   <si>
+    <t>Coventry City Council</t>
+  </si>
+  <si>
+    <t>London Borough of Havering</t>
+  </si>
+  <si>
+    <t>Clackmannanshire Council</t>
+  </si>
+  <si>
+    <t>Isle of Anglesey County Council</t>
+  </si>
+  <si>
+    <t>Angus Council</t>
+  </si>
+  <si>
+    <t>London Borough of Bexley</t>
+  </si>
+  <si>
+    <t>Bridgend County Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Barnet</t>
+  </si>
+  <si>
     <t>Halton Borough Council</t>
   </si>
   <si>
-    <t>London Borough of Havering</t>
-  </si>
-  <si>
-    <t>Bridgend County Borough Council</t>
-  </si>
-  <si>
-    <t>Isle of Anglesey County Council</t>
-  </si>
-  <si>
-    <t>Angus Council</t>
-  </si>
-  <si>
-    <t>London Borough of Bexley</t>
-  </si>
-  <si>
-    <t>London Borough of Barnet</t>
-  </si>
-  <si>
-    <t>Coventry City Council</t>
-  </si>
-  <si>
-    <t>Clackmannanshire Council</t>
-  </si>
-  <si>
     <t>London Borough of Hackney</t>
   </si>
   <si>
+    <t>Powys County Council</t>
+  </si>
+  <si>
+    <t>Renfrewshire Council</t>
+  </si>
+  <si>
+    <t>Rutland County Council</t>
+  </si>
+  <si>
+    <t>Sheffield City Council</t>
+  </si>
+  <si>
+    <t>St Helens Council</t>
+  </si>
+  <si>
     <t>The Highland Council</t>
   </si>
   <si>
+    <t>North East Lincolnshire Council</t>
+  </si>
+  <si>
     <t>Hartlepool Borough Council</t>
   </si>
   <si>
-    <t>North Tyneside Council</t>
-  </si>
-  <si>
-    <t>Powys County Council</t>
-  </si>
-  <si>
-    <t>Renfrewshire Council</t>
-  </si>
-  <si>
-    <t>Rutland County Council</t>
-  </si>
-  <si>
-    <t>Sheffield City Council</t>
-  </si>
-  <si>
-    <t>St Helens Council</t>
-  </si>
-  <si>
     <t>Council of the Isles of Scilly</t>
   </si>
   <si>
@@ -634,9 +637,6 @@
     <t>Aberdeenshire Council</t>
   </si>
   <si>
-    <t>North East Lincolnshire Council</t>
-  </si>
-  <si>
     <t>Shetland Islands Council</t>
   </si>
   <si>
@@ -829,6 +829,9 @@
     <t>WDU</t>
   </si>
   <si>
+    <t>NTY</t>
+  </si>
+  <si>
     <t>BRY</t>
   </si>
   <si>
@@ -1024,6 +1027,9 @@
     <t>KWL</t>
   </si>
   <si>
+    <t>WLV</t>
+  </si>
+  <si>
     <t>BRD</t>
   </si>
   <si>
@@ -1078,18 +1084,15 @@
     <t>CWY</t>
   </si>
   <si>
-    <t>WLV</t>
-  </si>
-  <si>
     <t>TOF</t>
   </si>
   <si>
+    <t>YOR</t>
+  </si>
+  <si>
     <t>THR</t>
   </si>
   <si>
-    <t>YOR</t>
-  </si>
-  <si>
     <t>TAM</t>
   </si>
   <si>
@@ -1117,60 +1120,60 @@
     <t>GWN</t>
   </si>
   <si>
+    <t>COV</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>AGY</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>BEX</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
     <t>HAL</t>
   </si>
   <si>
-    <t>HAV</t>
-  </si>
-  <si>
-    <t>BGE</t>
-  </si>
-  <si>
-    <t>AGY</t>
-  </si>
-  <si>
-    <t>ANS</t>
-  </si>
-  <si>
-    <t>BEX</t>
-  </si>
-  <si>
-    <t>BNE</t>
-  </si>
-  <si>
-    <t>COV</t>
-  </si>
-  <si>
-    <t>CLK</t>
-  </si>
-  <si>
     <t>HCK</t>
   </si>
   <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>RFW</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>SHF</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
     <t>HLD</t>
   </si>
   <si>
+    <t>NEL</t>
+  </si>
+  <si>
     <t>HPL</t>
   </si>
   <si>
-    <t>NTY</t>
-  </si>
-  <si>
-    <t>POW</t>
-  </si>
-  <si>
-    <t>RFW</t>
-  </si>
-  <si>
-    <t>RUT</t>
-  </si>
-  <si>
-    <t>SHF</t>
-  </si>
-  <si>
-    <t>SHN</t>
-  </si>
-  <si>
     <t>IOS</t>
   </si>
   <si>
@@ -1178,9 +1181,6 @@
   </si>
   <si>
     <t>ABD</t>
-  </si>
-  <si>
-    <t>NEL</t>
   </si>
   <si>
     <t>ZET</t>
@@ -5409,7 +5409,7 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>89</v>
@@ -5418,49 +5418,49 @@
         <v>271</v>
       </c>
       <c r="E65">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F65">
+        <v>0.5</v>
+      </c>
+      <c r="G65">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H65">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F65">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G65">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H65">
-        <v>0.5555555555555556</v>
       </c>
       <c r="I65">
         <v>0.8</v>
       </c>
       <c r="J65">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K65">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M65">
         <v>0.75</v>
       </c>
       <c r="N65">
-        <v>0.5438095238095239</v>
+        <v>0.5475</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R65" t="s">
         <v>407</v>
       </c>
       <c r="S65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5477,40 +5477,40 @@
         <v>272</v>
       </c>
       <c r="E66">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F66">
-        <v>0.9444444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G66">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H66">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I66">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K66">
         <v>0.2</v>
       </c>
       <c r="L66">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N66">
-        <v>0.5392857142857144</v>
+        <v>0.5438095238095239</v>
       </c>
       <c r="O66">
         <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q66" t="s">
         <v>401</v>
@@ -5519,7 +5519,7 @@
         <v>407</v>
       </c>
       <c r="S66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5527,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>91</v>
@@ -5536,49 +5536,49 @@
         <v>273</v>
       </c>
       <c r="E67">
-        <v>0.5238095238095238</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F67">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G67">
         <v>0.4285714285714285</v>
       </c>
       <c r="H67">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I67">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J67">
         <v>0.5</v>
       </c>
       <c r="K67">
+        <v>0.2</v>
+      </c>
+      <c r="L67">
         <v>0.4</v>
       </c>
-      <c r="L67">
-        <v>0.2</v>
-      </c>
       <c r="M67">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N67">
-        <v>0.5336904761904762</v>
+        <v>0.5392857142857144</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q67" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5586,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
@@ -5598,46 +5598,46 @@
         <v>0.5238095238095238</v>
       </c>
       <c r="F68">
-        <v>0.5555555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G68">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H68">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I68">
         <v>0.6</v>
       </c>
       <c r="J68">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K68">
         <v>0.4</v>
       </c>
       <c r="L68">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M68">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N68">
-        <v>0.533452380952381</v>
+        <v>0.5336904761904762</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S68" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5654,49 +5654,49 @@
         <v>275</v>
       </c>
       <c r="E69">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="F69">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G69">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F69">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="G69">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="H69">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I69">
         <v>0.6</v>
       </c>
       <c r="J69">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K69">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L69">
         <v>0.4</v>
       </c>
       <c r="M69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N69">
-        <v>0.5301190476190476</v>
+        <v>0.533452380952381</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R69" t="s">
         <v>407</v>
       </c>
       <c r="S69" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5704,7 +5704,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
         <v>94</v>
@@ -5713,49 +5713,49 @@
         <v>276</v>
       </c>
       <c r="E70">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F70">
-        <v>0.3333333333333333</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G70">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H70">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I70">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K70">
         <v>0.2</v>
       </c>
       <c r="L70">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M70">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N70">
-        <v>0.526547619047619</v>
+        <v>0.5301190476190476</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P70" t="s">
         <v>392</v>
       </c>
       <c r="Q70" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R70" t="s">
         <v>407</v>
       </c>
       <c r="S70" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5763,7 +5763,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>95</v>
@@ -5772,34 +5772,34 @@
         <v>277</v>
       </c>
       <c r="E71">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F71">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G71">
         <v>0.7142857142857143</v>
       </c>
       <c r="H71">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I71">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N71">
-        <v>0.5253571428571429</v>
+        <v>0.526547619047619</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -5808,13 +5808,13 @@
         <v>392</v>
       </c>
       <c r="Q71" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5822,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
@@ -5831,49 +5831,49 @@
         <v>278</v>
       </c>
       <c r="E72">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F72">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="G72">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H72">
         <v>0.6666666666666666</v>
       </c>
       <c r="I72">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J72">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0.5244047619047619</v>
+        <v>0.5253571428571429</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q72" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R72" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S72" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5881,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>97</v>
@@ -5893,46 +5893,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F73">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G73">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H73">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G73">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H73">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="I73">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J73">
         <v>0.25</v>
       </c>
       <c r="K73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M73">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N73">
-        <v>0.5242857142857142</v>
+        <v>0.5244047619047619</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q73" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R73" t="s">
         <v>407</v>
       </c>
       <c r="S73" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5940,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
         <v>98</v>
@@ -5949,34 +5949,34 @@
         <v>280</v>
       </c>
       <c r="E74">
-        <v>0.4761904761904762</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F74">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G74">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H74">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K74">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L74">
         <v>0.4</v>
       </c>
       <c r="M74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N74">
-        <v>0.5221428571428571</v>
+        <v>0.5242857142857142</v>
       </c>
       <c r="O74">
         <v>2</v>
@@ -5985,13 +5985,13 @@
         <v>392</v>
       </c>
       <c r="Q74" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R74" t="s">
         <v>407</v>
       </c>
       <c r="S74" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5999,7 +5999,7 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
         <v>99</v>
@@ -6008,34 +6008,34 @@
         <v>281</v>
       </c>
       <c r="E75">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F75">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G75">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H75">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I75">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L75">
         <v>0.4</v>
       </c>
       <c r="M75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N75">
-        <v>0.5188095238095238</v>
+        <v>0.5221428571428571</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -6044,7 +6044,7 @@
         <v>392</v>
       </c>
       <c r="Q75" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R75" t="s">
         <v>407</v>
@@ -6058,7 +6058,7 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>100</v>
@@ -6067,43 +6067,43 @@
         <v>282</v>
       </c>
       <c r="E76">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F76">
         <v>0.3888888888888889</v>
       </c>
       <c r="G76">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H76">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I76">
         <v>0.4</v>
       </c>
       <c r="J76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K76">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M76">
         <v>0.25</v>
       </c>
       <c r="N76">
-        <v>0.5134523809523809</v>
+        <v>0.5188095238095238</v>
       </c>
       <c r="O76">
         <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R76" t="s">
         <v>407</v>
@@ -6126,16 +6126,16 @@
         <v>283</v>
       </c>
       <c r="E77">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F77">
-        <v>0.7222222222222222</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G77">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H77">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I77">
         <v>0.4</v>
@@ -6144,31 +6144,31 @@
         <v>0.5</v>
       </c>
       <c r="K77">
+        <v>0.6</v>
+      </c>
+      <c r="L77">
         <v>0.2</v>
-      </c>
-      <c r="L77">
-        <v>0.6</v>
       </c>
       <c r="M77">
         <v>0.25</v>
       </c>
       <c r="N77">
-        <v>0.5110714285714286</v>
+        <v>0.5134523809523809</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
         <v>391</v>
       </c>
       <c r="Q77" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R77" t="s">
         <v>407</v>
       </c>
       <c r="S77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6176,7 +6176,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
         <v>102</v>
@@ -6185,19 +6185,19 @@
         <v>284</v>
       </c>
       <c r="E78">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F78">
-        <v>0.5555555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H78">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J78">
         <v>0.5</v>
@@ -6206,13 +6206,13 @@
         <v>0.2</v>
       </c>
       <c r="L78">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M78">
         <v>0.25</v>
       </c>
       <c r="N78">
-        <v>0.4951190476190477</v>
+        <v>0.5110714285714286</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6221,13 +6221,13 @@
         <v>391</v>
       </c>
       <c r="Q78" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="R78" t="s">
         <v>407</v>
       </c>
       <c r="S78" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6247,46 +6247,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F79">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G79">
         <v>0.4285714285714285</v>
       </c>
       <c r="H79">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I79">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K79">
         <v>0.2</v>
       </c>
       <c r="L79">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M79">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N79">
-        <v>0.4951190476190476</v>
+        <v>0.4951190476190477</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q79" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S79" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6294,7 +6294,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -6303,16 +6303,16 @@
         <v>286</v>
       </c>
       <c r="E80">
-        <v>0.6190476190476191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F80">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G80">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H80">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I80">
         <v>0.8</v>
@@ -6321,31 +6321,31 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L80">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N80">
-        <v>0.4916666666666667</v>
+        <v>0.4951190476190476</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q80" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R80" t="s">
         <v>408</v>
       </c>
       <c r="S80" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6353,7 +6353,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>105</v>
@@ -6362,7 +6362,7 @@
         <v>287</v>
       </c>
       <c r="E81">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F81">
         <v>0.5555555555555556</v>
@@ -6371,37 +6371,37 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I81">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>0.2</v>
       </c>
-      <c r="L81">
-        <v>0.4</v>
-      </c>
       <c r="M81">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N81">
-        <v>0.486904761904762</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="O81">
         <v>4</v>
       </c>
       <c r="P81" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q81" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R81" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S81" t="s">
         <v>413</v>
@@ -6412,7 +6412,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
@@ -6421,49 +6421,49 @@
         <v>288</v>
       </c>
       <c r="E82">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F82">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G82">
         <v>0.7142857142857143</v>
       </c>
       <c r="H82">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I82">
         <v>0.4</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L82">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M82">
         <v>0.75</v>
       </c>
       <c r="N82">
-        <v>0.4820238095238095</v>
+        <v>0.486904761904762</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P82" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q82" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R82" t="s">
         <v>407</v>
       </c>
       <c r="S82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6471,7 +6471,7 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>107</v>
@@ -6480,22 +6480,22 @@
         <v>289</v>
       </c>
       <c r="E83">
-        <v>0.5714285714285714</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F83">
-        <v>0.3333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G83">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H83">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I83">
         <v>0.4</v>
       </c>
       <c r="J83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -6507,7 +6507,7 @@
         <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4772619047619048</v>
+        <v>0.4820238095238095</v>
       </c>
       <c r="O83">
         <v>5</v>
@@ -6516,13 +6516,13 @@
         <v>393</v>
       </c>
       <c r="Q83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R83" t="s">
         <v>407</v>
       </c>
       <c r="S83" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6539,19 +6539,19 @@
         <v>290</v>
       </c>
       <c r="E84">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G84">
         <v>0.5714285714285714</v>
       </c>
       <c r="H84">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I84">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J84">
         <v>0.5</v>
@@ -6560,22 +6560,22 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M84">
         <v>0.75</v>
       </c>
       <c r="N84">
-        <v>0.4746428571428571</v>
+        <v>0.4772619047619048</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P84" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q84" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R84" t="s">
         <v>407</v>
@@ -6589,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>109</v>
@@ -6598,49 +6598,49 @@
         <v>291</v>
       </c>
       <c r="E85">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F85">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G85">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H85">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I85">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0.75</v>
       </c>
       <c r="N85">
-        <v>0.4720238095238095</v>
+        <v>0.4746428571428571</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P85" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q85" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R85" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6648,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -6660,10 +6660,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F86">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G86">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H86">
         <v>0.7777777777777778</v>
@@ -6672,34 +6672,34 @@
         <v>0.4</v>
       </c>
       <c r="J86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M86">
         <v>0.75</v>
       </c>
       <c r="N86">
-        <v>0.4680952380952381</v>
+        <v>0.4720238095238095</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P86" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q86" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R86" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S86" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6707,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -6716,19 +6716,19 @@
         <v>293</v>
       </c>
       <c r="E87">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F87">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G87">
         <v>0.7142857142857143</v>
       </c>
       <c r="H87">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I87">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J87">
         <v>0.25</v>
@@ -6737,22 +6737,22 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N87">
-        <v>0.4570238095238095</v>
+        <v>0.4680952380952381</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R87" t="s">
         <v>407</v>
@@ -6766,7 +6766,7 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>112</v>
@@ -6775,49 +6775,49 @@
         <v>294</v>
       </c>
       <c r="E88">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F88">
-        <v>0.7777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G88">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H88">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I88">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0.5</v>
       </c>
       <c r="N88">
-        <v>0.4504761904761905</v>
+        <v>0.4570238095238095</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q88" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S88" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6825,7 +6825,7 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
         <v>113</v>
@@ -6834,46 +6834,46 @@
         <v>295</v>
       </c>
       <c r="E89">
-        <v>0.1904761904761905</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F89">
-        <v>0.1666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G89">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H89">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I89">
         <v>0.4</v>
       </c>
       <c r="J89">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
         <v>0.2</v>
-      </c>
-      <c r="L89">
-        <v>0.6</v>
       </c>
       <c r="M89">
         <v>0.5</v>
       </c>
       <c r="N89">
-        <v>0.4432142857142857</v>
+        <v>0.4504761904761905</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P89" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q89" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R89" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S89" t="s">
         <v>413</v>
@@ -6884,7 +6884,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
         <v>114</v>
@@ -6893,13 +6893,13 @@
         <v>296</v>
       </c>
       <c r="E90">
-        <v>0.3333333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F90">
-        <v>0.3888888888888889</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G90">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H90">
         <v>0.6666666666666666</v>
@@ -6908,31 +6908,31 @@
         <v>0.4</v>
       </c>
       <c r="J90">
+        <v>0.75</v>
+      </c>
+      <c r="K90">
+        <v>0.2</v>
+      </c>
+      <c r="L90">
+        <v>0.6</v>
+      </c>
+      <c r="M90">
         <v>0.5</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0.4</v>
-      </c>
-      <c r="M90">
-        <v>0.75</v>
-      </c>
       <c r="N90">
-        <v>0.4365476190476191</v>
+        <v>0.4432142857142857</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90" t="s">
         <v>392</v>
       </c>
       <c r="Q90" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S90" t="s">
         <v>413</v>
@@ -6952,40 +6952,40 @@
         <v>297</v>
       </c>
       <c r="E91">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F91">
-        <v>0.5555555555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G91">
         <v>0.5714285714285714</v>
       </c>
       <c r="H91">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I91">
         <v>0.4</v>
       </c>
       <c r="J91">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K91">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0.4</v>
       </c>
       <c r="M91">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N91">
-        <v>0.4339285714285714</v>
+        <v>0.4365476190476191</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q91" t="s">
         <v>398</v>
@@ -7002,7 +7002,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>116</v>
@@ -7011,49 +7011,49 @@
         <v>298</v>
       </c>
       <c r="E92">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F92">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G92">
         <v>0.5714285714285714</v>
       </c>
       <c r="H92">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I92">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J92">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K92">
         <v>0.2</v>
       </c>
       <c r="L92">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N92">
-        <v>0.4336904761904762</v>
+        <v>0.4339285714285714</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P92" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q92" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S92" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7061,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
         <v>117</v>
@@ -7070,49 +7070,49 @@
         <v>299</v>
       </c>
       <c r="E93">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="F93">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F93">
-        <v>0.8333333333333334</v>
-      </c>
       <c r="G93">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H93">
         <v>0.5555555555555556</v>
       </c>
       <c r="I93">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J93">
         <v>0.5</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L93">
         <v>0.2</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N93">
-        <v>0.4276190476190476</v>
+        <v>0.4336904761904762</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q93" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="R93" t="s">
         <v>407</v>
       </c>
       <c r="S93" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -7120,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>118</v>
@@ -7129,49 +7129,49 @@
         <v>300</v>
       </c>
       <c r="E94">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F94">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G94">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H94">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I94">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J94">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M94">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>0.4252380952380952</v>
+        <v>0.4276190476190476</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q94" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="R94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S94" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7179,7 +7179,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>119</v>
@@ -7188,49 +7188,49 @@
         <v>301</v>
       </c>
       <c r="E95">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F95">
-        <v>0.05555555555555555</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G95">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H95">
         <v>0.4444444444444444</v>
       </c>
       <c r="I95">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J95">
+        <v>0.25</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0.4</v>
+      </c>
+      <c r="M95">
         <v>0.75</v>
       </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0.6</v>
-      </c>
-      <c r="M95">
-        <v>0.25</v>
-      </c>
       <c r="N95">
-        <v>0.4235714285714286</v>
+        <v>0.4252380952380952</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q95" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="R95" t="s">
         <v>408</v>
       </c>
       <c r="S95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7238,7 +7238,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>120</v>
@@ -7247,43 +7247,43 @@
         <v>302</v>
       </c>
       <c r="E96">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F96">
-        <v>0.5555555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G96">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H96">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I96">
         <v>0.6</v>
       </c>
       <c r="J96">
+        <v>0.75</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0.6</v>
+      </c>
+      <c r="M96">
         <v>0.25</v>
       </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0.4</v>
-      </c>
-      <c r="M96">
-        <v>0.5</v>
-      </c>
       <c r="N96">
-        <v>0.4208333333333333</v>
+        <v>0.4235714285714286</v>
       </c>
       <c r="O96">
         <v>4</v>
       </c>
       <c r="P96" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q96" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R96" t="s">
         <v>408</v>
@@ -7297,7 +7297,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
         <v>121</v>
@@ -7306,16 +7306,16 @@
         <v>303</v>
       </c>
       <c r="E97">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F97">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G97">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H97">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F97">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="G97">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H97">
-        <v>0.8888888888888888</v>
       </c>
       <c r="I97">
         <v>0.6</v>
@@ -7330,22 +7330,22 @@
         <v>0.4</v>
       </c>
       <c r="M97">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N97">
-        <v>0.4178571428571428</v>
+        <v>0.4208333333333333</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q97" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S97" t="s">
         <v>412</v>
@@ -7356,7 +7356,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
         <v>122</v>
@@ -7365,49 +7365,49 @@
         <v>304</v>
       </c>
       <c r="E98">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F98">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G98">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98">
-        <v>0.2222222222222222</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I98">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J98">
+        <v>0.25</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0.4</v>
+      </c>
+      <c r="M98">
         <v>0.75</v>
       </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0.6</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
       <c r="N98">
-        <v>0.4175</v>
+        <v>0.4178571428571428</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q98" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7415,7 +7415,7 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>123</v>
@@ -7424,19 +7424,19 @@
         <v>305</v>
       </c>
       <c r="E99">
-        <v>0.3809523809523809</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F99">
         <v>0.4444444444444444</v>
       </c>
       <c r="G99">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H99">
-        <v>0.6666666666666666</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I99">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J99">
         <v>0.75</v>
@@ -7445,28 +7445,28 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>0.4105952380952381</v>
+        <v>0.4175</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P99" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q99" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R99" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S99" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7483,49 +7483,49 @@
         <v>306</v>
       </c>
       <c r="E100">
-        <v>0.2857142857142857</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F100">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G100">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H100">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I100">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J100">
+        <v>0.75</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
         <v>0.5</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0.4</v>
-      </c>
-      <c r="M100">
-        <v>0.75</v>
-      </c>
       <c r="N100">
-        <v>0.4094047619047619</v>
+        <v>0.4105952380952381</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R100" t="s">
         <v>407</v>
       </c>
       <c r="S100" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7542,34 +7542,34 @@
         <v>307</v>
       </c>
       <c r="E101">
-        <v>0.6190476190476191</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F101">
-        <v>0.3888888888888889</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G101">
         <v>0.5714285714285714</v>
       </c>
       <c r="H101">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I101">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J101">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K101">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N101">
-        <v>0.3994047619047619</v>
+        <v>0.4094047619047619</v>
       </c>
       <c r="O101">
         <v>2</v>
@@ -7578,10 +7578,10 @@
         <v>395</v>
       </c>
       <c r="Q101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R101" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S101" t="s">
         <v>413</v>
@@ -7601,49 +7601,49 @@
         <v>308</v>
       </c>
       <c r="E102">
-        <v>0.3333333333333333</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F102">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G102">
         <v>0.5714285714285714</v>
       </c>
       <c r="H102">
-        <v>0.7777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I102">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>0.3923809523809524</v>
+        <v>0.3994047619047619</v>
       </c>
       <c r="O102">
         <v>2</v>
       </c>
       <c r="P102" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q102" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R102" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S102" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7651,7 +7651,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>127</v>
@@ -7660,49 +7660,49 @@
         <v>309</v>
       </c>
       <c r="E103">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F103">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G103">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H103">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I103">
         <v>0.4</v>
       </c>
       <c r="J103">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N103">
-        <v>0.3805952380952381</v>
+        <v>0.3923809523809524</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P103" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q103" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R103" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7710,7 +7710,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
@@ -7722,43 +7722,43 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F104">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G104">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H104">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I104">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J104">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>0.3758333333333334</v>
+        <v>0.3805952380952381</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P104" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R104" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S104" t="s">
         <v>413</v>
@@ -7769,7 +7769,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>129</v>
@@ -7781,43 +7781,43 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F105">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G105">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H105">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I105">
         <v>0.6</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M105">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N105">
-        <v>0.3735714285714286</v>
+        <v>0.3758333333333334</v>
       </c>
       <c r="O105">
         <v>2</v>
       </c>
       <c r="P105" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q105" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S105" t="s">
         <v>413</v>
@@ -7828,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>130</v>
@@ -7837,49 +7837,49 @@
         <v>312</v>
       </c>
       <c r="E106">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F106">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F106">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="G106">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H106">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I106">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0.6</v>
+      </c>
+      <c r="M106">
         <v>0.5</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0.75</v>
-      </c>
       <c r="N106">
-        <v>0.3698809523809524</v>
+        <v>0.3735714285714286</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P106" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q106" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R106" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S106" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7887,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
         <v>131</v>
@@ -7899,40 +7899,40 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F107">
-        <v>0.3888888888888889</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G107">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H107">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I107">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J107">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K107">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0.75</v>
       </c>
       <c r="N107">
-        <v>0.3695238095238096</v>
+        <v>0.3698809523809524</v>
       </c>
       <c r="O107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P107" t="s">
         <v>392</v>
       </c>
       <c r="Q107" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R107" t="s">
         <v>407</v>
@@ -7946,7 +7946,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
         <v>132</v>
@@ -7955,49 +7955,49 @@
         <v>314</v>
       </c>
       <c r="E108">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G108">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I108">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L108">
         <v>0.2</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N108">
-        <v>0.3623809523809524</v>
+        <v>0.3695238095238096</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q108" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R108" t="s">
         <v>407</v>
       </c>
       <c r="S108" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8005,7 +8005,7 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
         <v>133</v>
@@ -8017,43 +8017,43 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F109">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H109">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I109">
+        <v>0.4</v>
+      </c>
+      <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
         <v>0.2</v>
       </c>
-      <c r="J109">
-        <v>0.25</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0.6</v>
-      </c>
       <c r="M109">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>0.3597619047619047</v>
+        <v>0.3623809523809524</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q109" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R109" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S109" t="s">
         <v>413</v>
@@ -8064,7 +8064,7 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
         <v>134</v>
@@ -8073,49 +8073,49 @@
         <v>316</v>
       </c>
       <c r="E110">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F110">
-        <v>0.4444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G110">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I110">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J110">
+        <v>0.25</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0.6</v>
+      </c>
+      <c r="M110">
         <v>0.75</v>
       </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0.5</v>
-      </c>
       <c r="N110">
-        <v>0.3591666666666666</v>
+        <v>0.3597619047619047</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P110" t="s">
         <v>395</v>
       </c>
       <c r="Q110" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R110" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S110" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8123,7 +8123,7 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>135</v>
@@ -8132,49 +8132,49 @@
         <v>317</v>
       </c>
       <c r="E111">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F111">
-        <v>0.2777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G111">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H111">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I111">
         <v>0.8</v>
       </c>
       <c r="J111">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0.5</v>
       </c>
       <c r="N111">
-        <v>0.3525</v>
+        <v>0.3591666666666666</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P111" t="s">
         <v>395</v>
       </c>
       <c r="Q111" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R111" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S111" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -8191,37 +8191,37 @@
         <v>318</v>
       </c>
       <c r="E112">
-        <v>0.5238095238095238</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F112">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G112">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H112">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I112">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J112">
+        <v>0.25</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0.6</v>
+      </c>
+      <c r="M112">
         <v>0.5</v>
       </c>
-      <c r="K112">
-        <v>0.2</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0.25</v>
-      </c>
       <c r="N112">
-        <v>0.3522619047619048</v>
+        <v>0.3525</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P112" t="s">
         <v>395</v>
@@ -8230,7 +8230,7 @@
         <v>398</v>
       </c>
       <c r="R112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S112" t="s">
         <v>413</v>
@@ -8241,7 +8241,7 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>137</v>
@@ -8250,49 +8250,49 @@
         <v>319</v>
       </c>
       <c r="E113">
-        <v>0.2380952380952381</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F113">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G113">
         <v>0.2857142857142857</v>
       </c>
       <c r="H113">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I113">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J113">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>0.2</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
         <v>0.25</v>
       </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0.5</v>
-      </c>
       <c r="N113">
-        <v>0.3510714285714286</v>
+        <v>0.3522619047619048</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P113" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q113" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R113" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8309,16 +8309,16 @@
         <v>320</v>
       </c>
       <c r="E114">
-        <v>0.1428571428571428</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F114">
-        <v>0.2222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G114">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I114">
         <v>0.6</v>
@@ -8327,25 +8327,25 @@
         <v>0.25</v>
       </c>
       <c r="K114">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0.5</v>
       </c>
       <c r="N114">
-        <v>0.3432142857142858</v>
+        <v>0.3510714285714286</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P114" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R114" t="s">
         <v>408</v>
@@ -8359,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
         <v>139</v>
@@ -8368,7 +8368,7 @@
         <v>321</v>
       </c>
       <c r="E115">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F115">
         <v>0.2222222222222222</v>
@@ -8377,16 +8377,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H115">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I115">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L115">
         <v>0.4</v>
@@ -8395,22 +8395,22 @@
         <v>0.5</v>
       </c>
       <c r="N115">
-        <v>0.3430952380952381</v>
+        <v>0.3432142857142858</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q115" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R115" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -8418,7 +8418,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
         <v>140</v>
@@ -8427,49 +8427,49 @@
         <v>322</v>
       </c>
       <c r="E116">
-        <v>0.2380952380952381</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F116">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G116">
         <v>0.4285714285714285</v>
       </c>
       <c r="H116">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I116">
         <v>0.4</v>
       </c>
       <c r="J116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
         <v>0.4</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
       </c>
       <c r="M116">
         <v>0.5</v>
       </c>
       <c r="N116">
-        <v>0.3425</v>
+        <v>0.3430952380952381</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P116" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q116" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="R116" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S116" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8486,10 +8486,10 @@
         <v>323</v>
       </c>
       <c r="E117">
-        <v>0.5238095238095238</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F117">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G117">
         <v>0.4285714285714285</v>
@@ -8504,22 +8504,22 @@
         <v>0.75</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N117">
-        <v>0.3411904761904762</v>
+        <v>0.3425</v>
       </c>
       <c r="O117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q117" t="s">
         <v>401</v>
@@ -8536,7 +8536,7 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>142</v>
@@ -8545,43 +8545,43 @@
         <v>324</v>
       </c>
       <c r="E118">
-        <v>0.1428571428571428</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F118">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G118">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H118">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I118">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J118">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K118">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N118">
-        <v>0.3384523809523809</v>
+        <v>0.3411904761904762</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q118" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R118" t="s">
         <v>407</v>
@@ -8595,7 +8595,7 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
         <v>143</v>
@@ -8604,49 +8604,49 @@
         <v>325</v>
       </c>
       <c r="E119">
-        <v>0.3809523809523809</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F119">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G119">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I119">
+        <v>0.2</v>
+      </c>
+      <c r="J119">
+        <v>0.5</v>
+      </c>
+      <c r="K119">
+        <v>0.2</v>
+      </c>
+      <c r="L119">
         <v>0.8</v>
       </c>
-      <c r="J119">
+      <c r="M119">
         <v>0.25</v>
       </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0.2</v>
-      </c>
-      <c r="M119">
-        <v>0.75</v>
-      </c>
       <c r="N119">
-        <v>0.3285714285714286</v>
+        <v>0.3384523809523809</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P119" t="s">
         <v>391</v>
       </c>
       <c r="Q119" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R119" t="s">
         <v>407</v>
       </c>
       <c r="S119" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8654,7 +8654,7 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
         <v>144</v>
@@ -8663,19 +8663,19 @@
         <v>326</v>
       </c>
       <c r="E120">
-        <v>0.1904761904761905</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F120">
         <v>0.3333333333333333</v>
       </c>
       <c r="G120">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H120">
         <v>0.3333333333333333</v>
       </c>
       <c r="I120">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J120">
         <v>0.25</v>
@@ -8684,28 +8684,28 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M120">
         <v>0.75</v>
       </c>
       <c r="N120">
-        <v>0.3257142857142857</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P120" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q120" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S120" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8713,7 +8713,7 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
         <v>145</v>
@@ -8722,46 +8722,46 @@
         <v>327</v>
       </c>
       <c r="E121">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F121">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G121">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H121">
         <v>0.3333333333333333</v>
       </c>
       <c r="I121">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J121">
+        <v>0.25</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
         <v>0.75</v>
       </c>
-      <c r="K121">
-        <v>0.2</v>
-      </c>
-      <c r="L121">
-        <v>0.4</v>
-      </c>
-      <c r="M121">
-        <v>0.25</v>
-      </c>
       <c r="N121">
-        <v>0.3204761904761905</v>
+        <v>0.3257142857142857</v>
       </c>
       <c r="O121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q121" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S121" t="s">
         <v>411</v>
@@ -8772,7 +8772,7 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
         <v>146</v>
@@ -8781,49 +8781,49 @@
         <v>328</v>
       </c>
       <c r="E122">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F122">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G122">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H122">
         <v>0.3333333333333333</v>
       </c>
       <c r="I122">
+        <v>0.2</v>
+      </c>
+      <c r="J122">
+        <v>0.75</v>
+      </c>
+      <c r="K122">
+        <v>0.2</v>
+      </c>
+      <c r="L122">
         <v>0.4</v>
       </c>
-      <c r="J122">
+      <c r="M122">
         <v>0.25</v>
       </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0.2</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
       <c r="N122">
-        <v>0.3177380952380952</v>
+        <v>0.3204761904761905</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P122" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q122" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R122" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S122" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8840,13 +8840,13 @@
         <v>329</v>
       </c>
       <c r="E123">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F123">
-        <v>0.3888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G123">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H123">
         <v>0.3333333333333333</v>
@@ -8855,7 +8855,7 @@
         <v>0.4</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -8864,13 +8864,13 @@
         <v>0.2</v>
       </c>
       <c r="M123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>0.3129761904761905</v>
+        <v>0.3177380952380952</v>
       </c>
       <c r="O123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P123" t="s">
         <v>393</v>
@@ -8882,7 +8882,7 @@
         <v>408</v>
       </c>
       <c r="S123" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8890,7 +8890,7 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
         <v>148</v>
@@ -8902,43 +8902,43 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F124">
-        <v>0.1666666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G124">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I124">
         <v>0.4</v>
       </c>
       <c r="J124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M124">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N124">
-        <v>0.3115476190476191</v>
+        <v>0.3129761904761905</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P124" t="s">
         <v>393</v>
       </c>
       <c r="Q124" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S124" t="s">
         <v>411</v>
@@ -8958,13 +8958,13 @@
         <v>331</v>
       </c>
       <c r="E125">
-        <v>0.6190476190476191</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G125">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H125">
         <v>0.5555555555555556</v>
@@ -8982,25 +8982,25 @@
         <v>0.4</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N125">
         <v>0.3115476190476191</v>
       </c>
       <c r="O125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P125" t="s">
         <v>393</v>
       </c>
       <c r="Q125" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="R125" t="s">
         <v>407</v>
       </c>
       <c r="S125" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -9008,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
         <v>150</v>
@@ -9017,16 +9017,16 @@
         <v>332</v>
       </c>
       <c r="E126">
-        <v>0.3809523809523809</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F126">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I126">
         <v>0.4</v>
@@ -9041,19 +9041,19 @@
         <v>0.4</v>
       </c>
       <c r="M126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>0.3097619047619047</v>
+        <v>0.3115476190476191</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P126" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q126" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="R126" t="s">
         <v>407</v>
@@ -9076,16 +9076,16 @@
         <v>333</v>
       </c>
       <c r="E127">
-        <v>0.09523809523809523</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G127">
         <v>0.4285714285714285</v>
       </c>
       <c r="H127">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I127">
         <v>0.4</v>
@@ -9097,28 +9097,28 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M127">
         <v>0.25</v>
       </c>
       <c r="N127">
-        <v>0.3052380952380953</v>
+        <v>0.3097619047619047</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q127" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R127" t="s">
         <v>407</v>
       </c>
       <c r="S127" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9126,7 +9126,7 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" t="s">
         <v>152</v>
@@ -9135,22 +9135,22 @@
         <v>334</v>
       </c>
       <c r="E128">
-        <v>0.2857142857142857</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F128">
-        <v>0.2222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G128">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H128">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I128">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J128">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -9159,25 +9159,25 @@
         <v>0.2</v>
       </c>
       <c r="M128">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N128">
-        <v>0.2501190476190476</v>
+        <v>0.3052380952380953</v>
       </c>
       <c r="O128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P128" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q128" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="R128" t="s">
         <v>407</v>
       </c>
       <c r="S128" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -9185,7 +9185,7 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
         <v>153</v>
@@ -9194,22 +9194,22 @@
         <v>335</v>
       </c>
       <c r="E129">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G129">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H129">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I129">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -9218,25 +9218,25 @@
         <v>0.2</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N129">
-        <v>0.2433333333333333</v>
+        <v>0.2501190476190476</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q129" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="R129" t="s">
         <v>407</v>
       </c>
       <c r="S129" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -9253,16 +9253,16 @@
         <v>336</v>
       </c>
       <c r="E130">
-        <v>0.09523809523809523</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F130">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H130">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I130">
         <v>0.4</v>
@@ -9274,22 +9274,22 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M130">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>0.2315476190476191</v>
+        <v>0.2433333333333333</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q130" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R130" t="s">
         <v>407</v>
@@ -9312,43 +9312,43 @@
         <v>337</v>
       </c>
       <c r="E131">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F131">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G131">
         <v>0.1428571428571428</v>
       </c>
       <c r="H131">
-        <v>0.1111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I131">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M131">
         <v>0.5</v>
       </c>
       <c r="N131">
-        <v>0.2260714285714286</v>
+        <v>0.235</v>
       </c>
       <c r="O131">
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q131" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R131" t="s">
         <v>407</v>
@@ -9362,7 +9362,7 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
         <v>156</v>
@@ -9371,16 +9371,16 @@
         <v>338</v>
       </c>
       <c r="E132">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F132">
-        <v>0.1666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G132">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I132">
         <v>0.4</v>
@@ -9392,28 +9392,28 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M132">
         <v>0.25</v>
       </c>
       <c r="N132">
-        <v>0.2203571428571428</v>
+        <v>0.2315476190476191</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S132" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9421,7 +9421,7 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C133" t="s">
         <v>157</v>
@@ -9430,49 +9430,49 @@
         <v>339</v>
       </c>
       <c r="E133">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F133">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G133">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H133">
         <v>0.1111111111111111</v>
       </c>
       <c r="I133">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N133">
-        <v>0.2111904761904762</v>
+        <v>0.2260714285714286</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q133" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="R133" t="s">
         <v>407</v>
       </c>
       <c r="S133" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -9480,7 +9480,7 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
         <v>158</v>
@@ -9489,16 +9489,16 @@
         <v>340</v>
       </c>
       <c r="E134">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F134">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G134">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H134">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0.4</v>
@@ -9510,25 +9510,25 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0.25</v>
       </c>
       <c r="N134">
-        <v>0.2044047619047619</v>
+        <v>0.2203571428571428</v>
       </c>
       <c r="O134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P134" t="s">
         <v>395</v>
       </c>
       <c r="Q134" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S134" t="s">
         <v>413</v>
@@ -9539,7 +9539,7 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
         <v>159</v>
@@ -9548,19 +9548,19 @@
         <v>341</v>
       </c>
       <c r="E135">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G135">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135">
         <v>0.1111111111111111</v>
       </c>
       <c r="I135">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -9569,28 +9569,28 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>0.1980952380952381</v>
+        <v>0.2111904761904762</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P135" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q135" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R135" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9607,16 +9607,16 @@
         <v>342</v>
       </c>
       <c r="E136">
-        <v>0.4285714285714285</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G136">
         <v>0.2857142857142857</v>
       </c>
       <c r="H136">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I136">
         <v>0.4</v>
@@ -9628,16 +9628,16 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M136">
         <v>0.25</v>
       </c>
       <c r="N136">
-        <v>0.1929761904761905</v>
+        <v>0.2044047619047619</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P136" t="s">
         <v>395</v>
@@ -9646,10 +9646,10 @@
         <v>398</v>
       </c>
       <c r="R136" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S136" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9657,7 +9657,7 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
         <v>161</v>
@@ -9666,19 +9666,19 @@
         <v>343</v>
       </c>
       <c r="E137">
-        <v>0.09523809523809523</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H137">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9687,28 +9687,28 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>0.19</v>
+        <v>0.1980952380952381</v>
       </c>
       <c r="O137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P137" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q137" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R137" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S137" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9716,7 +9716,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
         <v>162</v>
@@ -9725,19 +9725,19 @@
         <v>344</v>
       </c>
       <c r="E138">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F138">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138">
         <v>0.2222222222222222</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -9749,25 +9749,25 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N138">
-        <v>0.1898809523809524</v>
+        <v>0.1929761904761905</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P138" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q138" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R138" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S138" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9775,7 +9775,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C139" t="s">
         <v>163</v>
@@ -9787,46 +9787,46 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="F139">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H139">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I139">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
-        <v>0.173452380952381</v>
+        <v>0.19</v>
       </c>
       <c r="O139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R139" t="s">
         <v>407</v>
       </c>
       <c r="S139" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9834,7 +9834,7 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
         <v>164</v>
@@ -9846,19 +9846,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H140">
-        <v>0.5555555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9867,19 +9867,19 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N140">
-        <v>0.1622619047619048</v>
+        <v>0.1898809523809524</v>
       </c>
       <c r="O140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P140" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q140" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R140" t="s">
         <v>407</v>
@@ -9893,7 +9893,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C141" t="s">
         <v>165</v>
@@ -9902,22 +9902,22 @@
         <v>347</v>
       </c>
       <c r="E141">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F141">
-        <v>0.05555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G141">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I141">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -9929,22 +9929,22 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0.1497619047619048</v>
+        <v>0.173452380952381</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q141" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S141" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9952,7 +9952,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
         <v>166</v>
@@ -9961,22 +9961,22 @@
         <v>348</v>
       </c>
       <c r="E142">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -9985,25 +9985,25 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N142">
-        <v>0.1376190476190476</v>
+        <v>0.1622619047619048</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P142" t="s">
         <v>393</v>
       </c>
       <c r="Q142" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R142" t="s">
         <v>407</v>
       </c>
       <c r="S142" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -10011,7 +10011,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
         <v>167</v>
@@ -10020,22 +10020,22 @@
         <v>349</v>
       </c>
       <c r="E143">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F143">
         <v>0.05555555555555555</v>
       </c>
       <c r="G143">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J143">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -10047,22 +10047,22 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>0.1303571428571428</v>
+        <v>0.1497619047619048</v>
       </c>
       <c r="O143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P143" t="s">
         <v>393</v>
       </c>
       <c r="Q143" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R143" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -10070,7 +10070,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
         <v>168</v>
@@ -10079,22 +10079,22 @@
         <v>350</v>
       </c>
       <c r="E144">
-        <v>0.09523809523809523</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F144">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H144">
         <v>0.2222222222222222</v>
       </c>
       <c r="I144">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -10103,25 +10103,25 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N144">
-        <v>0.113452380952381</v>
+        <v>0.1376190476190476</v>
       </c>
       <c r="O144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P144" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q144" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R144" t="s">
         <v>407</v>
       </c>
       <c r="S144" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -10129,7 +10129,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
         <v>169</v>
@@ -10138,22 +10138,22 @@
         <v>351</v>
       </c>
       <c r="E145">
-        <v>0.3333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F145">
         <v>0.05555555555555555</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H145">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -10165,22 +10165,22 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0.1116666666666667</v>
+        <v>0.1303571428571428</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q145" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R145" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S145" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10188,7 +10188,7 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
         <v>170</v>
@@ -10200,10 +10200,10 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G146">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0.2222222222222222</v>
@@ -10212,7 +10212,7 @@
         <v>0.2</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -10221,25 +10221,25 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N146">
-        <v>0.08904761904761906</v>
+        <v>0.113452380952381</v>
       </c>
       <c r="O146">
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q146" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R146" t="s">
         <v>407</v>
       </c>
       <c r="S146" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -10247,7 +10247,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
         <v>171</v>
@@ -10256,10 +10256,10 @@
         <v>353</v>
       </c>
       <c r="E147">
-        <v>0.04761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -10283,22 +10283,22 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>0.06047619047619048</v>
+        <v>0.1116666666666667</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P147" t="s">
         <v>395</v>
       </c>
       <c r="Q147" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R147" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S147" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -10306,7 +10306,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
         <v>172</v>
@@ -10315,19 +10315,19 @@
         <v>354</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -10342,22 +10342,22 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>0.08904761904761906</v>
       </c>
       <c r="O148">
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q148" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="R148" t="s">
         <v>407</v>
       </c>
       <c r="S148" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10374,7 +10374,7 @@
         <v>355</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -10383,10 +10383,10 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -10401,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>0.06047619047619048</v>
       </c>
       <c r="O149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P149" t="s">
         <v>395</v>
@@ -10413,10 +10413,10 @@
         <v>405</v>
       </c>
       <c r="R149" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S149" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10424,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
         <v>174</v>
@@ -10463,19 +10463,19 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P150" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q150" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R150" t="s">
         <v>407</v>
       </c>
       <c r="S150" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -10542,7 +10542,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
         <v>176</v>
@@ -10581,19 +10581,19 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P152" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q152" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="R152" t="s">
         <v>407</v>
       </c>
       <c r="S152" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10601,7 +10601,7 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
         <v>177</v>
@@ -10640,13 +10640,13 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P153" t="s">
         <v>391</v>
       </c>
       <c r="Q153" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R153" t="s">
         <v>407</v>
@@ -10660,7 +10660,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
         <v>178</v>
@@ -10699,19 +10699,19 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P154" t="s">
         <v>391</v>
       </c>
       <c r="Q154" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R154" t="s">
         <v>407</v>
       </c>
       <c r="S154" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P155" t="s">
         <v>391</v>
       </c>
       <c r="Q155" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="R155" t="s">
         <v>407</v>
@@ -10778,7 +10778,7 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
         <v>180</v>
@@ -10817,19 +10817,19 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P156" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q156" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="R156" t="s">
         <v>407</v>
       </c>
       <c r="S156" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -10837,7 +10837,7 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
         <v>181</v>
@@ -10876,19 +10876,19 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P157" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q157" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R157" t="s">
         <v>407</v>
       </c>
       <c r="S157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -10896,7 +10896,7 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
         <v>182</v>
@@ -10938,16 +10938,16 @@
         <v>5</v>
       </c>
       <c r="P158" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q158" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S158" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -10955,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
         <v>183</v>
@@ -10994,19 +10994,19 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q159" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R159" t="s">
         <v>408</v>
       </c>
       <c r="S159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -11056,16 +11056,16 @@
         <v>4</v>
       </c>
       <c r="P160" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q160" t="s">
         <v>405</v>
       </c>
       <c r="R160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S160" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11073,7 +11073,7 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
         <v>185</v>
@@ -11112,19 +11112,19 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P161" t="s">
         <v>395</v>
       </c>
       <c r="Q161" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="R161" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S161" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11132,7 +11132,7 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
         <v>186</v>
@@ -11171,19 +11171,19 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P162" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q162" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R162" t="s">
         <v>407</v>
       </c>
       <c r="S162" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -11191,7 +11191,7 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
         <v>187</v>
@@ -11230,16 +11230,16 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P163" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q163" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R163" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S163" t="s">
         <v>413</v>
@@ -11250,7 +11250,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
         <v>188</v>
@@ -11295,7 +11295,7 @@
         <v>395</v>
       </c>
       <c r="Q164" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="R164" t="s">
         <v>409</v>
@@ -11309,7 +11309,7 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
         <v>189</v>
@@ -11348,16 +11348,16 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P165" t="s">
         <v>395</v>
       </c>
       <c r="Q165" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="R165" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S165" t="s">
         <v>413</v>
@@ -11368,7 +11368,7 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C166" t="s">
         <v>190</v>
@@ -11410,16 +11410,16 @@
         <v>4</v>
       </c>
       <c r="P166" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q166" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R166" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S166" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -11466,10 +11466,10 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P167" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q167" t="s">
         <v>401</v>
@@ -11486,7 +11486,7 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
         <v>192</v>
@@ -11525,19 +11525,19 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P168" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q168" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="R168" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S168" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -11545,7 +11545,7 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C169" t="s">
         <v>193</v>
@@ -11584,19 +11584,19 @@
         <v>0</v>
       </c>
       <c r="O169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P169" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q169" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R169" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -11604,7 +11604,7 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
         <v>194</v>
@@ -11646,10 +11646,10 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q170" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R170" t="s">
         <v>407</v>
@@ -11663,7 +11663,7 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
         <v>195</v>
@@ -11702,19 +11702,19 @@
         <v>0</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P171" t="s">
         <v>391</v>
       </c>
       <c r="Q171" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="R171" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S171" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -11722,7 +11722,7 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
@@ -11761,16 +11761,16 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P172" t="s">
         <v>395</v>
       </c>
       <c r="Q172" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R172" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S172" t="s">
         <v>413</v>
@@ -11781,7 +11781,7 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
         <v>197</v>
@@ -11826,13 +11826,13 @@
         <v>393</v>
       </c>
       <c r="Q173" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R173" t="s">
         <v>407</v>
       </c>
       <c r="S173" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -11840,7 +11840,7 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
         <v>198</v>
@@ -11879,19 +11879,19 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P174" t="s">
         <v>395</v>
       </c>
       <c r="Q174" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R174" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -11899,7 +11899,7 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" t="s">
         <v>199</v>
@@ -11938,13 +11938,13 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P175" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q175" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R175" t="s">
         <v>407</v>
@@ -11958,7 +11958,7 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
         <v>200</v>
@@ -11997,19 +11997,19 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q176" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="R176" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12017,7 +12017,7 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
         <v>201</v>
@@ -12056,16 +12056,16 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q177" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R177" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S177" t="s">
         <v>413</v>
@@ -12076,7 +12076,7 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C178" t="s">
         <v>202</v>
@@ -12121,13 +12121,13 @@
         <v>393</v>
       </c>
       <c r="Q178" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="R178" t="s">
         <v>407</v>
       </c>
       <c r="S178" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12174,19 +12174,19 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P179" t="s">
         <v>395</v>
       </c>
       <c r="Q179" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R179" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S179" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12194,7 +12194,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
         <v>204</v>
@@ -12233,19 +12233,19 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P180" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q180" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="R180" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S180" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12253,7 +12253,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
         <v>205</v>
@@ -12292,16 +12292,16 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P181" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q181" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="R181" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S181" t="s">
         <v>413</v>
@@ -12312,7 +12312,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
@@ -12351,19 +12351,19 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P182" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q182" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="R182" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S182" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:19">

--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -190,6 +190,9 @@
     <t>Slough Borough Council</t>
   </si>
   <si>
+    <t>Brighton and Hove City Council</t>
+  </si>
+  <si>
     <t>London Borough of Hounslow</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>Dundee City Council</t>
   </si>
   <si>
-    <t>Brighton and Hove City Council</t>
-  </si>
-  <si>
     <t>Royal Borough of Kensington and Chelsea</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>Blackpool Borough Council</t>
   </si>
   <si>
+    <t>West Berkshire Council</t>
+  </si>
+  <si>
     <t>Darlington Borough Council</t>
   </si>
   <si>
-    <t>West Berkshire Council</t>
-  </si>
-  <si>
     <t>London Borough of Croydon</t>
   </si>
   <si>
@@ -463,12 +463,12 @@
     <t>Caerphilly County Borough Council</t>
   </si>
   <si>
+    <t>Peterborough City Council</t>
+  </si>
+  <si>
     <t>Warrington Borough Council</t>
   </si>
   <si>
-    <t>Peterborough City Council</t>
-  </si>
-  <si>
     <t>Stockport Metropolitan Borough Council</t>
   </si>
   <si>
@@ -541,18 +541,18 @@
     <t>Torfaen County Borough Council</t>
   </si>
   <si>
+    <t>London Borough of Waltham Forest</t>
+  </si>
+  <si>
     <t>City of York Council</t>
   </si>
   <si>
+    <t>Tameside Metropolitan Borough Council</t>
+  </si>
+  <si>
     <t>Thurrock Council</t>
   </si>
   <si>
-    <t>Tameside Metropolitan Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Waltham Forest</t>
-  </si>
-  <si>
     <t>Stoke-on-Trent City Council</t>
   </si>
   <si>
@@ -736,6 +736,9 @@
     <t>SLG</t>
   </si>
   <si>
+    <t>BNH</t>
+  </si>
+  <si>
     <t>HNS</t>
   </si>
   <si>
@@ -757,9 +760,6 @@
     <t>DND</t>
   </si>
   <si>
-    <t>BNH</t>
-  </si>
-  <si>
     <t>KEC</t>
   </si>
   <si>
@@ -778,12 +778,12 @@
     <t>BPL</t>
   </si>
   <si>
+    <t>WBK</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>WBK</t>
-  </si>
-  <si>
     <t>CRY</t>
   </si>
   <si>
@@ -1009,12 +1009,12 @@
     <t>CAY</t>
   </si>
   <si>
+    <t>PTE</t>
+  </si>
+  <si>
     <t>WRT</t>
   </si>
   <si>
-    <t>PTE</t>
-  </si>
-  <si>
     <t>SKP</t>
   </si>
   <si>
@@ -1087,16 +1087,16 @@
     <t>TOF</t>
   </si>
   <si>
+    <t>WFT</t>
+  </si>
+  <si>
     <t>YOR</t>
   </si>
   <si>
+    <t>TAM</t>
+  </si>
+  <si>
     <t>THR</t>
-  </si>
-  <si>
-    <t>TAM</t>
-  </si>
-  <si>
-    <t>WFT</t>
   </si>
   <si>
     <t>STE</t>
@@ -3580,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
@@ -3589,19 +3589,19 @@
         <v>240</v>
       </c>
       <c r="E34">
-        <v>0.7142857142857143</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F34">
-        <v>0.5555555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G34">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H34">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I34">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J34">
         <v>0.75</v>
@@ -3610,28 +3610,28 @@
         <v>0.4</v>
       </c>
       <c r="L34">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0.6457142857142857</v>
+        <v>0.6520238095238096</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R34" t="s">
         <v>407</v>
       </c>
       <c r="S34" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3648,40 +3648,40 @@
         <v>241</v>
       </c>
       <c r="E35">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F35">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G35">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H35">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J35">
         <v>0.75</v>
       </c>
       <c r="K35">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
         <v>0.8</v>
       </c>
       <c r="M35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N35">
-        <v>0.6389285714285714</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="O35">
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q35" t="s">
         <v>401</v>
@@ -3698,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
@@ -3707,43 +3707,43 @@
         <v>242</v>
       </c>
       <c r="E36">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F36">
         <v>0.6111111111111112</v>
       </c>
       <c r="G36">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H36">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I36">
         <v>0.8</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K36">
         <v>0.2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M36">
         <v>0.5</v>
       </c>
       <c r="N36">
-        <v>0.638095238095238</v>
+        <v>0.6389285714285714</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q36" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R36" t="s">
         <v>407</v>
@@ -3757,7 +3757,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -3766,22 +3766,22 @@
         <v>243</v>
       </c>
       <c r="E37">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F37">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G37">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H37">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0.2</v>
@@ -3790,25 +3790,25 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N37">
-        <v>0.6360714285714286</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q37" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="R37" t="s">
         <v>407</v>
       </c>
       <c r="S37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3816,7 +3816,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -3825,46 +3825,46 @@
         <v>244</v>
       </c>
       <c r="E38">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F38">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G38">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H38">
         <v>0.5555555555555556</v>
       </c>
-      <c r="G38">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H38">
-        <v>0.7777777777777778</v>
-      </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0.75</v>
       </c>
       <c r="N38">
-        <v>0.6353571428571428</v>
+        <v>0.6360714285714286</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P38" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S38" t="s">
         <v>413</v>
@@ -3875,7 +3875,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -3884,49 +3884,49 @@
         <v>245</v>
       </c>
       <c r="E39">
-        <v>0.7619047619047619</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F39">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H39">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0.5</v>
       </c>
       <c r="K39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M39">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.6326190476190475</v>
+        <v>0.6353571428571428</v>
       </c>
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R39" t="s">
         <v>408</v>
       </c>
       <c r="S39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -3943,49 +3943,49 @@
         <v>246</v>
       </c>
       <c r="E40">
-        <v>0.5238095238095238</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F40">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G40">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I40">
         <v>0.8</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
         <v>0.6</v>
       </c>
-      <c r="L40">
-        <v>0.4</v>
-      </c>
       <c r="M40">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N40">
-        <v>0.6317857142857143</v>
+        <v>0.6326190476190475</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q40" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3993,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -4002,43 +4002,43 @@
         <v>247</v>
       </c>
       <c r="E41">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F41">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G41">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H41">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I41">
         <v>0.8</v>
       </c>
       <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <v>0.4</v>
+      </c>
+      <c r="M41">
         <v>0.75</v>
       </c>
-      <c r="K41">
-        <v>0.4</v>
-      </c>
-      <c r="L41">
-        <v>0.6</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
       <c r="N41">
-        <v>0.6282142857142858</v>
+        <v>0.6317857142857143</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q41" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R41" t="s">
         <v>407</v>
@@ -4415,49 +4415,49 @@
         <v>254</v>
       </c>
       <c r="E48">
-        <v>0.7619047619047619</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F48">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G48">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H48">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I48">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J48">
         <v>0.75</v>
       </c>
       <c r="K48">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
         <v>0.75</v>
       </c>
       <c r="N48">
-        <v>0.6128571428571429</v>
+        <v>0.6102380952380951</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q48" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="R48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4474,49 +4474,49 @@
         <v>255</v>
       </c>
       <c r="E49">
-        <v>0.6190476190476191</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F49">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G49">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H49">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I49">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J49">
         <v>0.75</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L49">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M49">
         <v>0.75</v>
       </c>
       <c r="N49">
-        <v>0.6102380952380951</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q49" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -8958,13 +8958,13 @@
         <v>331</v>
       </c>
       <c r="E125">
-        <v>0.4285714285714285</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F125">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125">
         <v>0.5555555555555556</v>
@@ -8982,25 +8982,25 @@
         <v>0.4</v>
       </c>
       <c r="M125">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <v>0.3115476190476191</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P125" t="s">
         <v>393</v>
       </c>
       <c r="Q125" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="R125" t="s">
         <v>407</v>
       </c>
       <c r="S125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -9017,13 +9017,13 @@
         <v>332</v>
       </c>
       <c r="E126">
-        <v>0.6190476190476191</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G126">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H126">
         <v>0.5555555555555556</v>
@@ -9041,25 +9041,25 @@
         <v>0.4</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N126">
         <v>0.3115476190476191</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P126" t="s">
         <v>393</v>
       </c>
       <c r="Q126" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="R126" t="s">
         <v>407</v>
       </c>
       <c r="S126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -10483,7 +10483,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
         <v>175</v>
@@ -10522,19 +10522,19 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P151" t="s">
         <v>391</v>
       </c>
       <c r="Q151" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R151" t="s">
         <v>407</v>
       </c>
       <c r="S151" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10581,19 +10581,19 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P152" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q152" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R152" t="s">
         <v>407</v>
       </c>
       <c r="S152" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10660,7 +10660,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" t="s">
         <v>178</v>
@@ -10702,16 +10702,16 @@
         <v>3</v>
       </c>
       <c r="P154" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q154" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="R154" t="s">
         <v>407</v>
       </c>
       <c r="S154" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:19">

--- a/2021/single_tier.xlsx
+++ b/2021/single_tier.xlsx
@@ -115,51 +115,51 @@
     <t>South Gloucestershire Council</t>
   </si>
   <si>
+    <t>London Borough of Southwark</t>
+  </si>
+  <si>
+    <t>Telford &amp; Wrekin Council</t>
+  </si>
+  <si>
+    <t>London Borough of Richmond upon Thames</t>
+  </si>
+  <si>
+    <t>London Borough of Lewisham</t>
+  </si>
+  <si>
+    <t>Isle of Wight Council</t>
+  </si>
+  <si>
+    <t>Nottingham City Council</t>
+  </si>
+  <si>
+    <t>Glasgow City Council</t>
+  </si>
+  <si>
+    <t>Reading Borough Council</t>
+  </si>
+  <si>
+    <t>London Borough of Brent</t>
+  </si>
+  <si>
+    <t>London Borough of Ealing</t>
+  </si>
+  <si>
+    <t>Northumberland County Council</t>
+  </si>
+  <si>
+    <t>Leicester City Council</t>
+  </si>
+  <si>
+    <t>Medway Council</t>
+  </si>
+  <si>
+    <t>Leeds City Council</t>
+  </si>
+  <si>
     <t>Wokingham Borough Council</t>
   </si>
   <si>
-    <t>London Borough of Southwark</t>
-  </si>
-  <si>
-    <t>Telford &amp; Wrekin Council</t>
-  </si>
-  <si>
-    <t>London Borough of Richmond upon Thames</t>
-  </si>
-  <si>
-    <t>London Borough of Lewisham</t>
-  </si>
-  <si>
-    <t>Isle of Wight Council</t>
-  </si>
-  <si>
-    <t>Nottingham City Council</t>
-  </si>
-  <si>
-    <t>Glasgow City Council</t>
-  </si>
-  <si>
-    <t>Reading Borough Council</t>
-  </si>
-  <si>
-    <t>London Borough of Brent</t>
-  </si>
-  <si>
-    <t>London Borough of Ealing</t>
-  </si>
-  <si>
-    <t>Northumberland County Council</t>
-  </si>
-  <si>
-    <t>Leicester City Council</t>
-  </si>
-  <si>
-    <t>Medway Council</t>
-  </si>
-  <si>
-    <t>Leeds City Council</t>
-  </si>
-  <si>
     <t>Fife Council</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t>Herefordshire Council</t>
   </si>
   <si>
+    <t>Cheshire West and Chester Council</t>
+  </si>
+  <si>
     <t>Durham County Council</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
     <t>Royal Borough of Kingston upon Thames</t>
   </si>
   <si>
-    <t>Cheshire West and Chester Council</t>
-  </si>
-  <si>
     <t>Birmingham City Council</t>
   </si>
   <si>
@@ -334,6 +334,9 @@
     <t>Midlothian Council</t>
   </si>
   <si>
+    <t>South Tyneside Council</t>
+  </si>
+  <si>
     <t>Milton Keynes Council</t>
   </si>
   <si>
@@ -349,9 +352,6 @@
     <t>Denbighshire County Council</t>
   </si>
   <si>
-    <t>South Tyneside Council</t>
-  </si>
-  <si>
     <t>London Borough of Enfield</t>
   </si>
   <si>
@@ -502,12 +502,12 @@
     <t>Dumfries and Galloway Council</t>
   </si>
   <si>
+    <t>Luton Borough Council</t>
+  </si>
+  <si>
     <t>Comhairle nan Eilean Siar</t>
   </si>
   <si>
-    <t>Luton Borough Council</t>
-  </si>
-  <si>
     <t>City and County of Swansea Council</t>
   </si>
   <si>
@@ -661,51 +661,51 @@
     <t>SGC</t>
   </si>
   <si>
+    <t>SWK</t>
+  </si>
+  <si>
+    <t>TFW</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>LEW</t>
+  </si>
+  <si>
+    <t>IOW</t>
+  </si>
+  <si>
+    <t>NGM</t>
+  </si>
+  <si>
+    <t>GLG</t>
+  </si>
+  <si>
+    <t>RDG</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>EAL</t>
+  </si>
+  <si>
+    <t>NBL</t>
+  </si>
+  <si>
+    <t>LCE</t>
+  </si>
+  <si>
+    <t>MDW</t>
+  </si>
+  <si>
+    <t>LDS</t>
+  </si>
+  <si>
     <t>WOK</t>
   </si>
   <si>
-    <t>SWK</t>
-  </si>
-  <si>
-    <t>TFW</t>
-  </si>
-  <si>
-    <t>RIC</t>
-  </si>
-  <si>
-    <t>LEW</t>
-  </si>
-  <si>
-    <t>IOW</t>
-  </si>
-  <si>
-    <t>NGM</t>
-  </si>
-  <si>
-    <t>GLG</t>
-  </si>
-  <si>
-    <t>RDG</t>
-  </si>
-  <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>EAL</t>
-  </si>
-  <si>
-    <t>NBL</t>
-  </si>
-  <si>
-    <t>LCE</t>
-  </si>
-  <si>
-    <t>MDW</t>
-  </si>
-  <si>
-    <t>LDS</t>
-  </si>
-  <si>
     <t>FIF</t>
   </si>
   <si>
@@ -811,6 +811,9 @@
     <t>HEF</t>
   </si>
   <si>
+    <t>CHW</t>
+  </si>
+  <si>
     <t>DUR</t>
   </si>
   <si>
@@ -838,9 +841,6 @@
     <t>KTT</t>
   </si>
   <si>
-    <t>CHW</t>
-  </si>
-  <si>
     <t>BIR</t>
   </si>
   <si>
@@ -880,6 +880,9 @@
     <t>MLN</t>
   </si>
   <si>
+    <t>STY</t>
+  </si>
+  <si>
     <t>MIK</t>
   </si>
   <si>
@@ -895,9 +898,6 @@
     <t>DEN</t>
   </si>
   <si>
-    <t>STY</t>
-  </si>
-  <si>
     <t>ENF</t>
   </si>
   <si>
@@ -1048,10 +1048,10 @@
     <t>DGY</t>
   </si>
   <si>
+    <t>LUT</t>
+  </si>
+  <si>
     <t>ELS</t>
-  </si>
-  <si>
-    <t>LUT</t>
   </si>
   <si>
     <t>SWA</t>
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2114,49 +2114,49 @@
         <v>215</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F9">
-        <v>0.5555555555555556</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G9">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H9">
         <v>0.8888888888888888</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
         <v>0.8</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0.4</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N9">
-        <v>0.7938095238095239</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R9" t="s">
         <v>407</v>
       </c>
       <c r="S9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -2176,40 +2176,40 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="F10">
-        <v>0.9444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G10">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.7899999999999999</v>
+        <v>0.7834523809523809</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R10" t="s">
         <v>407</v>
@@ -2223,7 +2223,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2232,49 +2232,49 @@
         <v>217</v>
       </c>
       <c r="E11">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F11">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N11">
-        <v>0.7834523809523809</v>
+        <v>0.7801190476190477</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11" t="s">
         <v>393</v>
       </c>
       <c r="Q11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="R11" t="s">
         <v>407</v>
       </c>
       <c r="S11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2294,16 +2294,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F12">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2312,19 +2312,19 @@
         <v>0.8</v>
       </c>
       <c r="L12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M12">
         <v>0.75</v>
       </c>
       <c r="N12">
-        <v>0.7801190476190477</v>
+        <v>0.7729761904761906</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q12" t="s">
         <v>401</v>
@@ -2333,7 +2333,7 @@
         <v>407</v>
       </c>
       <c r="S12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2341,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -2350,49 +2350,49 @@
         <v>219</v>
       </c>
       <c r="E13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F13">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="G13">
         <v>0.7142857142857143</v>
-      </c>
-      <c r="F13">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
       </c>
       <c r="H13">
         <v>0.7777777777777778</v>
       </c>
       <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>0.6</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.8</v>
       </c>
       <c r="L13">
         <v>0.8</v>
       </c>
       <c r="M13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.7729761904761906</v>
+        <v>0.7711904761904764</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2409,49 +2409,49 @@
         <v>220</v>
       </c>
       <c r="E14">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14">
-        <v>0.9444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G14">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H14">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N14">
-        <v>0.7711904761904764</v>
+        <v>0.7644047619047619</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2459,7 +2459,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2468,19 +2468,19 @@
         <v>221</v>
       </c>
       <c r="E15">
-        <v>0.6666666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F15">
-        <v>0.8333333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G15">
         <v>0.8571428571428571</v>
       </c>
       <c r="H15">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2492,25 +2492,25 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.7644047619047619</v>
+        <v>0.7511904761904763</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="R15" t="s">
         <v>407</v>
       </c>
       <c r="S15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2518,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -2527,49 +2527,49 @@
         <v>222</v>
       </c>
       <c r="E16">
-        <v>0.7619047619047619</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F16">
-        <v>0.6111111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G16">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H16">
         <v>0.7777777777777778</v>
       </c>
       <c r="I16">
+        <v>0.8</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>0.6</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.4</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N16">
-        <v>0.7511904761904763</v>
+        <v>0.7432142857142859</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q16" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R16" t="s">
         <v>407</v>
       </c>
       <c r="S16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2577,7 +2577,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -2589,22 +2589,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F17">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G17">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H17">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I17">
+        <v>0.4</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0.8</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.6</v>
       </c>
       <c r="L17">
         <v>0.8</v>
@@ -2613,16 +2613,16 @@
         <v>0.75</v>
       </c>
       <c r="N17">
-        <v>0.7432142857142859</v>
+        <v>0.7327380952380954</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R17" t="s">
         <v>407</v>
@@ -2645,25 +2645,25 @@
         <v>224</v>
       </c>
       <c r="E18">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F18">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G18">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
         <v>0.4</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.8</v>
       </c>
       <c r="L18">
         <v>0.8</v>
@@ -2672,7 +2672,7 @@
         <v>0.75</v>
       </c>
       <c r="N18">
-        <v>0.7327380952380954</v>
+        <v>0.731547619047619</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -2695,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2704,16 +2704,16 @@
         <v>225</v>
       </c>
       <c r="E19">
-        <v>0.5714285714285714</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F19">
         <v>0.5555555555555556</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I19">
         <v>0.8</v>
@@ -2722,16 +2722,16 @@
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L19">
         <v>0.8</v>
       </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.731547619047619</v>
+        <v>0.7216666666666667</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -2740,13 +2740,13 @@
         <v>392</v>
       </c>
       <c r="Q19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2763,49 +2763,49 @@
         <v>226</v>
       </c>
       <c r="E20">
-        <v>0.8095238095238095</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F20">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G20">
         <v>0.8571428571428571</v>
       </c>
       <c r="H20">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0.8</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>0.2</v>
       </c>
-      <c r="L20">
-        <v>0.8</v>
-      </c>
       <c r="M20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N20">
-        <v>0.7216666666666667</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>392</v>
       </c>
       <c r="Q20" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="R20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2822,49 +2822,49 @@
         <v>227</v>
       </c>
       <c r="E21">
-        <v>0.9047619047619048</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F21">
-        <v>0.8333333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G21">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N21">
-        <v>0.7142857142857142</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R21" t="s">
         <v>407</v>
       </c>
       <c r="S21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2872,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -2884,46 +2884,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F22">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G22">
         <v>0.7142857142857143</v>
       </c>
       <c r="H22">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N22">
-        <v>0.7071428571428572</v>
+        <v>0.7063095238095239</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q22" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="R22" t="s">
         <v>407</v>
       </c>
       <c r="S22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
@@ -2940,16 +2940,16 @@
         <v>229</v>
       </c>
       <c r="E23">
-        <v>0.6666666666666666</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="F23">
-        <v>0.6111111111111112</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
         <v>0.7142857142857143</v>
       </c>
       <c r="H23">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I23">
         <v>0.8</v>
@@ -2958,31 +2958,31 @@
         <v>1</v>
       </c>
       <c r="K23">
+        <v>0.4</v>
+      </c>
+      <c r="L23">
         <v>0.6</v>
-      </c>
-      <c r="L23">
-        <v>0.8</v>
       </c>
       <c r="M23">
         <v>0.75</v>
       </c>
       <c r="N23">
-        <v>0.7063095238095239</v>
+        <v>0.7008333333333335</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R23" t="s">
         <v>407</v>
       </c>
       <c r="S23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5064,46 +5064,46 @@
         <v>265</v>
       </c>
       <c r="E59">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F59">
-        <v>0.5555555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G59">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H59">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I59">
         <v>0.8</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L59">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M59">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N59">
-        <v>0.5753571428571428</v>
+        <v>0.5822619047619048</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P59" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q59" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="R59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S59" t="s">
         <v>413</v>
@@ -5123,46 +5123,46 @@
         <v>266</v>
       </c>
       <c r="E60">
-        <v>0.6190476190476191</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F60">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G60">
         <v>0.8571428571428571</v>
       </c>
       <c r="H60">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I60">
+        <v>0.8</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>0.4</v>
       </c>
-      <c r="J60">
-        <v>0.5</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0.6</v>
-      </c>
       <c r="M60">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N60">
-        <v>0.5714285714285715</v>
+        <v>0.5753571428571428</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q60" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="R60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S60" t="s">
         <v>413</v>
@@ -5173,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>85</v>
@@ -5182,46 +5182,46 @@
         <v>267</v>
       </c>
       <c r="E61">
-        <v>0.3809523809523809</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F61">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G61">
         <v>0.8571428571428571</v>
       </c>
       <c r="H61">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J61">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>0.6</v>
       </c>
-      <c r="L61">
-        <v>0.8</v>
-      </c>
       <c r="M61">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N61">
-        <v>0.5707142857142857</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q61" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R61" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S61" t="s">
         <v>413</v>
@@ -5232,7 +5232,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
         <v>86</v>
@@ -5241,49 +5241,49 @@
         <v>268</v>
       </c>
       <c r="E62">
-        <v>0.5238095238095238</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F62">
         <v>0.5555555555555556</v>
       </c>
       <c r="G62">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H62">
-        <v>0.7777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I62">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J62">
         <v>0.75</v>
       </c>
       <c r="K62">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L62">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M62">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N62">
-        <v>0.565357142857143</v>
+        <v>0.5707142857142857</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P62" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q62" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R62" t="s">
         <v>407</v>
       </c>
       <c r="S62" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5291,7 +5291,7 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
@@ -5300,25 +5300,25 @@
         <v>269</v>
       </c>
       <c r="E63">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F63">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H63">
-        <v>0.3333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I63">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K63">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L63">
         <v>0.6</v>
@@ -5327,22 +5327,22 @@
         <v>0.5</v>
       </c>
       <c r="N63">
-        <v>0.5607142857142857</v>
+        <v>0.565357142857143</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P63" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q63" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="R63" t="s">
         <v>407</v>
       </c>
       <c r="S63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -5350,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -5359,25 +5359,25 @@
         <v>270</v>
       </c>
       <c r="E64">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F64">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0.7777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L64">
         <v>0.6</v>
@@ -5386,16 +5386,16 @@
         <v>0.5</v>
       </c>
       <c r="N64">
-        <v>0.5535714285714287</v>
+        <v>0.5607142857142857</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q64" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R64" t="s">
         <v>407</v>
@@ -5409,7 +5409,7 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>89</v>
@@ -5418,49 +5418,49 @@
         <v>271</v>
       </c>
       <c r="E65">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F65">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="I65">
+        <v>0.4</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0.6</v>
+      </c>
+      <c r="M65">
         <v>0.5</v>
       </c>
-      <c r="G65">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H65">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I65">
-        <v>0.8</v>
-      </c>
-      <c r="J65">
-        <v>0.5</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0.8</v>
-      </c>
-      <c r="M65">
-        <v>0.75</v>
-      </c>
       <c r="N65">
-        <v>0.5475</v>
+        <v>0.5535714285714287</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R65" t="s">
         <v>407</v>
       </c>
       <c r="S65" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5468,7 +5468,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>90</v>
@@ -5477,49 +5477,49 @@
         <v>272</v>
       </c>
       <c r="E66">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H66">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F66">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G66">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H66">
-        <v>0.5555555555555556</v>
       </c>
       <c r="I66">
         <v>0.8</v>
       </c>
       <c r="J66">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K66">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M66">
         <v>0.75</v>
       </c>
       <c r="N66">
-        <v>0.5438095238095239</v>
+        <v>0.5475</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q66" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R66" t="s">
         <v>407</v>
       </c>
       <c r="S66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5536,40 +5536,40 @@
         <v>273</v>
       </c>
       <c r="E67">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F67">
-        <v>0.9444444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G67">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H67">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J67">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K67">
         <v>0.2</v>
       </c>
       <c r="L67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M67">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N67">
-        <v>0.5392857142857144</v>
+        <v>0.5438095238095239</v>
       </c>
       <c r="O67">
         <v>5</v>
       </c>
       <c r="P67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q67" t="s">
         <v>401</v>
@@ -5578,7 +5578,7 @@
         <v>407</v>
       </c>
       <c r="S67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5586,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
@@ -5595,49 +5595,49 @@
         <v>274</v>
       </c>
       <c r="E68">
-        <v>0.5238095238095238</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F68">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G68">
         <v>0.4285714285714285</v>
       </c>
       <c r="H68">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I68">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J68">
         <v>0.5</v>
       </c>
       <c r="K68">
+        <v>0.2</v>
+      </c>
+      <c r="L68">
         <v>0.4</v>
       </c>
-      <c r="L68">
-        <v>0.2</v>
-      </c>
       <c r="M68">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N68">
-        <v>0.5336904761904762</v>
+        <v>0.5392857142857144</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q68" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S68" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -6412,7 +6412,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
@@ -6421,25 +6421,25 @@
         <v>288</v>
       </c>
       <c r="E82">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F82">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G82">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H82">
-        <v>0.3333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I82">
         <v>0.4</v>
       </c>
       <c r="J82">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0.4</v>
@@ -6448,22 +6448,22 @@
         <v>0.75</v>
       </c>
       <c r="N82">
-        <v>0.486904761904762</v>
+        <v>0.4895238095238095</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q82" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R82" t="s">
         <v>407</v>
       </c>
       <c r="S82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6471,7 +6471,7 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>107</v>
@@ -6480,49 +6480,49 @@
         <v>289</v>
       </c>
       <c r="E83">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F83">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G83">
         <v>0.7142857142857143</v>
       </c>
       <c r="H83">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I83">
         <v>0.4</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M83">
         <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4820238095238095</v>
+        <v>0.486904761904762</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P83" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q83" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R83" t="s">
         <v>407</v>
       </c>
       <c r="S83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6530,7 +6530,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>108</v>
@@ -6539,22 +6539,22 @@
         <v>290</v>
       </c>
       <c r="E84">
-        <v>0.5714285714285714</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F84">
-        <v>0.3333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G84">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H84">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I84">
         <v>0.4</v>
       </c>
       <c r="J84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>0.75</v>
       </c>
       <c r="N84">
-        <v>0.4772619047619048</v>
+        <v>0.4820238095238095</v>
       </c>
       <c r="O84">
         <v>5</v>
@@ -6575,13 +6575,13 @@
         <v>393</v>
       </c>
       <c r="Q84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R84" t="s">
         <v>407</v>
       </c>
       <c r="S84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6598,19 +6598,19 @@
         <v>291</v>
       </c>
       <c r="E85">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F85">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G85">
         <v>0.5714285714285714</v>
       </c>
       <c r="H85">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I85">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J85">
         <v>0.5</v>
@@ -6619,22 +6619,22 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M85">
         <v>0.75</v>
       </c>
       <c r="N85">
-        <v>0.4746428571428571</v>
+        <v>0.4772619047619048</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q85" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R85" t="s">
         <v>407</v>
@@ -6648,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
         <v>110</v>
@@ -6657,49 +6657,49 @@
         <v>292</v>
       </c>
       <c r="E86">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F86">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G86">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H86">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I86">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0.75</v>
       </c>
       <c r="N86">
-        <v>0.4720238095238095</v>
+        <v>0.4746428571428571</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P86" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q86" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S86" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6707,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>111</v>
@@ -6719,10 +6719,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F87">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G87">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H87">
         <v>0.7777777777777778</v>
@@ -6731,34 +6731,34 @@
         <v>0.4</v>
       </c>
       <c r="J87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M87">
         <v>0.75</v>
       </c>
       <c r="N87">
-        <v>0.4680952380952381</v>
+        <v>0.4720238095238095</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q87" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="R87" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S87" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -9716,7 +9716,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C138" t="s">
         <v>162</v>
@@ -9725,49 +9725,49 @@
         <v>344</v>
       </c>
       <c r="E138">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H138">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
         <v>0.4</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
       <c r="M138">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>0.1929761904761905</v>
+        <v>0.1971428571428571</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P138" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q138" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="R138" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S138" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9775,7 +9775,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
         <v>163</v>
@@ -9784,19 +9784,19 @@
         <v>345</v>
       </c>
       <c r="E139">
-        <v>0.09523809523809523</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -9805,28 +9805,28 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N139">
-        <v>0.19</v>
+        <v>0.1929761904761905</v>
       </c>
       <c r="O139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P139" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q139" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R139" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S139" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:19">
